--- a/INTLINE/data/578/578_series.xlsx
+++ b/INTLINE/data/578/578_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\578\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEE2DC-1F11-496A-B0C5-80D899E4DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF43E1-9BF4-4390-8285-2969C709B4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="2070" windowWidth="23880" windowHeight="11385" activeTab="1" xr2:uid="{33D9BD7F-4BE5-40AD-9289-4BAF655FA17F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33D9BD7F-4BE5-40AD-9289-4BAF655FA17F}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$A$1:$K$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">M!$A$1:$K$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q!$A$1:$K$99</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1264">
   <si>
     <t>Short Label</t>
   </si>
@@ -2220,9 +2221,6 @@
     <t>THAQGNPA0018.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, General Government (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>General Government</t>
   </si>
   <si>
@@ -2241,9 +2239,6 @@
     <t>U.S. Dollar</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, General Government, Short Term (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Short-Term</t>
   </si>
   <si>
@@ -2259,9 +2254,6 @@
     <t>THAVGDDF0002.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, General Government, Long Term (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Long-Term</t>
   </si>
   <si>
@@ -2277,9 +2269,6 @@
     <t>THAVGDDF0006.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Debt Service Payments (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Debt Service Payments</t>
   </si>
   <si>
@@ -2295,9 +2284,6 @@
     <t>THAVGDDF0062.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Thailand
 External Sector
 Gross External Debt, Debt Service Payments, Public Sector (BPM6) (US Dollars)
@@ -2310,9 +2296,6 @@
     <t>THAVGDDF0065.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector, Principal (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Principle</t>
   </si>
   <si>
@@ -2328,9 +2311,6 @@
     <t>THAVGDDF0066.Q</t>
   </si>
   <si>
-    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector, Interest (BPM6) (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -4512,9 +4492,6 @@
     <t>THAVMM0017.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Gold (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -4529,9 +4506,6 @@
     <t>THAVR0001.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Special Drawing Rights (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Thailand
 External Sector
 International Reserves, Special Drawing Rights (US Dollars)
@@ -4543,9 +4517,6 @@
     <t>THAVR0002.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Reserve Position in the IMF (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Thailand
 External Sector
 International Reserves, Reserve Position in the IMF (US Dollars)
@@ -4557,9 +4528,6 @@
     <t>THAVR0003.M</t>
   </si>
   <si>
-    <t>External Sector, International Reserves, Foreign Currency Reserves (US Dollars), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Foreign Currency Reserves</t>
   </si>
   <si>
@@ -4572,9 +4540,6 @@
   </si>
   <si>
     <t>THAVR0004.M</t>
-  </si>
-  <si>
-    <t>External Sector, International Reserves (US Dollars), NSA - Thailand</t>
   </si>
   <si>
     <t>Offical Reserve Assets</t>
@@ -5595,6 +5560,85 @@
   <si>
     <t>THABOP010a7.Q</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Debt</t>
+  </si>
+  <si>
+    <t>2General government</t>
+  </si>
+  <si>
+    <t>3Short-term</t>
+  </si>
+  <si>
+    <t>7Long-term</t>
+  </si>
+  <si>
+    <t>81Debt service payments</t>
+  </si>
+  <si>
+    <t>84Public sector</t>
+  </si>
+  <si>
+    <t>85Principal</t>
+  </si>
+  <si>
+    <t>86Interest</t>
+  </si>
+  <si>
+    <t>91Debt service ratio</t>
+  </si>
+  <si>
+    <t>92Public sector</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, General Government (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, General Government, Short Term (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, General Government, Long Term (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Debt Service Payments (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector, Principal (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, Gross External Debt, Debt Service Payments, Public Sector, Interest (BPM6), NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Gold, NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Special Drawing Rights, NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Reserve Position in the IMF, NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, Foreign Currency Reserves, NSA - Thailand</t>
+  </si>
+  <si>
+    <t>External Sector, International Reserves, NSA - Thailand</t>
+  </si>
+  <si>
+    <t>Average wage classified by industry (ISIC Rev.4)</t>
+  </si>
+  <si>
+    <t>16Manufacturing</t>
+  </si>
+  <si>
+    <t>Bank of Thailand (BOT);Bureau of Trade and Economic Indices of Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business Sentiment Index by components</t>
   </si>
 </sst>
 </file>
@@ -6071,13 +6115,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6103,13 +6147,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6138,10 +6182,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6170,10 +6214,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6202,10 +6246,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6213,7 +6257,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6234,10 +6278,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6245,7 +6289,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -6263,13 +6307,13 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6298,10 +6342,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6330,10 +6374,10 @@
         <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6362,10 +6406,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6394,10 +6438,10 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6426,10 +6470,10 @@
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6458,10 +6502,10 @@
         <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6490,10 +6534,10 @@
         <v>39</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6522,10 +6566,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,10 +6598,10 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6586,15 +6630,15 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -6618,10 +6662,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6650,10 +6694,10 @@
         <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6682,10 +6726,10 @@
         <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6714,10 +6758,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6746,10 +6790,10 @@
         <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6778,10 +6822,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6810,10 +6854,10 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6842,10 +6886,10 @@
         <v>39</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6874,15 +6918,15 @@
         <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -6906,10 +6950,10 @@
         <v>39</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6938,10 +6982,10 @@
         <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6970,10 +7014,10 @@
         <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7002,10 +7046,10 @@
         <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7034,10 +7078,10 @@
         <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7066,10 +7110,10 @@
         <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7077,7 +7121,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -7098,10 +7142,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7130,7 +7174,7 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>131</v>
@@ -7162,10 +7206,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7194,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>139</v>
@@ -7226,10 +7270,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7258,7 +7302,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>57</v>
@@ -7290,15 +7334,15 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
@@ -7322,10 +7366,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7354,10 +7398,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,10 +7430,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7418,7 +7462,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>164</v>
@@ -7450,10 +7494,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7482,10 +7526,10 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7514,7 +7558,7 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>34</v>
@@ -7546,10 +7590,10 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7578,10 +7622,10 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7610,10 +7654,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7642,10 +7686,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7674,10 +7718,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7706,10 +7750,10 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7738,10 +7782,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7770,10 +7814,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7802,10 +7846,10 @@
         <v>39</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,10 +7878,10 @@
         <v>39</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7866,10 +7910,10 @@
         <v>39</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7898,10 +7942,10 @@
         <v>39</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7930,10 +7974,10 @@
         <v>39</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7962,10 +8006,10 @@
         <v>39</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7994,10 +8038,10 @@
         <v>39</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8026,10 +8070,10 @@
         <v>39</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8058,15 +8102,15 @@
         <v>39</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="B65" t="s">
         <v>232</v>
@@ -8090,10 +8134,10 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8122,10 +8166,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8154,10 +8198,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8186,10 +8230,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8218,10 +8262,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>1160</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8250,10 +8294,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8282,10 +8326,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8314,10 +8358,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8346,7 +8390,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>131</v>
@@ -8378,10 +8422,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8410,7 +8454,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>139</v>
@@ -8442,10 +8486,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8474,7 +8518,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>57</v>
@@ -8506,15 +8550,15 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="B79" t="s">
         <v>275</v>
@@ -8538,10 +8582,10 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8570,10 +8614,10 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8602,10 +8646,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8634,7 +8678,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>164</v>
@@ -8666,10 +8710,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8698,10 +8742,10 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8730,10 +8774,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8762,10 +8806,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -8776,14 +8820,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9386F9-A9F4-42C2-B703-52798AD06FF9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8840,7 +8883,7 @@
         <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -8861,10 +8904,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8893,10 +8936,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8925,10 +8968,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8957,10 +9000,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8989,10 +9032,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9021,10 +9064,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9053,10 +9096,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9085,10 +9128,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9117,10 +9160,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9149,10 +9192,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9181,10 +9224,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9213,10 +9256,10 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>1210</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9245,10 +9288,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9277,10 +9320,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9309,10 +9352,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9341,15 +9384,15 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="B18" t="s">
         <v>357</v>
@@ -9373,10 +9416,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9405,10 +9448,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9437,10 +9480,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9469,10 +9512,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9501,15 +9544,15 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="B23" t="s">
         <v>374</v>
@@ -9533,10 +9576,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9565,10 +9608,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9597,10 +9640,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9629,15 +9672,15 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B27" t="s">
         <v>389</v>
@@ -9661,15 +9704,15 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="B28" t="s">
         <v>392</v>
@@ -9693,15 +9736,15 @@
         <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B29" t="s">
         <v>395</v>
@@ -9725,15 +9768,15 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
@@ -9757,15 +9800,15 @@
         <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B31" t="s">
         <v>401</v>
@@ -9789,15 +9832,15 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="B32" t="s">
         <v>404</v>
@@ -9821,15 +9864,15 @@
         <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B33" t="s">
         <v>407</v>
@@ -9853,18 +9896,18 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -9885,13 +9928,13 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>414</v>
       </c>
@@ -9917,13 +9960,13 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>417</v>
       </c>
@@ -9949,13 +9992,13 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>420</v>
       </c>
@@ -9981,13 +10024,13 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -10013,13 +10056,13 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>426</v>
       </c>
@@ -10045,13 +10088,13 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>429</v>
       </c>
@@ -10077,13 +10120,13 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>432</v>
       </c>
@@ -10109,13 +10152,13 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>437</v>
       </c>
@@ -10141,18 +10184,18 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -10173,13 +10216,13 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>441</v>
       </c>
@@ -10205,13 +10248,13 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>444</v>
       </c>
@@ -10237,13 +10280,13 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>447</v>
       </c>
@@ -10269,13 +10312,13 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>450</v>
       </c>
@@ -10301,13 +10344,13 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>453</v>
       </c>
@@ -10333,13 +10376,13 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>456</v>
       </c>
@@ -10365,15 +10408,15 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="B50" t="s">
         <v>457</v>
@@ -10397,13 +10440,13 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>461</v>
       </c>
@@ -10429,13 +10472,13 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>464</v>
       </c>
@@ -10461,13 +10504,13 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>467</v>
       </c>
@@ -10493,13 +10536,13 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>470</v>
       </c>
@@ -10525,13 +10568,13 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -10557,51 +10600,57 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>476</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H56" t="s">
         <v>477</v>
-      </c>
-      <c r="B56" t="s">
-        <v>474</v>
-      </c>
-      <c r="C56" t="s">
-        <v>475</v>
-      </c>
-      <c r="E56" t="s">
-        <v>476</v>
-      </c>
-      <c r="F56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>305</v>
-      </c>
-      <c r="H56" t="s">
-        <v>478</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
       </c>
+      <c r="J56" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" t="s">
         <v>479</v>
       </c>
-      <c r="C57" t="s">
-        <v>480</v>
-      </c>
-      <c r="E57" t="s">
-        <v>481</v>
-      </c>
       <c r="F57" t="s">
         <v>37</v>
       </c>
@@ -10609,24 +10658,30 @@
         <v>305</v>
       </c>
       <c r="H57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
+      <c r="J57" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>1240</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s">
-        <v>483</v>
+        <v>1250</v>
       </c>
       <c r="C58" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E58" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -10635,24 +10690,30 @@
         <v>305</v>
       </c>
       <c r="H58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I58" t="s">
         <v>20</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s">
-        <v>487</v>
+        <v>1251</v>
       </c>
       <c r="C59" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E59" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
@@ -10661,24 +10722,30 @@
         <v>305</v>
       </c>
       <c r="H59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I59" t="s">
         <v>20</v>
       </c>
+      <c r="J59" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s">
-        <v>491</v>
+        <v>1252</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E60" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -10687,24 +10754,30 @@
         <v>305</v>
       </c>
       <c r="H60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I60" t="s">
         <v>20</v>
       </c>
+      <c r="J60" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s">
-        <v>494</v>
+        <v>1253</v>
       </c>
       <c r="C61" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E61" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -10713,24 +10786,30 @@
         <v>305</v>
       </c>
       <c r="H61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
       </c>
+      <c r="J61" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>498</v>
+        <v>1254</v>
       </c>
       <c r="C62" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E62" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -10739,76 +10818,94 @@
         <v>305</v>
       </c>
       <c r="H62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
+      <c r="J62" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E63" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G63" t="s">
         <v>305</v>
       </c>
       <c r="H63" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
+      <c r="J63" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B64" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E64" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F64" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G64" t="s">
         <v>305</v>
       </c>
       <c r="H64" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -10823,24 +10920,24 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B66" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
@@ -10855,24 +10952,24 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -10887,24 +10984,24 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C68" t="s">
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -10919,24 +11016,24 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B69" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C69" t="s">
         <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F69" t="s">
         <v>37</v>
@@ -10951,24 +11048,24 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B70" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C70" t="s">
         <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F70" t="s">
         <v>37</v>
@@ -10983,24 +11080,24 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C71" t="s">
         <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F71" t="s">
         <v>37</v>
@@ -11015,24 +11112,24 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C72" t="s">
         <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F72" t="s">
         <v>37</v>
@@ -11047,24 +11144,24 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F73" t="s">
         <v>37</v>
@@ -11079,24 +11176,24 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B74" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C74" t="s">
         <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -11111,24 +11208,24 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B75" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C75" t="s">
         <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -11143,24 +11240,24 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C76" t="s">
         <v>260</v>
       </c>
       <c r="E76" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
@@ -11175,24 +11272,24 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C77" t="s">
         <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -11207,24 +11304,24 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -11239,24 +11336,24 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B79" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C79" t="s">
         <v>57</v>
       </c>
       <c r="E79" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -11271,24 +11368,24 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B80" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
@@ -11303,24 +11400,24 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="B81" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C81" t="s">
         <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F81" t="s">
         <v>37</v>
@@ -11335,24 +11432,24 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B82" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C82" t="s">
         <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F82" t="s">
         <v>37</v>
@@ -11367,24 +11464,24 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B83" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C83" t="s">
         <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -11399,24 +11496,24 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C84" t="s">
         <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F84" t="s">
         <v>37</v>
@@ -11431,24 +11528,24 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B85" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C85" t="s">
         <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F85" t="s">
         <v>37</v>
@@ -11463,24 +11560,24 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B86" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C86" t="s">
         <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F86" t="s">
         <v>37</v>
@@ -11495,24 +11592,24 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B87" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -11527,24 +11624,24 @@
         <v>39</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B88" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C88" t="s">
         <v>260</v>
       </c>
       <c r="E88" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F88" t="s">
         <v>37</v>
@@ -11559,24 +11656,24 @@
         <v>39</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C89" t="s">
         <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F89" t="s">
         <v>37</v>
@@ -11591,24 +11688,24 @@
         <v>39</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B90" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F90" t="s">
         <v>37</v>
@@ -11623,24 +11720,24 @@
         <v>39</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B91" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="F91" t="s">
         <v>37</v>
@@ -11655,24 +11752,24 @@
         <v>39</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
@@ -11687,24 +11784,24 @@
         <v>39</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="B93" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C93" t="s">
         <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F93" t="s">
         <v>37</v>
@@ -11719,24 +11816,24 @@
         <v>39</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B94" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C94" t="s">
         <v>156</v>
       </c>
       <c r="E94" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F94" t="s">
         <v>37</v>
@@ -11751,24 +11848,24 @@
         <v>39</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C95" t="s">
         <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F95" t="s">
         <v>37</v>
@@ -11783,24 +11880,24 @@
         <v>39</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C96" t="s">
         <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F96" t="s">
         <v>37</v>
@@ -11815,24 +11912,24 @@
         <v>39</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C97" t="s">
         <v>168</v>
       </c>
       <c r="E97" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -11847,24 +11944,24 @@
         <v>39</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B98" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C98" t="s">
         <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -11879,46 +11976,45 @@
         <v>39</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F99" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G99" t="s">
         <v>305</v>
       </c>
       <c r="H99" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
       </c>
+      <c r="J99" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1261</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K99" xr:uid="{8B9386F9-A9F4-42C2-B703-52798AD06FF9}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Bank of Thailand (BOT)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11926,13 +12022,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953FDB0D-0C7B-42B3-9DBB-918B89E6E841}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A139" sqref="A139"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11983,2357 +12080,2399 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" t="s">
         <v>617</v>
-      </c>
-      <c r="B2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C2" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" t="s">
-        <v>618</v>
-      </c>
-      <c r="I3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B4" t="s">
-        <v>624</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G4" t="s">
         <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>628</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" t="s">
         <v>629</v>
       </c>
-      <c r="F5" t="s">
-        <v>505</v>
-      </c>
-      <c r="G5" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" t="s">
-        <v>618</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="C7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" t="s">
+        <v>611</v>
+      </c>
+      <c r="I7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" t="s">
         <v>635</v>
       </c>
-      <c r="B6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D6" t="s">
-        <v>628</v>
-      </c>
-      <c r="E6" t="s">
-        <v>634</v>
-      </c>
-      <c r="F6" t="s">
-        <v>505</v>
-      </c>
-      <c r="G6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
-      <c r="I6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" t="s">
+        <v>611</v>
+      </c>
+      <c r="I8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" t="s">
         <v>639</v>
       </c>
-      <c r="B7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D7" t="s">
-        <v>628</v>
-      </c>
-      <c r="E7" t="s">
-        <v>638</v>
-      </c>
-      <c r="F7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H7" t="s">
-        <v>618</v>
-      </c>
-      <c r="I7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" t="s">
+        <v>611</v>
+      </c>
+      <c r="I9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D10" t="s">
+        <v>621</v>
+      </c>
+      <c r="E10" t="s">
         <v>643</v>
       </c>
-      <c r="B8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C8" t="s">
-        <v>641</v>
-      </c>
-      <c r="D8" t="s">
-        <v>628</v>
-      </c>
-      <c r="E8" t="s">
-        <v>642</v>
-      </c>
-      <c r="F8" t="s">
-        <v>505</v>
-      </c>
-      <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" t="s">
-        <v>618</v>
-      </c>
-      <c r="I8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F10" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" t="s">
+        <v>611</v>
+      </c>
+      <c r="I10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" t="s">
+        <v>646</v>
+      </c>
+      <c r="D11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E11" t="s">
         <v>647</v>
       </c>
-      <c r="B9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C9" t="s">
-        <v>645</v>
-      </c>
-      <c r="D9" t="s">
-        <v>628</v>
-      </c>
-      <c r="E9" t="s">
-        <v>646</v>
-      </c>
-      <c r="F9" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" t="s">
-        <v>618</v>
-      </c>
-      <c r="I9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" t="s">
+        <v>611</v>
+      </c>
+      <c r="I11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" t="s">
+        <v>650</v>
+      </c>
+      <c r="D12" t="s">
+        <v>621</v>
+      </c>
+      <c r="E12" t="s">
         <v>651</v>
       </c>
-      <c r="B10" t="s">
-        <v>648</v>
-      </c>
-      <c r="C10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D10" t="s">
-        <v>628</v>
-      </c>
-      <c r="E10" t="s">
-        <v>650</v>
-      </c>
-      <c r="F10" t="s">
-        <v>505</v>
-      </c>
-      <c r="G10" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" t="s">
-        <v>618</v>
-      </c>
-      <c r="I10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" t="s">
+        <v>611</v>
+      </c>
+      <c r="I12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" t="s">
+        <v>653</v>
+      </c>
+      <c r="C13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D13" t="s">
+        <v>621</v>
+      </c>
+      <c r="E13" t="s">
         <v>655</v>
       </c>
-      <c r="B11" t="s">
-        <v>652</v>
-      </c>
-      <c r="C11" t="s">
-        <v>653</v>
-      </c>
-      <c r="D11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E11" t="s">
-        <v>654</v>
-      </c>
-      <c r="F11" t="s">
-        <v>505</v>
-      </c>
-      <c r="G11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s">
-        <v>618</v>
-      </c>
-      <c r="I11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" t="s">
-        <v>656</v>
-      </c>
-      <c r="C12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" t="s">
-        <v>628</v>
-      </c>
-      <c r="E12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" t="s">
-        <v>618</v>
-      </c>
-      <c r="I12" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>663</v>
-      </c>
-      <c r="B13" t="s">
-        <v>660</v>
-      </c>
-      <c r="C13" t="s">
-        <v>661</v>
-      </c>
-      <c r="D13" t="s">
-        <v>628</v>
-      </c>
-      <c r="E13" t="s">
-        <v>662</v>
-      </c>
       <c r="F13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G13" t="s">
         <v>305</v>
       </c>
       <c r="H13" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I13" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E14" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F14" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G14" t="s">
         <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B15" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C15" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E15" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F15" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G15" t="s">
         <v>305</v>
       </c>
       <c r="H15" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E16" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F16" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G16" t="s">
         <v>305</v>
       </c>
       <c r="H16" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B17" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C17" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E17" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F17" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G17" t="s">
         <v>305</v>
       </c>
       <c r="H17" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B18" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C18" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E18" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="F18" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G18" t="s">
         <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B19" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C19" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E19" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F19" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G19" t="s">
         <v>305</v>
       </c>
       <c r="H19" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B20" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C20" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F20" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G20" t="s">
         <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B21" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C21" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E21" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G21" t="s">
         <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B22" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C22" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E22" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F22" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G22" t="s">
         <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B23" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C23" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G23" t="s">
         <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C24" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E24" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F24" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G24" t="s">
         <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B25" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C25" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E25" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F25" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G25" t="s">
         <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B26" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C26" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E26" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F26" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
         <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B27" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C27" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E27" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F27" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G27" t="s">
         <v>305</v>
       </c>
       <c r="H27" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B28" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E28" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F28" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G28" t="s">
         <v>433</v>
       </c>
       <c r="H28" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I28" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>714</v>
+      </c>
+      <c r="B29" t="s">
+        <v>711</v>
+      </c>
+      <c r="C29" t="s">
+        <v>712</v>
+      </c>
+      <c r="D29" t="s">
+        <v>707</v>
+      </c>
+      <c r="E29" t="s">
+        <v>713</v>
+      </c>
+      <c r="F29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" t="s">
+        <v>611</v>
+      </c>
+      <c r="I29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>715</v>
+      </c>
+      <c r="C30" t="s">
+        <v>712</v>
+      </c>
+      <c r="D30" t="s">
+        <v>707</v>
+      </c>
+      <c r="E30" t="s">
+        <v>716</v>
+      </c>
+      <c r="F30" t="s">
+        <v>498</v>
+      </c>
+      <c r="G30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" t="s">
+        <v>611</v>
+      </c>
+      <c r="I30" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>720</v>
+      </c>
+      <c r="B31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" t="s">
+        <v>712</v>
+      </c>
+      <c r="D31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E31" t="s">
+        <v>719</v>
+      </c>
+      <c r="F31" t="s">
+        <v>498</v>
+      </c>
+      <c r="G31" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" t="s">
+        <v>611</v>
+      </c>
+      <c r="I31" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>723</v>
+      </c>
+      <c r="B32" t="s">
         <v>721</v>
       </c>
-      <c r="B29" t="s">
-        <v>718</v>
-      </c>
-      <c r="C29" t="s">
-        <v>719</v>
-      </c>
-      <c r="D29" t="s">
-        <v>714</v>
-      </c>
-      <c r="E29" t="s">
-        <v>720</v>
-      </c>
-      <c r="F29" t="s">
-        <v>505</v>
-      </c>
-      <c r="G29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H29" t="s">
-        <v>618</v>
-      </c>
-      <c r="I29" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C32" t="s">
+        <v>712</v>
+      </c>
+      <c r="D32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E32" t="s">
+        <v>722</v>
+      </c>
+      <c r="F32" t="s">
+        <v>498</v>
+      </c>
+      <c r="G32" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" t="s">
+        <v>611</v>
+      </c>
+      <c r="I32" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>726</v>
+      </c>
+      <c r="B33" t="s">
         <v>724</v>
       </c>
-      <c r="B30" t="s">
-        <v>722</v>
-      </c>
-      <c r="C30" t="s">
-        <v>719</v>
-      </c>
-      <c r="D30" t="s">
-        <v>714</v>
-      </c>
-      <c r="E30" t="s">
-        <v>723</v>
-      </c>
-      <c r="F30" t="s">
-        <v>505</v>
-      </c>
-      <c r="G30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" t="s">
-        <v>618</v>
-      </c>
-      <c r="I30" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C33" t="s">
+        <v>712</v>
+      </c>
+      <c r="D33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E33" t="s">
+        <v>725</v>
+      </c>
+      <c r="F33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" t="s">
+        <v>611</v>
+      </c>
+      <c r="I33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B34" t="s">
         <v>727</v>
       </c>
-      <c r="B31" t="s">
-        <v>725</v>
-      </c>
-      <c r="C31" t="s">
-        <v>719</v>
-      </c>
-      <c r="D31" t="s">
-        <v>714</v>
-      </c>
-      <c r="E31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F31" t="s">
-        <v>505</v>
-      </c>
-      <c r="G31" t="s">
-        <v>305</v>
-      </c>
-      <c r="H31" t="s">
-        <v>618</v>
-      </c>
-      <c r="I31" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C34" t="s">
+        <v>712</v>
+      </c>
+      <c r="D34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E34" t="s">
+        <v>728</v>
+      </c>
+      <c r="F34" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" t="s">
+        <v>305</v>
+      </c>
+      <c r="H34" t="s">
+        <v>611</v>
+      </c>
+      <c r="I34" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>731</v>
+      </c>
+      <c r="B35" t="s">
+        <v>729</v>
+      </c>
+      <c r="C35" t="s">
+        <v>712</v>
+      </c>
+      <c r="D35" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" t="s">
         <v>730</v>
       </c>
-      <c r="B32" t="s">
-        <v>728</v>
-      </c>
-      <c r="C32" t="s">
-        <v>719</v>
-      </c>
-      <c r="D32" t="s">
-        <v>714</v>
-      </c>
-      <c r="E32" t="s">
-        <v>729</v>
-      </c>
-      <c r="F32" t="s">
-        <v>505</v>
-      </c>
-      <c r="G32" t="s">
-        <v>305</v>
-      </c>
-      <c r="H32" t="s">
-        <v>618</v>
-      </c>
-      <c r="I32" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G35" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" t="s">
+        <v>611</v>
+      </c>
+      <c r="I35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>734</v>
+      </c>
+      <c r="B36" t="s">
+        <v>732</v>
+      </c>
+      <c r="C36" t="s">
+        <v>712</v>
+      </c>
+      <c r="D36" t="s">
+        <v>707</v>
+      </c>
+      <c r="E36" t="s">
         <v>733</v>
       </c>
-      <c r="B33" t="s">
-        <v>731</v>
-      </c>
-      <c r="C33" t="s">
-        <v>719</v>
-      </c>
-      <c r="D33" t="s">
-        <v>714</v>
-      </c>
-      <c r="E33" t="s">
-        <v>732</v>
-      </c>
-      <c r="F33" t="s">
-        <v>505</v>
-      </c>
-      <c r="G33" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" t="s">
-        <v>618</v>
-      </c>
-      <c r="I33" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B34" t="s">
-        <v>734</v>
-      </c>
-      <c r="C34" t="s">
-        <v>719</v>
-      </c>
-      <c r="D34" t="s">
-        <v>714</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F36" t="s">
+        <v>498</v>
+      </c>
+      <c r="G36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" t="s">
+        <v>611</v>
+      </c>
+      <c r="I36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>738</v>
+      </c>
+      <c r="B37" t="s">
         <v>735</v>
       </c>
-      <c r="F34" t="s">
-        <v>505</v>
-      </c>
-      <c r="G34" t="s">
-        <v>305</v>
-      </c>
-      <c r="H34" t="s">
-        <v>618</v>
-      </c>
-      <c r="I34" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>738</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C37" t="s">
         <v>736</v>
       </c>
-      <c r="C35" t="s">
-        <v>719</v>
-      </c>
-      <c r="D35" t="s">
-        <v>714</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E37" t="s">
         <v>737</v>
       </c>
-      <c r="F35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G35" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35" t="s">
-        <v>618</v>
-      </c>
-      <c r="I35" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F37" t="s">
+        <v>498</v>
+      </c>
+      <c r="G37" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" t="s">
+        <v>611</v>
+      </c>
+      <c r="I37" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>742</v>
+      </c>
+      <c r="B38" t="s">
+        <v>739</v>
+      </c>
+      <c r="C38" t="s">
+        <v>740</v>
+      </c>
+      <c r="D38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E38" t="s">
         <v>741</v>
       </c>
-      <c r="B36" t="s">
-        <v>739</v>
-      </c>
-      <c r="C36" t="s">
-        <v>719</v>
-      </c>
-      <c r="D36" t="s">
-        <v>714</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F38" t="s">
+        <v>498</v>
+      </c>
+      <c r="G38" t="s">
+        <v>305</v>
+      </c>
+      <c r="H38" t="s">
+        <v>611</v>
+      </c>
+      <c r="I38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>745</v>
+      </c>
+      <c r="B39" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39" t="s">
         <v>740</v>
       </c>
-      <c r="F36" t="s">
-        <v>505</v>
-      </c>
-      <c r="G36" t="s">
-        <v>305</v>
-      </c>
-      <c r="H36" t="s">
-        <v>618</v>
-      </c>
-      <c r="I36" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" t="s">
-        <v>742</v>
-      </c>
-      <c r="C37" t="s">
-        <v>743</v>
-      </c>
-      <c r="D37" t="s">
-        <v>714</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D39" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" t="s">
         <v>744</v>
       </c>
-      <c r="F37" t="s">
-        <v>505</v>
-      </c>
-      <c r="G37" t="s">
-        <v>305</v>
-      </c>
-      <c r="H37" t="s">
-        <v>618</v>
-      </c>
-      <c r="I37" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F39" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" t="s">
+        <v>611</v>
+      </c>
+      <c r="I39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>746</v>
+      </c>
+      <c r="C40" t="s">
+        <v>747</v>
+      </c>
+      <c r="D40" t="s">
+        <v>707</v>
+      </c>
+      <c r="E40" t="s">
+        <v>748</v>
+      </c>
+      <c r="F40" t="s">
+        <v>498</v>
+      </c>
+      <c r="G40" t="s">
+        <v>305</v>
+      </c>
+      <c r="H40" t="s">
+        <v>611</v>
+      </c>
+      <c r="I40" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>752</v>
+      </c>
+      <c r="B41" t="s">
         <v>749</v>
       </c>
-      <c r="B38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C38" t="s">
-        <v>747</v>
-      </c>
-      <c r="D38" t="s">
-        <v>714</v>
-      </c>
-      <c r="E38" t="s">
-        <v>748</v>
-      </c>
-      <c r="F38" t="s">
-        <v>505</v>
-      </c>
-      <c r="G38" t="s">
-        <v>305</v>
-      </c>
-      <c r="H38" t="s">
-        <v>618</v>
-      </c>
-      <c r="I38" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>752</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
         <v>750</v>
       </c>
-      <c r="C39" t="s">
-        <v>747</v>
-      </c>
-      <c r="D39" t="s">
-        <v>714</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D41" t="s">
+        <v>707</v>
+      </c>
+      <c r="E41" t="s">
         <v>751</v>
       </c>
-      <c r="F39" t="s">
-        <v>505</v>
-      </c>
-      <c r="G39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H39" t="s">
-        <v>618</v>
-      </c>
-      <c r="I39" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="F41" t="s">
+        <v>498</v>
+      </c>
+      <c r="G41" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" t="s">
+        <v>611</v>
+      </c>
+      <c r="I41" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>755</v>
+      </c>
+      <c r="B42" t="s">
         <v>753</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
+        <v>750</v>
+      </c>
+      <c r="D42" t="s">
+        <v>707</v>
+      </c>
+      <c r="E42" t="s">
         <v>754</v>
       </c>
-      <c r="D40" t="s">
-        <v>714</v>
-      </c>
-      <c r="E40" t="s">
-        <v>755</v>
-      </c>
-      <c r="F40" t="s">
-        <v>505</v>
-      </c>
-      <c r="G40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H40" t="s">
-        <v>618</v>
-      </c>
-      <c r="I40" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F42" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" t="s">
+        <v>611</v>
+      </c>
+      <c r="I42" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>758</v>
+      </c>
+      <c r="B43" t="s">
+        <v>756</v>
+      </c>
+      <c r="C43" t="s">
+        <v>750</v>
+      </c>
+      <c r="D43" t="s">
+        <v>707</v>
+      </c>
+      <c r="E43" t="s">
+        <v>757</v>
+      </c>
+      <c r="F43" t="s">
+        <v>498</v>
+      </c>
+      <c r="G43" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" t="s">
+        <v>611</v>
+      </c>
+      <c r="I43" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>761</v>
+      </c>
+      <c r="B44" t="s">
         <v>759</v>
       </c>
-      <c r="B41" t="s">
-        <v>756</v>
-      </c>
-      <c r="C41" t="s">
-        <v>757</v>
-      </c>
-      <c r="D41" t="s">
-        <v>714</v>
-      </c>
-      <c r="E41" t="s">
-        <v>758</v>
-      </c>
-      <c r="F41" t="s">
-        <v>505</v>
-      </c>
-      <c r="G41" t="s">
-        <v>305</v>
-      </c>
-      <c r="H41" t="s">
-        <v>618</v>
-      </c>
-      <c r="I41" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
+        <v>750</v>
+      </c>
+      <c r="D44" t="s">
+        <v>707</v>
+      </c>
+      <c r="E44" t="s">
+        <v>760</v>
+      </c>
+      <c r="F44" t="s">
+        <v>498</v>
+      </c>
+      <c r="G44" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" t="s">
+        <v>611</v>
+      </c>
+      <c r="I44" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>765</v>
+      </c>
+      <c r="B45" t="s">
         <v>762</v>
       </c>
-      <c r="B42" t="s">
-        <v>760</v>
-      </c>
-      <c r="C42" t="s">
-        <v>757</v>
-      </c>
-      <c r="D42" t="s">
-        <v>714</v>
-      </c>
-      <c r="E42" t="s">
-        <v>761</v>
-      </c>
-      <c r="F42" t="s">
-        <v>505</v>
-      </c>
-      <c r="G42" t="s">
-        <v>305</v>
-      </c>
-      <c r="H42" t="s">
-        <v>618</v>
-      </c>
-      <c r="I42" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>765</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C45" t="s">
         <v>763</v>
       </c>
-      <c r="C43" t="s">
-        <v>757</v>
-      </c>
-      <c r="D43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D45" t="s">
+        <v>707</v>
+      </c>
+      <c r="E45" t="s">
         <v>764</v>
       </c>
-      <c r="F43" t="s">
-        <v>505</v>
-      </c>
-      <c r="G43" t="s">
-        <v>305</v>
-      </c>
-      <c r="H43" t="s">
-        <v>618</v>
-      </c>
-      <c r="I43" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F45" t="s">
+        <v>498</v>
+      </c>
+      <c r="G45" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" t="s">
+        <v>611</v>
+      </c>
+      <c r="I45" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>768</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>766</v>
       </c>
-      <c r="C44" t="s">
-        <v>757</v>
-      </c>
-      <c r="D44" t="s">
-        <v>714</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C46" t="s">
+        <v>763</v>
+      </c>
+      <c r="D46" t="s">
+        <v>707</v>
+      </c>
+      <c r="E46" t="s">
         <v>767</v>
       </c>
-      <c r="F44" t="s">
-        <v>505</v>
-      </c>
-      <c r="G44" t="s">
-        <v>305</v>
-      </c>
-      <c r="H44" t="s">
-        <v>618</v>
-      </c>
-      <c r="I44" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46" t="s">
+        <v>305</v>
+      </c>
+      <c r="H46" t="s">
+        <v>611</v>
+      </c>
+      <c r="I46" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>769</v>
+      </c>
+      <c r="C47" t="s">
+        <v>763</v>
+      </c>
+      <c r="D47" t="s">
+        <v>707</v>
+      </c>
+      <c r="E47" t="s">
+        <v>770</v>
+      </c>
+      <c r="F47" t="s">
+        <v>498</v>
+      </c>
+      <c r="G47" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" t="s">
+        <v>611</v>
+      </c>
+      <c r="I47" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>773</v>
+      </c>
+      <c r="B48" t="s">
+        <v>771</v>
+      </c>
+      <c r="C48" t="s">
+        <v>763</v>
+      </c>
+      <c r="D48" t="s">
+        <v>707</v>
+      </c>
+      <c r="E48" t="s">
         <v>772</v>
       </c>
-      <c r="B45" t="s">
-        <v>769</v>
-      </c>
-      <c r="C45" t="s">
-        <v>770</v>
-      </c>
-      <c r="D45" t="s">
-        <v>714</v>
-      </c>
-      <c r="E45" t="s">
-        <v>771</v>
-      </c>
-      <c r="F45" t="s">
-        <v>505</v>
-      </c>
-      <c r="G45" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" t="s">
-        <v>618</v>
-      </c>
-      <c r="I45" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F48" t="s">
+        <v>498</v>
+      </c>
+      <c r="G48" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" t="s">
+        <v>611</v>
+      </c>
+      <c r="I48" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>777</v>
+      </c>
+      <c r="B49" t="s">
+        <v>774</v>
+      </c>
+      <c r="C49" t="s">
         <v>775</v>
       </c>
-      <c r="B46" t="s">
-        <v>773</v>
-      </c>
-      <c r="C46" t="s">
-        <v>770</v>
-      </c>
-      <c r="D46" t="s">
-        <v>714</v>
-      </c>
-      <c r="E46" t="s">
-        <v>774</v>
-      </c>
-      <c r="F46" t="s">
-        <v>505</v>
-      </c>
-      <c r="G46" t="s">
-        <v>305</v>
-      </c>
-      <c r="H46" t="s">
-        <v>618</v>
-      </c>
-      <c r="I46" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D49" t="s">
+        <v>707</v>
+      </c>
+      <c r="E49" t="s">
         <v>776</v>
       </c>
-      <c r="C47" t="s">
-        <v>770</v>
-      </c>
-      <c r="D47" t="s">
-        <v>714</v>
-      </c>
-      <c r="E47" t="s">
-        <v>777</v>
-      </c>
-      <c r="F47" t="s">
-        <v>505</v>
-      </c>
-      <c r="G47" t="s">
-        <v>305</v>
-      </c>
-      <c r="H47" t="s">
-        <v>618</v>
-      </c>
-      <c r="I47" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F49" t="s">
+        <v>498</v>
+      </c>
+      <c r="G49" t="s">
+        <v>305</v>
+      </c>
+      <c r="H49" t="s">
+        <v>611</v>
+      </c>
+      <c r="I49" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>781</v>
+      </c>
+      <c r="B50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C50" t="s">
+        <v>779</v>
+      </c>
+      <c r="D50" t="s">
+        <v>707</v>
+      </c>
+      <c r="E50" t="s">
         <v>780</v>
       </c>
-      <c r="B48" t="s">
-        <v>778</v>
-      </c>
-      <c r="C48" t="s">
-        <v>770</v>
-      </c>
-      <c r="D48" t="s">
-        <v>714</v>
-      </c>
-      <c r="E48" t="s">
-        <v>779</v>
-      </c>
-      <c r="F48" t="s">
-        <v>505</v>
-      </c>
-      <c r="G48" t="s">
-        <v>305</v>
-      </c>
-      <c r="H48" t="s">
-        <v>618</v>
-      </c>
-      <c r="I48" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F50" t="s">
+        <v>498</v>
+      </c>
+      <c r="G50" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" t="s">
+        <v>611</v>
+      </c>
+      <c r="I50" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>785</v>
+      </c>
+      <c r="B51" t="s">
+        <v>782</v>
+      </c>
+      <c r="C51" t="s">
+        <v>783</v>
+      </c>
+      <c r="D51" t="s">
+        <v>707</v>
+      </c>
+      <c r="E51" t="s">
         <v>784</v>
       </c>
-      <c r="B49" t="s">
-        <v>781</v>
-      </c>
-      <c r="C49" t="s">
-        <v>782</v>
-      </c>
-      <c r="D49" t="s">
-        <v>714</v>
-      </c>
-      <c r="E49" t="s">
-        <v>783</v>
-      </c>
-      <c r="F49" t="s">
-        <v>505</v>
-      </c>
-      <c r="G49" t="s">
-        <v>305</v>
-      </c>
-      <c r="H49" t="s">
-        <v>618</v>
-      </c>
-      <c r="I49" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F51" t="s">
+        <v>498</v>
+      </c>
+      <c r="G51" t="s">
+        <v>305</v>
+      </c>
+      <c r="H51" t="s">
+        <v>611</v>
+      </c>
+      <c r="I51" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>789</v>
+      </c>
+      <c r="B52" t="s">
+        <v>786</v>
+      </c>
+      <c r="C52" t="s">
+        <v>787</v>
+      </c>
+      <c r="D52" t="s">
+        <v>707</v>
+      </c>
+      <c r="E52" t="s">
         <v>788</v>
       </c>
-      <c r="B50" t="s">
-        <v>785</v>
-      </c>
-      <c r="C50" t="s">
-        <v>786</v>
-      </c>
-      <c r="D50" t="s">
-        <v>714</v>
-      </c>
-      <c r="E50" t="s">
-        <v>787</v>
-      </c>
-      <c r="F50" t="s">
-        <v>505</v>
-      </c>
-      <c r="G50" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" t="s">
-        <v>618</v>
-      </c>
-      <c r="I50" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F52" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52" t="s">
+        <v>305</v>
+      </c>
+      <c r="H52" t="s">
+        <v>611</v>
+      </c>
+      <c r="I52" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>793</v>
+      </c>
+      <c r="B53" t="s">
+        <v>790</v>
+      </c>
+      <c r="C53" t="s">
+        <v>791</v>
+      </c>
+      <c r="D53" t="s">
+        <v>707</v>
+      </c>
+      <c r="E53" t="s">
         <v>792</v>
       </c>
-      <c r="B51" t="s">
-        <v>789</v>
-      </c>
-      <c r="C51" t="s">
-        <v>790</v>
-      </c>
-      <c r="D51" t="s">
-        <v>714</v>
-      </c>
-      <c r="E51" t="s">
-        <v>791</v>
-      </c>
-      <c r="F51" t="s">
-        <v>505</v>
-      </c>
-      <c r="G51" t="s">
-        <v>305</v>
-      </c>
-      <c r="H51" t="s">
-        <v>618</v>
-      </c>
-      <c r="I51" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F53" t="s">
+        <v>498</v>
+      </c>
+      <c r="G53" t="s">
+        <v>305</v>
+      </c>
+      <c r="H53" t="s">
+        <v>611</v>
+      </c>
+      <c r="I53" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>797</v>
+      </c>
+      <c r="B54" t="s">
+        <v>794</v>
+      </c>
+      <c r="C54" t="s">
+        <v>795</v>
+      </c>
+      <c r="D54" t="s">
+        <v>707</v>
+      </c>
+      <c r="E54" t="s">
         <v>796</v>
       </c>
-      <c r="B52" t="s">
-        <v>793</v>
-      </c>
-      <c r="C52" t="s">
-        <v>794</v>
-      </c>
-      <c r="D52" t="s">
-        <v>714</v>
-      </c>
-      <c r="E52" t="s">
-        <v>795</v>
-      </c>
-      <c r="F52" t="s">
-        <v>505</v>
-      </c>
-      <c r="G52" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" t="s">
-        <v>618</v>
-      </c>
-      <c r="I52" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="F54" t="s">
+        <v>498</v>
+      </c>
+      <c r="G54" t="s">
+        <v>305</v>
+      </c>
+      <c r="H54" t="s">
+        <v>611</v>
+      </c>
+      <c r="I54" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>801</v>
+      </c>
+      <c r="B55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C55" t="s">
+        <v>799</v>
+      </c>
+      <c r="D55" t="s">
+        <v>707</v>
+      </c>
+      <c r="E55" t="s">
         <v>800</v>
       </c>
-      <c r="B53" t="s">
-        <v>797</v>
-      </c>
-      <c r="C53" t="s">
-        <v>798</v>
-      </c>
-      <c r="D53" t="s">
-        <v>714</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F55" t="s">
+        <v>498</v>
+      </c>
+      <c r="G55" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" t="s">
+        <v>611</v>
+      </c>
+      <c r="I55" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>802</v>
+      </c>
+      <c r="C56" t="s">
         <v>799</v>
       </c>
-      <c r="F53" t="s">
-        <v>505</v>
-      </c>
-      <c r="G53" t="s">
-        <v>305</v>
-      </c>
-      <c r="H53" t="s">
-        <v>618</v>
-      </c>
-      <c r="I53" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D56" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" t="s">
+        <v>803</v>
+      </c>
+      <c r="F56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H56" t="s">
+        <v>611</v>
+      </c>
+      <c r="I56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>806</v>
+      </c>
+      <c r="B57" t="s">
         <v>804</v>
       </c>
-      <c r="B54" t="s">
-        <v>801</v>
-      </c>
-      <c r="C54" t="s">
-        <v>802</v>
-      </c>
-      <c r="D54" t="s">
-        <v>714</v>
-      </c>
-      <c r="E54" t="s">
-        <v>803</v>
-      </c>
-      <c r="F54" t="s">
-        <v>505</v>
-      </c>
-      <c r="G54" t="s">
-        <v>305</v>
-      </c>
-      <c r="H54" t="s">
-        <v>618</v>
-      </c>
-      <c r="I54" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C57" t="s">
+        <v>799</v>
+      </c>
+      <c r="D57" t="s">
+        <v>707</v>
+      </c>
+      <c r="E57" t="s">
+        <v>805</v>
+      </c>
+      <c r="F57" t="s">
+        <v>498</v>
+      </c>
+      <c r="G57" t="s">
+        <v>305</v>
+      </c>
+      <c r="H57" t="s">
+        <v>611</v>
+      </c>
+      <c r="I57" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>810</v>
+      </c>
+      <c r="B58" t="s">
+        <v>807</v>
+      </c>
+      <c r="C58" t="s">
         <v>808</v>
       </c>
-      <c r="B55" t="s">
-        <v>805</v>
-      </c>
-      <c r="C55" t="s">
-        <v>806</v>
-      </c>
-      <c r="D55" t="s">
-        <v>714</v>
-      </c>
-      <c r="E55" t="s">
-        <v>807</v>
-      </c>
-      <c r="F55" t="s">
-        <v>505</v>
-      </c>
-      <c r="G55" t="s">
-        <v>305</v>
-      </c>
-      <c r="H55" t="s">
-        <v>618</v>
-      </c>
-      <c r="I55" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D58" t="s">
+        <v>707</v>
+      </c>
+      <c r="E58" t="s">
         <v>809</v>
       </c>
-      <c r="C56" t="s">
-        <v>806</v>
-      </c>
-      <c r="D56" t="s">
-        <v>714</v>
-      </c>
-      <c r="E56" t="s">
-        <v>810</v>
-      </c>
-      <c r="F56" t="s">
-        <v>505</v>
-      </c>
-      <c r="G56" t="s">
-        <v>305</v>
-      </c>
-      <c r="H56" t="s">
-        <v>618</v>
-      </c>
-      <c r="I56" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" t="s">
+        <v>305</v>
+      </c>
+      <c r="H58" t="s">
+        <v>611</v>
+      </c>
+      <c r="I58" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>813</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>811</v>
       </c>
-      <c r="C57" t="s">
-        <v>806</v>
-      </c>
-      <c r="D57" t="s">
-        <v>714</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C59" t="s">
+        <v>808</v>
+      </c>
+      <c r="D59" t="s">
+        <v>707</v>
+      </c>
+      <c r="E59" t="s">
         <v>812</v>
       </c>
-      <c r="F57" t="s">
-        <v>505</v>
-      </c>
-      <c r="G57" t="s">
-        <v>305</v>
-      </c>
-      <c r="H57" t="s">
-        <v>618</v>
-      </c>
-      <c r="I57" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="F59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" t="s">
+        <v>611</v>
+      </c>
+      <c r="I59" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>816</v>
+      </c>
+      <c r="B60" t="s">
+        <v>814</v>
+      </c>
+      <c r="C60" t="s">
+        <v>808</v>
+      </c>
+      <c r="D60" t="s">
+        <v>707</v>
+      </c>
+      <c r="E60" t="s">
+        <v>815</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
+        <v>305</v>
+      </c>
+      <c r="H60" t="s">
+        <v>611</v>
+      </c>
+      <c r="I60" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>819</v>
+      </c>
+      <c r="B61" t="s">
         <v>817</v>
       </c>
-      <c r="B58" t="s">
-        <v>814</v>
-      </c>
-      <c r="C58" t="s">
-        <v>815</v>
-      </c>
-      <c r="D58" t="s">
-        <v>714</v>
-      </c>
-      <c r="E58" t="s">
-        <v>816</v>
-      </c>
-      <c r="F58" t="s">
-        <v>505</v>
-      </c>
-      <c r="G58" t="s">
-        <v>305</v>
-      </c>
-      <c r="H58" t="s">
-        <v>618</v>
-      </c>
-      <c r="I58" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C61" t="s">
+        <v>808</v>
+      </c>
+      <c r="D61" t="s">
+        <v>707</v>
+      </c>
+      <c r="E61" t="s">
+        <v>818</v>
+      </c>
+      <c r="F61" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" t="s">
+        <v>611</v>
+      </c>
+      <c r="I61" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>823</v>
+      </c>
+      <c r="B62" t="s">
         <v>820</v>
       </c>
-      <c r="B59" t="s">
-        <v>818</v>
-      </c>
-      <c r="C59" t="s">
-        <v>815</v>
-      </c>
-      <c r="D59" t="s">
-        <v>714</v>
-      </c>
-      <c r="E59" t="s">
-        <v>819</v>
-      </c>
-      <c r="F59" t="s">
-        <v>505</v>
-      </c>
-      <c r="G59" t="s">
-        <v>305</v>
-      </c>
-      <c r="H59" t="s">
-        <v>618</v>
-      </c>
-      <c r="I59" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>823</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C62" t="s">
         <v>821</v>
       </c>
-      <c r="C60" t="s">
-        <v>815</v>
-      </c>
-      <c r="D60" t="s">
-        <v>714</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D62" t="s">
+        <v>707</v>
+      </c>
+      <c r="E62" t="s">
         <v>822</v>
       </c>
-      <c r="F60" t="s">
-        <v>505</v>
-      </c>
-      <c r="G60" t="s">
-        <v>305</v>
-      </c>
-      <c r="H60" t="s">
-        <v>618</v>
-      </c>
-      <c r="I60" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" t="s">
+        <v>611</v>
+      </c>
+      <c r="I62" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>824</v>
+      </c>
+      <c r="C63" t="s">
+        <v>821</v>
+      </c>
+      <c r="D63" t="s">
+        <v>707</v>
+      </c>
+      <c r="E63" t="s">
+        <v>825</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" t="s">
+        <v>611</v>
+      </c>
+      <c r="I63" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>829</v>
+      </c>
+      <c r="B64" t="s">
         <v>826</v>
       </c>
-      <c r="B61" t="s">
-        <v>824</v>
-      </c>
-      <c r="C61" t="s">
-        <v>815</v>
-      </c>
-      <c r="D61" t="s">
-        <v>714</v>
-      </c>
-      <c r="E61" t="s">
-        <v>825</v>
-      </c>
-      <c r="F61" t="s">
-        <v>505</v>
-      </c>
-      <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" t="s">
-        <v>618</v>
-      </c>
-      <c r="I61" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C64" t="s">
+        <v>827</v>
+      </c>
+      <c r="D64" t="s">
+        <v>707</v>
+      </c>
+      <c r="E64" t="s">
+        <v>828</v>
+      </c>
+      <c r="F64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" t="s">
+        <v>611</v>
+      </c>
+      <c r="I64" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>832</v>
+      </c>
+      <c r="B65" t="s">
         <v>830</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C65" t="s">
         <v>827</v>
       </c>
-      <c r="C62" t="s">
-        <v>828</v>
-      </c>
-      <c r="D62" t="s">
-        <v>714</v>
-      </c>
-      <c r="E62" t="s">
-        <v>829</v>
-      </c>
-      <c r="F62" t="s">
-        <v>505</v>
-      </c>
-      <c r="G62" t="s">
-        <v>305</v>
-      </c>
-      <c r="H62" t="s">
-        <v>618</v>
-      </c>
-      <c r="I62" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D65" t="s">
+        <v>707</v>
+      </c>
+      <c r="E65" t="s">
         <v>831</v>
       </c>
-      <c r="C63" t="s">
-        <v>828</v>
-      </c>
-      <c r="D63" t="s">
-        <v>714</v>
-      </c>
-      <c r="E63" t="s">
-        <v>832</v>
-      </c>
-      <c r="F63" t="s">
-        <v>505</v>
-      </c>
-      <c r="G63" t="s">
-        <v>305</v>
-      </c>
-      <c r="H63" t="s">
-        <v>618</v>
-      </c>
-      <c r="I63" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H65" t="s">
+        <v>611</v>
+      </c>
+      <c r="I65" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>836</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>833</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>834</v>
       </c>
-      <c r="D64" t="s">
-        <v>714</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D66" t="s">
+        <v>707</v>
+      </c>
+      <c r="E66" t="s">
         <v>835</v>
       </c>
-      <c r="F64" t="s">
-        <v>505</v>
-      </c>
-      <c r="G64" t="s">
-        <v>305</v>
-      </c>
-      <c r="H64" t="s">
-        <v>618</v>
-      </c>
-      <c r="I64" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F66" t="s">
+        <v>498</v>
+      </c>
+      <c r="G66" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" t="s">
+        <v>611</v>
+      </c>
+      <c r="I66" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>840</v>
+      </c>
+      <c r="B67" t="s">
+        <v>837</v>
+      </c>
+      <c r="C67" t="s">
+        <v>838</v>
+      </c>
+      <c r="D67" t="s">
+        <v>707</v>
+      </c>
+      <c r="E67" t="s">
         <v>839</v>
       </c>
-      <c r="B65" t="s">
-        <v>837</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="F67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" t="s">
+        <v>305</v>
+      </c>
+      <c r="H67" t="s">
+        <v>611</v>
+      </c>
+      <c r="I67" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>843</v>
+      </c>
+      <c r="B68" t="s">
+        <v>841</v>
+      </c>
+      <c r="C68" t="s">
         <v>834</v>
       </c>
-      <c r="D65" t="s">
-        <v>714</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D68" t="s">
+        <v>707</v>
+      </c>
+      <c r="E68" t="s">
+        <v>842</v>
+      </c>
+      <c r="F68" t="s">
+        <v>498</v>
+      </c>
+      <c r="G68" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" t="s">
+        <v>611</v>
+      </c>
+      <c r="I68" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>844</v>
+      </c>
+      <c r="C69" t="s">
         <v>838</v>
       </c>
-      <c r="F65" t="s">
-        <v>505</v>
-      </c>
-      <c r="G65" t="s">
-        <v>305</v>
-      </c>
-      <c r="H65" t="s">
-        <v>618</v>
-      </c>
-      <c r="I65" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>843</v>
-      </c>
-      <c r="B66" t="s">
-        <v>840</v>
-      </c>
-      <c r="C66" t="s">
-        <v>841</v>
-      </c>
-      <c r="D66" t="s">
-        <v>714</v>
-      </c>
-      <c r="E66" t="s">
-        <v>842</v>
-      </c>
-      <c r="F66" t="s">
-        <v>505</v>
-      </c>
-      <c r="G66" t="s">
-        <v>305</v>
-      </c>
-      <c r="H66" t="s">
-        <v>618</v>
-      </c>
-      <c r="I66" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D69" t="s">
+        <v>707</v>
+      </c>
+      <c r="E69" t="s">
+        <v>845</v>
+      </c>
+      <c r="F69" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H69" t="s">
+        <v>611</v>
+      </c>
+      <c r="I69" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>848</v>
+      </c>
+      <c r="B70" t="s">
+        <v>846</v>
+      </c>
+      <c r="C70" t="s">
+        <v>838</v>
+      </c>
+      <c r="D70" t="s">
+        <v>707</v>
+      </c>
+      <c r="E70" t="s">
         <v>847</v>
       </c>
-      <c r="B67" t="s">
-        <v>844</v>
-      </c>
-      <c r="C67" t="s">
-        <v>845</v>
-      </c>
-      <c r="D67" t="s">
-        <v>714</v>
-      </c>
-      <c r="E67" t="s">
-        <v>846</v>
-      </c>
-      <c r="F67" t="s">
-        <v>505</v>
-      </c>
-      <c r="G67" t="s">
-        <v>305</v>
-      </c>
-      <c r="H67" t="s">
-        <v>618</v>
-      </c>
-      <c r="I67" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" t="s">
+        <v>305</v>
+      </c>
+      <c r="H70" t="s">
+        <v>611</v>
+      </c>
+      <c r="I70" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>852</v>
+      </c>
+      <c r="B71" t="s">
+        <v>849</v>
+      </c>
+      <c r="C71" t="s">
         <v>850</v>
       </c>
-      <c r="B68" t="s">
-        <v>848</v>
-      </c>
-      <c r="C68" t="s">
-        <v>841</v>
-      </c>
-      <c r="D68" t="s">
-        <v>714</v>
-      </c>
-      <c r="E68" t="s">
-        <v>849</v>
-      </c>
-      <c r="F68" t="s">
-        <v>505</v>
-      </c>
-      <c r="G68" t="s">
-        <v>305</v>
-      </c>
-      <c r="H68" t="s">
-        <v>618</v>
-      </c>
-      <c r="I68" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="D71" t="s">
+        <v>707</v>
+      </c>
+      <c r="E71" t="s">
         <v>851</v>
       </c>
-      <c r="C69" t="s">
-        <v>845</v>
-      </c>
-      <c r="D69" t="s">
-        <v>714</v>
-      </c>
-      <c r="E69" t="s">
-        <v>852</v>
-      </c>
-      <c r="F69" t="s">
-        <v>505</v>
-      </c>
-      <c r="G69" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" t="s">
-        <v>618</v>
-      </c>
-      <c r="I69" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
+        <v>305</v>
+      </c>
+      <c r="H71" t="s">
+        <v>611</v>
+      </c>
+      <c r="I71" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>855</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>853</v>
       </c>
-      <c r="C70" t="s">
-        <v>845</v>
-      </c>
-      <c r="D70" t="s">
-        <v>714</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C72" t="s">
+        <v>850</v>
+      </c>
+      <c r="D72" t="s">
+        <v>707</v>
+      </c>
+      <c r="E72" t="s">
         <v>854</v>
       </c>
-      <c r="F70" t="s">
-        <v>505</v>
-      </c>
-      <c r="G70" t="s">
-        <v>305</v>
-      </c>
-      <c r="H70" t="s">
-        <v>618</v>
-      </c>
-      <c r="I70" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>305</v>
+      </c>
+      <c r="H72" t="s">
+        <v>611</v>
+      </c>
+      <c r="I72" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>859</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>856</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>857</v>
       </c>
-      <c r="D71" t="s">
-        <v>714</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D73" t="s">
+        <v>707</v>
+      </c>
+      <c r="E73" t="s">
         <v>858</v>
       </c>
-      <c r="F71" t="s">
-        <v>505</v>
-      </c>
-      <c r="G71" t="s">
-        <v>305</v>
-      </c>
-      <c r="H71" t="s">
-        <v>618</v>
-      </c>
-      <c r="I71" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="F73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" t="s">
+        <v>611</v>
+      </c>
+      <c r="I73" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>860</v>
+      </c>
+      <c r="C74" t="s">
+        <v>857</v>
+      </c>
+      <c r="D74" t="s">
+        <v>707</v>
+      </c>
+      <c r="E74" t="s">
+        <v>861</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
+        <v>305</v>
+      </c>
+      <c r="H74" t="s">
+        <v>611</v>
+      </c>
+      <c r="I74" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>865</v>
+      </c>
+      <c r="B75" t="s">
         <v>862</v>
       </c>
-      <c r="B72" t="s">
-        <v>860</v>
-      </c>
-      <c r="C72" t="s">
-        <v>857</v>
-      </c>
-      <c r="D72" t="s">
-        <v>714</v>
-      </c>
-      <c r="E72" t="s">
-        <v>861</v>
-      </c>
-      <c r="F72" t="s">
-        <v>505</v>
-      </c>
-      <c r="G72" t="s">
-        <v>305</v>
-      </c>
-      <c r="H72" t="s">
-        <v>618</v>
-      </c>
-      <c r="I72" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C75" t="s">
+        <v>863</v>
+      </c>
+      <c r="D75" t="s">
+        <v>707</v>
+      </c>
+      <c r="E75" t="s">
+        <v>864</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" t="s">
+        <v>305</v>
+      </c>
+      <c r="H75" t="s">
+        <v>611</v>
+      </c>
+      <c r="I75" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>868</v>
+      </c>
+      <c r="B76" t="s">
         <v>866</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C76" t="s">
         <v>863</v>
       </c>
-      <c r="C73" t="s">
-        <v>864</v>
-      </c>
-      <c r="D73" t="s">
-        <v>714</v>
-      </c>
-      <c r="E73" t="s">
-        <v>865</v>
-      </c>
-      <c r="F73" t="s">
-        <v>505</v>
-      </c>
-      <c r="G73" t="s">
-        <v>305</v>
-      </c>
-      <c r="H73" t="s">
-        <v>618</v>
-      </c>
-      <c r="I73" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D76" t="s">
+        <v>707</v>
+      </c>
+      <c r="E76" t="s">
         <v>867</v>
       </c>
-      <c r="C74" t="s">
-        <v>864</v>
-      </c>
-      <c r="D74" t="s">
-        <v>714</v>
-      </c>
-      <c r="E74" t="s">
-        <v>868</v>
-      </c>
-      <c r="F74" t="s">
-        <v>505</v>
-      </c>
-      <c r="G74" t="s">
-        <v>305</v>
-      </c>
-      <c r="H74" t="s">
-        <v>618</v>
-      </c>
-      <c r="I74" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>872</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="F76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" t="s">
+        <v>305</v>
+      </c>
+      <c r="H76" t="s">
+        <v>611</v>
+      </c>
+      <c r="I76" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>871</v>
+      </c>
+      <c r="B77" t="s">
         <v>869</v>
-      </c>
-      <c r="C75" t="s">
-        <v>870</v>
-      </c>
-      <c r="D75" t="s">
-        <v>714</v>
-      </c>
-      <c r="E75" t="s">
-        <v>871</v>
-      </c>
-      <c r="F75" t="s">
-        <v>505</v>
-      </c>
-      <c r="G75" t="s">
-        <v>305</v>
-      </c>
-      <c r="H75" t="s">
-        <v>618</v>
-      </c>
-      <c r="I75" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>875</v>
-      </c>
-      <c r="B76" t="s">
-        <v>873</v>
-      </c>
-      <c r="C76" t="s">
-        <v>870</v>
-      </c>
-      <c r="D76" t="s">
-        <v>714</v>
-      </c>
-      <c r="E76" t="s">
-        <v>874</v>
-      </c>
-      <c r="F76" t="s">
-        <v>505</v>
-      </c>
-      <c r="G76" t="s">
-        <v>305</v>
-      </c>
-      <c r="H76" t="s">
-        <v>618</v>
-      </c>
-      <c r="I76" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>878</v>
-      </c>
-      <c r="B77" t="s">
-        <v>876</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E77" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F77" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G77" t="s">
         <v>433</v>
       </c>
       <c r="H77" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I77" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B78" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E78" t="s">
+        <v>873</v>
+      </c>
+      <c r="F78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" t="s">
+        <v>305</v>
+      </c>
+      <c r="H78" t="s">
+        <v>611</v>
+      </c>
+      <c r="I78" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>877</v>
+      </c>
+      <c r="B79" t="s">
+        <v>875</v>
+      </c>
+      <c r="C79" t="s">
+        <v>712</v>
+      </c>
+      <c r="D79" t="s">
+        <v>707</v>
+      </c>
+      <c r="E79" t="s">
+        <v>876</v>
+      </c>
+      <c r="F79" t="s">
+        <v>498</v>
+      </c>
+      <c r="G79" t="s">
+        <v>305</v>
+      </c>
+      <c r="H79" t="s">
+        <v>611</v>
+      </c>
+      <c r="I79" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>880</v>
       </c>
-      <c r="F78" t="s">
-        <v>505</v>
-      </c>
-      <c r="G78" t="s">
-        <v>305</v>
-      </c>
-      <c r="H78" t="s">
-        <v>618</v>
-      </c>
-      <c r="I78" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>878</v>
+      </c>
+      <c r="C80" t="s">
+        <v>712</v>
+      </c>
+      <c r="D80" t="s">
+        <v>707</v>
+      </c>
+      <c r="E80" t="s">
+        <v>879</v>
+      </c>
+      <c r="F80" t="s">
+        <v>498</v>
+      </c>
+      <c r="G80" t="s">
+        <v>305</v>
+      </c>
+      <c r="H80" t="s">
+        <v>611</v>
+      </c>
+      <c r="I80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>883</v>
+      </c>
+      <c r="B81" t="s">
+        <v>881</v>
+      </c>
+      <c r="C81" t="s">
+        <v>740</v>
+      </c>
+      <c r="D81" t="s">
+        <v>707</v>
+      </c>
+      <c r="E81" t="s">
+        <v>882</v>
+      </c>
+      <c r="F81" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" t="s">
+        <v>305</v>
+      </c>
+      <c r="H81" t="s">
+        <v>611</v>
+      </c>
+      <c r="I81" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>886</v>
+      </c>
+      <c r="B82" t="s">
         <v>884</v>
       </c>
-      <c r="B79" t="s">
-        <v>882</v>
-      </c>
-      <c r="C79" t="s">
-        <v>719</v>
-      </c>
-      <c r="D79" t="s">
-        <v>714</v>
-      </c>
-      <c r="E79" t="s">
-        <v>883</v>
-      </c>
-      <c r="F79" t="s">
-        <v>505</v>
-      </c>
-      <c r="G79" t="s">
-        <v>305</v>
-      </c>
-      <c r="H79" t="s">
-        <v>618</v>
-      </c>
-      <c r="I79" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C82" t="s">
+        <v>747</v>
+      </c>
+      <c r="D82" t="s">
+        <v>707</v>
+      </c>
+      <c r="E82" t="s">
+        <v>885</v>
+      </c>
+      <c r="F82" t="s">
+        <v>498</v>
+      </c>
+      <c r="G82" t="s">
+        <v>305</v>
+      </c>
+      <c r="H82" t="s">
+        <v>611</v>
+      </c>
+      <c r="I82" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>889</v>
+      </c>
+      <c r="B83" t="s">
         <v>887</v>
       </c>
-      <c r="B80" t="s">
-        <v>885</v>
-      </c>
-      <c r="C80" t="s">
-        <v>719</v>
-      </c>
-      <c r="D80" t="s">
-        <v>714</v>
-      </c>
-      <c r="E80" t="s">
-        <v>886</v>
-      </c>
-      <c r="F80" t="s">
-        <v>505</v>
-      </c>
-      <c r="G80" t="s">
-        <v>305</v>
-      </c>
-      <c r="H80" t="s">
-        <v>618</v>
-      </c>
-      <c r="I80" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>890</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C83" t="s">
+        <v>863</v>
+      </c>
+      <c r="D83" t="s">
+        <v>707</v>
+      </c>
+      <c r="E83" t="s">
         <v>888</v>
       </c>
-      <c r="C81" t="s">
-        <v>747</v>
-      </c>
-      <c r="D81" t="s">
-        <v>714</v>
-      </c>
-      <c r="E81" t="s">
-        <v>889</v>
-      </c>
-      <c r="F81" t="s">
-        <v>505</v>
-      </c>
-      <c r="G81" t="s">
-        <v>305</v>
-      </c>
-      <c r="H81" t="s">
-        <v>618</v>
-      </c>
-      <c r="I81" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>893</v>
-      </c>
-      <c r="B82" t="s">
-        <v>891</v>
-      </c>
-      <c r="C82" t="s">
-        <v>754</v>
-      </c>
-      <c r="D82" t="s">
-        <v>714</v>
-      </c>
-      <c r="E82" t="s">
-        <v>892</v>
-      </c>
-      <c r="F82" t="s">
-        <v>505</v>
-      </c>
-      <c r="G82" t="s">
-        <v>305</v>
-      </c>
-      <c r="H82" t="s">
-        <v>618</v>
-      </c>
-      <c r="I82" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>896</v>
-      </c>
-      <c r="B83" t="s">
-        <v>894</v>
-      </c>
-      <c r="C83" t="s">
-        <v>870</v>
-      </c>
-      <c r="D83" t="s">
-        <v>714</v>
-      </c>
-      <c r="E83" t="s">
-        <v>895</v>
-      </c>
       <c r="F83" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G83" t="s">
         <v>305</v>
       </c>
       <c r="H83" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I83" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B84" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C84" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D84" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E84" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G84" t="s">
         <v>433</v>
       </c>
       <c r="H84" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I84" t="s">
         <v>20</v>
@@ -14341,306 +14480,306 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B85" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C85" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D85" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E85" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F85" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G85" t="s">
         <v>433</v>
       </c>
       <c r="H85" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B86" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
+        <v>901</v>
+      </c>
+      <c r="E86" t="s">
+        <v>902</v>
+      </c>
+      <c r="F86" t="s">
+        <v>498</v>
+      </c>
+      <c r="G86" t="s">
+        <v>305</v>
+      </c>
+      <c r="H86" t="s">
+        <v>611</v>
+      </c>
+      <c r="I86" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>907</v>
+      </c>
+      <c r="B87" t="s">
+        <v>904</v>
+      </c>
+      <c r="C87" t="s">
+        <v>905</v>
+      </c>
+      <c r="D87" t="s">
+        <v>901</v>
+      </c>
+      <c r="E87" t="s">
+        <v>906</v>
+      </c>
+      <c r="F87" t="s">
+        <v>498</v>
+      </c>
+      <c r="G87" t="s">
+        <v>305</v>
+      </c>
+      <c r="H87" t="s">
+        <v>611</v>
+      </c>
+      <c r="I87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>910</v>
+      </c>
+      <c r="B88" t="s">
         <v>908</v>
-      </c>
-      <c r="E86" t="s">
-        <v>909</v>
-      </c>
-      <c r="F86" t="s">
-        <v>505</v>
-      </c>
-      <c r="G86" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" t="s">
-        <v>618</v>
-      </c>
-      <c r="I86" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>914</v>
-      </c>
-      <c r="B87" t="s">
-        <v>911</v>
-      </c>
-      <c r="C87" t="s">
-        <v>912</v>
-      </c>
-      <c r="D87" t="s">
-        <v>908</v>
-      </c>
-      <c r="E87" t="s">
-        <v>913</v>
-      </c>
-      <c r="F87" t="s">
-        <v>505</v>
-      </c>
-      <c r="G87" t="s">
-        <v>305</v>
-      </c>
-      <c r="H87" t="s">
-        <v>618</v>
-      </c>
-      <c r="I87" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>917</v>
-      </c>
-      <c r="B88" t="s">
-        <v>915</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E88" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="F88" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G88" t="s">
         <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I88" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B89" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E89" t="s">
+        <v>912</v>
+      </c>
+      <c r="F89" t="s">
+        <v>498</v>
+      </c>
+      <c r="G89" t="s">
+        <v>305</v>
+      </c>
+      <c r="H89" t="s">
+        <v>611</v>
+      </c>
+      <c r="I89" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>916</v>
+      </c>
+      <c r="B90" t="s">
+        <v>914</v>
+      </c>
+      <c r="C90" t="s">
+        <v>779</v>
+      </c>
+      <c r="D90" t="s">
+        <v>901</v>
+      </c>
+      <c r="E90" t="s">
+        <v>915</v>
+      </c>
+      <c r="F90" t="s">
+        <v>498</v>
+      </c>
+      <c r="G90" t="s">
+        <v>305</v>
+      </c>
+      <c r="H90" t="s">
+        <v>611</v>
+      </c>
+      <c r="I90" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>919</v>
       </c>
-      <c r="F89" t="s">
-        <v>505</v>
-      </c>
-      <c r="G89" t="s">
-        <v>305</v>
-      </c>
-      <c r="H89" t="s">
-        <v>618</v>
-      </c>
-      <c r="I89" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>917</v>
+      </c>
+      <c r="C91" t="s">
+        <v>838</v>
+      </c>
+      <c r="D91" t="s">
+        <v>901</v>
+      </c>
+      <c r="E91" t="s">
+        <v>918</v>
+      </c>
+      <c r="F91" t="s">
+        <v>498</v>
+      </c>
+      <c r="G91" t="s">
+        <v>305</v>
+      </c>
+      <c r="H91" t="s">
+        <v>611</v>
+      </c>
+      <c r="I91" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>923</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
+        <v>920</v>
+      </c>
+      <c r="C92" t="s">
         <v>921</v>
       </c>
-      <c r="C90" t="s">
-        <v>786</v>
-      </c>
-      <c r="D90" t="s">
-        <v>908</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D92" t="s">
+        <v>901</v>
+      </c>
+      <c r="E92" t="s">
         <v>922</v>
       </c>
-      <c r="F90" t="s">
-        <v>505</v>
-      </c>
-      <c r="G90" t="s">
-        <v>305</v>
-      </c>
-      <c r="H90" t="s">
-        <v>618</v>
-      </c>
-      <c r="I90" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="F92" t="s">
+        <v>498</v>
+      </c>
+      <c r="G92" t="s">
+        <v>305</v>
+      </c>
+      <c r="H92" t="s">
+        <v>611</v>
+      </c>
+      <c r="I92" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>926</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>924</v>
       </c>
-      <c r="C91" t="s">
-        <v>845</v>
-      </c>
-      <c r="D91" t="s">
-        <v>908</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C93" t="s">
+        <v>921</v>
+      </c>
+      <c r="D93" t="s">
+        <v>901</v>
+      </c>
+      <c r="E93" t="s">
         <v>925</v>
       </c>
-      <c r="F91" t="s">
-        <v>505</v>
-      </c>
-      <c r="G91" t="s">
-        <v>305</v>
-      </c>
-      <c r="H91" t="s">
-        <v>618</v>
-      </c>
-      <c r="I91" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="F93" t="s">
+        <v>498</v>
+      </c>
+      <c r="G93" t="s">
+        <v>305</v>
+      </c>
+      <c r="H93" t="s">
+        <v>611</v>
+      </c>
+      <c r="I93" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>930</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>927</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>928</v>
       </c>
-      <c r="D92" t="s">
-        <v>908</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D94" t="s">
+        <v>901</v>
+      </c>
+      <c r="E94" t="s">
         <v>929</v>
       </c>
-      <c r="F92" t="s">
-        <v>505</v>
-      </c>
-      <c r="G92" t="s">
-        <v>305</v>
-      </c>
-      <c r="H92" t="s">
-        <v>618</v>
-      </c>
-      <c r="I92" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>933</v>
-      </c>
-      <c r="B93" t="s">
-        <v>931</v>
-      </c>
-      <c r="C93" t="s">
-        <v>928</v>
-      </c>
-      <c r="D93" t="s">
-        <v>908</v>
-      </c>
-      <c r="E93" t="s">
-        <v>932</v>
-      </c>
-      <c r="F93" t="s">
-        <v>505</v>
-      </c>
-      <c r="G93" t="s">
-        <v>305</v>
-      </c>
-      <c r="H93" t="s">
-        <v>618</v>
-      </c>
-      <c r="I93" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>937</v>
-      </c>
-      <c r="B94" t="s">
-        <v>934</v>
-      </c>
-      <c r="C94" t="s">
-        <v>935</v>
-      </c>
-      <c r="D94" t="s">
-        <v>908</v>
-      </c>
-      <c r="E94" t="s">
-        <v>936</v>
-      </c>
       <c r="F94" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G94" t="s">
         <v>305</v>
       </c>
       <c r="H94" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I94" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B95" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -14649,7 +14788,7 @@
         <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
@@ -14657,19 +14796,19 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B96" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C96" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E96" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="F96" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G96" t="s">
         <v>305</v>
@@ -14683,16 +14822,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B97" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C97" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E97" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -14709,16 +14848,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B98" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C98" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E98" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -14735,16 +14874,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B99" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C99" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="E99" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -14761,16 +14900,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B100" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
@@ -14787,16 +14926,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B101" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C101" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="E101" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -14813,16 +14952,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B102" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C102" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="E102" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -14839,16 +14978,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B103" t="s">
-        <v>970</v>
+        <v>1255</v>
       </c>
       <c r="C103" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E103" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -14857,7 +14996,7 @@
         <v>305</v>
       </c>
       <c r="H103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I103" t="s">
         <v>20</v>
@@ -14865,16 +15004,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B104" t="s">
-        <v>974</v>
+        <v>1256</v>
       </c>
       <c r="C104" t="s">
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -14883,7 +15022,7 @@
         <v>305</v>
       </c>
       <c r="H104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I104" t="s">
         <v>20</v>
@@ -14891,16 +15030,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B105" t="s">
-        <v>977</v>
+        <v>1257</v>
       </c>
       <c r="C105" t="s">
         <v>399</v>
       </c>
       <c r="E105" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -14909,7 +15048,7 @@
         <v>305</v>
       </c>
       <c r="H105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I105" t="s">
         <v>20</v>
@@ -14917,16 +15056,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="B106" t="s">
-        <v>980</v>
+        <v>1258</v>
       </c>
       <c r="C106" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="E106" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -14935,7 +15074,7 @@
         <v>305</v>
       </c>
       <c r="H106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I106" t="s">
         <v>20</v>
@@ -14943,16 +15082,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="B107" t="s">
-        <v>984</v>
+        <v>1259</v>
       </c>
       <c r="C107" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="E107" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -14961,7 +15100,7 @@
         <v>305</v>
       </c>
       <c r="H107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I107" t="s">
         <v>20</v>
@@ -14969,16 +15108,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B108" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="C108" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="E108" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -14995,16 +15134,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="B109" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="C109" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="E109" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -15021,16 +15160,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="B110" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C110" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="E110" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
@@ -15047,16 +15186,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B111" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="C111" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="E111" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -15073,16 +15212,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B112" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="C112" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E112" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -15099,16 +15238,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B113" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="C113" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E113" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -15125,16 +15264,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B114" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="C114" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="E114" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -15151,16 +15290,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B115" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C115" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="E115" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -15177,16 +15316,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B116" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="C116" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="E116" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -15203,16 +15342,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="B117" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="C117" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="E117" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F117" t="s">
         <v>37</v>
@@ -15229,16 +15368,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="B118" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="C118" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="E118" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -15255,16 +15394,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="B119" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="C119" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="E119" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -15281,16 +15420,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="B120" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="C120" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="E120" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="F120" t="s">
         <v>37</v>
@@ -15307,16 +15446,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="B121" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C121" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="E121" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -15333,16 +15472,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="B122" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="C122" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="E122" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -15359,16 +15498,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="B123" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C123" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="E123" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -15385,16 +15524,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="B124" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="C124" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="E124" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -15411,16 +15550,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="B125" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C125" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="E125" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -15437,16 +15576,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="B126" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="C126" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="E126" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -15463,16 +15602,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="B127" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C127" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="E127" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -15489,16 +15628,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="B128" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="C128" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="E128" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -15515,16 +15654,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="B129" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="C129" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="E129" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -15541,16 +15680,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="B130" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -15567,16 +15706,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="B131" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C131" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="E131" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -15593,16 +15732,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="B132" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C132" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="E132" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F132" t="s">
         <v>37</v>
@@ -15619,16 +15758,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="B133" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="C133" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="E133" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
@@ -15645,16 +15784,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B134" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C134" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E134" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -15671,16 +15810,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B135" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="F135" t="s">
         <v>37</v>
@@ -15697,16 +15836,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B136" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="C136" t="s">
         <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="F136" t="s">
         <v>37</v>
@@ -15723,16 +15862,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="B137" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C137" t="s">
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -15749,16 +15888,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="B138" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="C138" t="s">
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="F138" t="s">
         <v>37</v>
@@ -15774,6 +15913,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K138" xr:uid="{953FDB0D-0C7B-42B3-9DBB-918B89E6E841}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Bank of Thailand (BOT)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15834,31 +15980,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="B2" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="C2" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="D2" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="E2" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -15922,31 +16068,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="B2" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="C2" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="D2" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="E2" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/578/578_series.xlsx
+++ b/INTLINE/data/578/578_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\578\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF43E1-9BF4-4390-8285-2969C709B4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA5048-8456-401E-B2C9-77D6F34EC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33D9BD7F-4BE5-40AD-9289-4BAF655FA17F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1355">
   <si>
     <t>Short Label</t>
   </si>
@@ -2903,9 +2903,6 @@
     <t>THACCI0003.M</t>
   </si>
   <si>
-    <t>Prices, Consumer Price Index, CPI: All Commodities (2019), NSA - Thailand</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -5639,6 +5636,284 @@
   </si>
   <si>
     <t>Business Sentiment Index by components</t>
+  </si>
+  <si>
+    <t>1BSI</t>
+  </si>
+  <si>
+    <t>6Production Costs (Invert)</t>
+  </si>
+  <si>
+    <t>13Production Costs (Invert)</t>
+  </si>
+  <si>
+    <t>5Employment</t>
+  </si>
+  <si>
+    <t>12Employment</t>
+  </si>
+  <si>
+    <t>8Expected BSI</t>
+  </si>
+  <si>
+    <t>4Investment</t>
+  </si>
+  <si>
+    <t>11Investment</t>
+  </si>
+  <si>
+    <t>3Total Order Book</t>
+  </si>
+  <si>
+    <t>10Total Order Book</t>
+  </si>
+  <si>
+    <t>7Production</t>
+  </si>
+  <si>
+    <t>14Production</t>
+  </si>
+  <si>
+    <t>2Performance</t>
+  </si>
+  <si>
+    <t>9Performance</t>
+  </si>
+  <si>
+    <t>International Reserves</t>
+  </si>
+  <si>
+    <t>2Gold</t>
+  </si>
+  <si>
+    <t>3SDRs</t>
+  </si>
+  <si>
+    <t>4Reserve position in the IMF</t>
+  </si>
+  <si>
+    <t>5Foreign currency reserves</t>
+  </si>
+  <si>
+    <t>6Gross International Reserves</t>
+  </si>
+  <si>
+    <t>Imports Classified by Economic Classification</t>
+  </si>
+  <si>
+    <t>1Consumer goods</t>
+  </si>
+  <si>
+    <t>18Raw materials and intermediate goods</t>
+  </si>
+  <si>
+    <t>42Capital goods</t>
+  </si>
+  <si>
+    <t>Trade Classified by Commodity Group</t>
+  </si>
+  <si>
+    <t>20Manufactured goods</t>
+  </si>
+  <si>
+    <t>8Manufactured goods</t>
+  </si>
+  <si>
+    <t>10Miscellaneous manufactured goods</t>
+  </si>
+  <si>
+    <t>21Machinery</t>
+  </si>
+  <si>
+    <t>9Machinery</t>
+  </si>
+  <si>
+    <t>18Animal and vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>6Animal and vegetable oils and fats</t>
+  </si>
+  <si>
+    <t>Total Value and Quantity of Exports Classified by Product Group</t>
+  </si>
+  <si>
+    <t>24Manufacturing</t>
+  </si>
+  <si>
+    <t>78Jewellery</t>
+  </si>
+  <si>
+    <t>50Footware and parts</t>
+  </si>
+  <si>
+    <t>57Electrical Appliances</t>
+  </si>
+  <si>
+    <t>27Sugar</t>
+  </si>
+  <si>
+    <t>2Rice</t>
+  </si>
+  <si>
+    <t>4Rubber</t>
+  </si>
+  <si>
+    <t>1Agriculture</t>
+  </si>
+  <si>
+    <t>12Fishery</t>
+  </si>
+  <si>
+    <t>15Beverages and tobacco</t>
+  </si>
+  <si>
+    <t>3Beverages and tobacco</t>
+  </si>
+  <si>
+    <t>19Chemicals</t>
+  </si>
+  <si>
+    <t>7Chemicals</t>
+  </si>
+  <si>
+    <t>17Mineral fuel and lubricant</t>
+  </si>
+  <si>
+    <t>5Mineral fuel and lubricant</t>
+  </si>
+  <si>
+    <t>14Food</t>
+  </si>
+  <si>
+    <t>2Food</t>
+  </si>
+  <si>
+    <t>16Crude materials</t>
+  </si>
+  <si>
+    <t>4Crude materials</t>
+  </si>
+  <si>
+    <t>13Imports</t>
+  </si>
+  <si>
+    <t>1Exports</t>
+  </si>
+  <si>
+    <t>Government Domestic and External Debt Outstanding</t>
+  </si>
+  <si>
+    <t>1Government Domestic Debt</t>
+  </si>
+  <si>
+    <t>11Government External Debt</t>
+  </si>
+  <si>
+    <t>12Grand total</t>
+  </si>
+  <si>
+    <t>Monetary Aggregates and Components</t>
+  </si>
+  <si>
+    <t>2Narrow Money</t>
+  </si>
+  <si>
+    <t>17Quasi-money</t>
+  </si>
+  <si>
+    <t>Property Indicators</t>
+  </si>
+  <si>
+    <t>18Construction Areas Permitted Nationwide (Thousand sq. metres)</t>
+  </si>
+  <si>
+    <t>Private Consumption Index and Components (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>9Sales of Commercial cars (Units)</t>
+  </si>
+  <si>
+    <t>PII and Components (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>5Domestic Machinery Sales at 2010 Prices (Million baht)</t>
+  </si>
+  <si>
+    <t>Leading Economic Index and Components (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>1Leading Economic Index</t>
+  </si>
+  <si>
+    <t>7Private Investment Index (PII) (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>Prices, Consumer Price Index, CPI: All Commodities (2019), NSA - Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>ALL COMMODITIES</t>
+  </si>
+  <si>
+    <t>FOOD AND NON - ALCOHOLIC BEVERAGES</t>
+  </si>
+  <si>
+    <t>APPAREL AND FOOTWARE</t>
+  </si>
+  <si>
+    <t>HOUSING AND FURNISHING</t>
+  </si>
+  <si>
+    <t>MEDICAL AND PERSONAL CARE</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION AND COMMUNICATION</t>
+  </si>
+  <si>
+    <t>RECREATION AND EDUCATION</t>
+  </si>
+  <si>
+    <t>TOBACCO AND ALCOHOLIC BEVERAGES</t>
+  </si>
+  <si>
+    <t>NON-FOOD AND BEVERAGES</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Product Group</t>
+  </si>
+  <si>
+    <t>Total Index</t>
+  </si>
+  <si>
+    <t>Products of agriculture and fishing</t>
+  </si>
+  <si>
+    <t>Mining products</t>
+  </si>
+  <si>
+    <t>Manufactured products</t>
+  </si>
+  <si>
+    <t>Refined petroleum products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Stage of Processing</t>
+  </si>
+  <si>
+    <t>Capital equipments</t>
+  </si>
+  <si>
+    <t>Crude Materials</t>
+  </si>
+  <si>
+    <t>The Office of Industrial Economics (OIE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6115,13 +6390,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>1189</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6147,13 +6422,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6182,10 +6457,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6214,10 +6489,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6246,10 +6521,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6257,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6278,10 +6553,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6289,7 +6564,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -6307,13 +6582,13 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6342,10 +6617,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>1120</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6374,10 +6649,10 @@
         <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,10 +6681,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6438,10 +6713,10 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,10 +6745,10 @@
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6502,10 +6777,10 @@
         <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6534,10 +6809,10 @@
         <v>39</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6566,10 +6841,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6598,10 +6873,10 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6630,15 +6905,15 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -6662,10 +6937,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6694,10 +6969,10 @@
         <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6726,10 +7001,10 @@
         <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6758,10 +7033,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6790,10 +7065,10 @@
         <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6822,10 +7097,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6854,10 +7129,10 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6886,10 +7161,10 @@
         <v>39</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6918,15 +7193,15 @@
         <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -6950,10 +7225,10 @@
         <v>39</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6982,10 +7257,10 @@
         <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7014,10 +7289,10 @@
         <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7046,10 +7321,10 @@
         <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7078,10 +7353,10 @@
         <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7110,10 +7385,10 @@
         <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7121,7 +7396,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -7142,10 +7417,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7174,7 +7449,7 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>131</v>
@@ -7206,10 +7481,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7238,7 +7513,7 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>139</v>
@@ -7270,10 +7545,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7302,7 +7577,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>57</v>
@@ -7334,15 +7609,15 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
@@ -7366,10 +7641,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7398,10 +7673,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7430,10 +7705,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7462,7 +7737,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>164</v>
@@ -7494,10 +7769,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7526,10 +7801,10 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7558,7 +7833,7 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>34</v>
@@ -7590,10 +7865,10 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7622,10 +7897,10 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,10 +7929,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7686,10 +7961,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7718,10 +7993,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7750,10 +8025,10 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7782,10 +8057,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7814,10 +8089,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7846,10 +8121,10 @@
         <v>39</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7878,10 +8153,10 @@
         <v>39</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7910,10 +8185,10 @@
         <v>39</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7942,10 +8217,10 @@
         <v>39</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7974,10 +8249,10 @@
         <v>39</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -8006,10 +8281,10 @@
         <v>39</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8038,10 +8313,10 @@
         <v>39</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8070,10 +8345,10 @@
         <v>39</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8102,15 +8377,15 @@
         <v>39</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B65" t="s">
         <v>232</v>
@@ -8134,10 +8409,10 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8166,10 +8441,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8198,10 +8473,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8230,10 +8505,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8262,10 +8537,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8294,10 +8569,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8326,10 +8601,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8358,10 +8633,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8390,7 +8665,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>131</v>
@@ -8422,10 +8697,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8454,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>139</v>
@@ -8486,10 +8761,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8518,7 +8793,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>57</v>
@@ -8550,15 +8825,15 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B79" t="s">
         <v>275</v>
@@ -8582,10 +8857,10 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8614,10 +8889,10 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8646,10 +8921,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8678,7 +8953,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>164</v>
@@ -8710,10 +8985,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8742,10 +9017,10 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8774,10 +9049,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8806,10 +9081,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +9158,7 @@
         <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -8904,10 +9179,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>1198</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8936,10 +9211,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8968,10 +9243,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9000,10 +9275,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9032,10 +9307,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9064,10 +9339,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9096,10 +9371,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9128,10 +9403,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9160,10 +9435,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9192,10 +9467,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9224,10 +9499,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9256,10 +9531,10 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9288,10 +9563,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9320,10 +9595,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9352,10 +9627,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9384,15 +9659,15 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B18" t="s">
         <v>357</v>
@@ -9416,10 +9691,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9448,10 +9723,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9480,10 +9755,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9512,10 +9787,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9544,15 +9819,15 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B23" t="s">
         <v>374</v>
@@ -9576,10 +9851,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9608,10 +9883,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9640,10 +9915,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9672,15 +9947,15 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B27" t="s">
         <v>389</v>
@@ -9704,15 +9979,15 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B28" t="s">
         <v>392</v>
@@ -9736,15 +10011,15 @@
         <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B29" t="s">
         <v>395</v>
@@ -9768,15 +10043,15 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
@@ -9800,15 +10075,15 @@
         <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B31" t="s">
         <v>401</v>
@@ -9832,15 +10107,15 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B32" t="s">
         <v>404</v>
@@ -9864,15 +10139,15 @@
         <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B33" t="s">
         <v>407</v>
@@ -9896,10 +10171,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -9907,7 +10182,7 @@
         <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -9928,10 +10203,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9960,10 +10235,10 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>1120</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -9992,10 +10267,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -10024,10 +10299,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -10056,10 +10331,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -10088,10 +10363,10 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -10120,10 +10395,10 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10152,10 +10427,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10184,10 +10459,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>1139</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -10195,7 +10470,7 @@
         <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -10216,10 +10491,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10248,7 +10523,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>131</v>
@@ -10280,10 +10555,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -10312,7 +10587,7 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>139</v>
@@ -10344,10 +10619,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10376,7 +10651,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>57</v>
@@ -10408,15 +10683,15 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B50" t="s">
         <v>457</v>
@@ -10440,10 +10715,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -10472,10 +10747,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10504,10 +10779,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10536,7 +10811,7 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>164</v>
@@ -10568,10 +10843,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -10600,10 +10875,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -10611,7 +10886,7 @@
         <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C56" t="s">
         <v>474</v>
@@ -10632,10 +10907,10 @@
         <v>20</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -10643,7 +10918,7 @@
         <v>480</v>
       </c>
       <c r="B57" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C57" t="s">
         <v>478</v>
@@ -10664,10 +10939,10 @@
         <v>20</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -10675,7 +10950,7 @@
         <v>483</v>
       </c>
       <c r="B58" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C58" t="s">
         <v>481</v>
@@ -10696,10 +10971,10 @@
         <v>20</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -10707,7 +10982,7 @@
         <v>486</v>
       </c>
       <c r="B59" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C59" t="s">
         <v>484</v>
@@ -10728,10 +11003,10 @@
         <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -10739,7 +11014,7 @@
         <v>488</v>
       </c>
       <c r="B60" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C60" t="s">
         <v>484</v>
@@ -10760,10 +11035,10 @@
         <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -10771,7 +11046,7 @@
         <v>491</v>
       </c>
       <c r="B61" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C61" t="s">
         <v>489</v>
@@ -10792,10 +11067,10 @@
         <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -10803,7 +11078,7 @@
         <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C62" t="s">
         <v>492</v>
@@ -10824,10 +11099,10 @@
         <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -10856,10 +11131,10 @@
         <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -10888,10 +11163,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -10920,7 +11195,7 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>34</v>
@@ -10952,10 +11227,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -10984,10 +11259,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -11016,10 +11291,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -11048,10 +11323,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -11080,10 +11355,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -11112,10 +11387,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11144,10 +11419,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11176,7 +11451,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>34</v>
@@ -11208,10 +11483,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -11240,7 +11515,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>131</v>
@@ -11272,10 +11547,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11304,7 +11579,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>139</v>
@@ -11336,10 +11611,10 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -11368,7 +11643,7 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>57</v>
@@ -11400,15 +11675,15 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B81" t="s">
         <v>551</v>
@@ -11432,10 +11707,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11464,10 +11739,10 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -11496,10 +11771,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -11528,7 +11803,7 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>164</v>
@@ -11560,10 +11835,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -11592,10 +11867,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -11624,7 +11899,7 @@
         <v>39</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>131</v>
@@ -11656,10 +11931,10 @@
         <v>39</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -11688,7 +11963,7 @@
         <v>39</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>139</v>
@@ -11720,10 +11995,10 @@
         <v>39</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -11752,7 +12027,7 @@
         <v>39</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>57</v>
@@ -11784,15 +12059,15 @@
         <v>39</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B93" t="s">
         <v>586</v>
@@ -11816,10 +12091,10 @@
         <v>39</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -11848,10 +12123,10 @@
         <v>39</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -11880,10 +12155,10 @@
         <v>39</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -11912,7 +12187,7 @@
         <v>39</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>164</v>
@@ -11944,10 +12219,10 @@
         <v>39</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -11976,10 +12251,10 @@
         <v>39</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -12008,10 +12283,10 @@
         <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>1260</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -12026,10 +12301,10 @@
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12042,7 +12317,8 @@
     <col min="7" max="7" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="36.375" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="36.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -12080,7 +12356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>610</v>
       </c>
@@ -12106,7 +12382,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>616</v>
       </c>
@@ -12132,7 +12408,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>619</v>
       </c>
@@ -12160,19 +12436,19 @@
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s">
-        <v>620</v>
+        <v>1333</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" t="s">
         <v>621</v>
-      </c>
-      <c r="E5" t="s">
-        <v>622</v>
       </c>
       <c r="F5" t="s">
         <v>498</v>
@@ -12184,24 +12460,30 @@
         <v>611</v>
       </c>
       <c r="I5" t="s">
-        <v>1262</v>
+        <v>1261</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" t="s">
         <v>625</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" t="s">
         <v>626</v>
-      </c>
-      <c r="D6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" t="s">
-        <v>627</v>
       </c>
       <c r="F6" t="s">
         <v>498</v>
@@ -12213,24 +12495,30 @@
         <v>611</v>
       </c>
       <c r="I6" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" t="s">
         <v>629</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E7" t="s">
         <v>630</v>
-      </c>
-      <c r="D7" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" t="s">
-        <v>631</v>
       </c>
       <c r="F7" t="s">
         <v>498</v>
@@ -12242,24 +12530,30 @@
         <v>611</v>
       </c>
       <c r="I7" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C8" t="s">
         <v>633</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" t="s">
         <v>634</v>
-      </c>
-      <c r="D8" t="s">
-        <v>621</v>
-      </c>
-      <c r="E8" t="s">
-        <v>635</v>
       </c>
       <c r="F8" t="s">
         <v>498</v>
@@ -12271,24 +12565,30 @@
         <v>611</v>
       </c>
       <c r="I8" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" t="s">
         <v>637</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E9" t="s">
         <v>638</v>
-      </c>
-      <c r="D9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E9" t="s">
-        <v>639</v>
       </c>
       <c r="F9" t="s">
         <v>498</v>
@@ -12300,24 +12600,30 @@
         <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" t="s">
         <v>641</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>620</v>
+      </c>
+      <c r="E10" t="s">
         <v>642</v>
-      </c>
-      <c r="D10" t="s">
-        <v>621</v>
-      </c>
-      <c r="E10" t="s">
-        <v>643</v>
       </c>
       <c r="F10" t="s">
         <v>498</v>
@@ -12329,24 +12635,30 @@
         <v>611</v>
       </c>
       <c r="I10" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C11" t="s">
         <v>645</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E11" t="s">
         <v>646</v>
-      </c>
-      <c r="D11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E11" t="s">
-        <v>647</v>
       </c>
       <c r="F11" t="s">
         <v>498</v>
@@ -12358,24 +12670,30 @@
         <v>611</v>
       </c>
       <c r="I11" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C12" t="s">
         <v>649</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" t="s">
         <v>650</v>
-      </c>
-      <c r="D12" t="s">
-        <v>621</v>
-      </c>
-      <c r="E12" t="s">
-        <v>651</v>
       </c>
       <c r="F12" t="s">
         <v>498</v>
@@ -12387,24 +12705,30 @@
         <v>611</v>
       </c>
       <c r="I12" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" t="s">
         <v>653</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>620</v>
+      </c>
+      <c r="E13" t="s">
         <v>654</v>
-      </c>
-      <c r="D13" t="s">
-        <v>621</v>
-      </c>
-      <c r="E13" t="s">
-        <v>655</v>
       </c>
       <c r="F13" t="s">
         <v>498</v>
@@ -12416,21 +12740,27 @@
         <v>611</v>
       </c>
       <c r="I13" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C14" t="s">
         <v>657</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>658</v>
-      </c>
-      <c r="E14" t="s">
-        <v>659</v>
       </c>
       <c r="F14" t="s">
         <v>498</v>
@@ -12445,21 +12775,24 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B15" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" t="s">
         <v>661</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>662</v>
-      </c>
-      <c r="E15" t="s">
-        <v>663</v>
       </c>
       <c r="F15" t="s">
         <v>498</v>
@@ -12474,21 +12807,24 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B16" t="s">
+        <v>664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>661</v>
+      </c>
+      <c r="E16" t="s">
         <v>665</v>
-      </c>
-      <c r="C16" t="s">
-        <v>662</v>
-      </c>
-      <c r="E16" t="s">
-        <v>666</v>
       </c>
       <c r="F16" t="s">
         <v>498</v>
@@ -12503,21 +12839,24 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C17" t="s">
         <v>668</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>669</v>
-      </c>
-      <c r="E17" t="s">
-        <v>670</v>
       </c>
       <c r="F17" t="s">
         <v>498</v>
@@ -12532,21 +12871,24 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" t="s">
+        <v>668</v>
+      </c>
+      <c r="E18" t="s">
         <v>672</v>
-      </c>
-      <c r="C18" t="s">
-        <v>669</v>
-      </c>
-      <c r="E18" t="s">
-        <v>673</v>
       </c>
       <c r="F18" t="s">
         <v>498</v>
@@ -12561,21 +12903,24 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E19" t="s">
         <v>675</v>
-      </c>
-      <c r="C19" t="s">
-        <v>658</v>
-      </c>
-      <c r="E19" t="s">
-        <v>676</v>
       </c>
       <c r="F19" t="s">
         <v>498</v>
@@ -12590,21 +12935,24 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B20" t="s">
+        <v>677</v>
+      </c>
+      <c r="C20" t="s">
         <v>678</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>679</v>
-      </c>
-      <c r="E20" t="s">
-        <v>680</v>
       </c>
       <c r="F20" t="s">
         <v>498</v>
@@ -12619,21 +12967,24 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B21" t="s">
+        <v>681</v>
+      </c>
+      <c r="C21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" t="s">
         <v>682</v>
-      </c>
-      <c r="C21" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" t="s">
-        <v>683</v>
       </c>
       <c r="F21" t="s">
         <v>498</v>
@@ -12648,21 +12999,24 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C22" t="s">
         <v>685</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>686</v>
-      </c>
-      <c r="E22" t="s">
-        <v>687</v>
       </c>
       <c r="F22" t="s">
         <v>498</v>
@@ -12677,21 +13031,24 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B23" t="s">
+        <v>688</v>
+      </c>
+      <c r="C23" t="s">
+        <v>685</v>
+      </c>
+      <c r="E23" t="s">
         <v>689</v>
-      </c>
-      <c r="C23" t="s">
-        <v>686</v>
-      </c>
-      <c r="E23" t="s">
-        <v>690</v>
       </c>
       <c r="F23" t="s">
         <v>498</v>
@@ -12706,21 +13063,24 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B24" t="s">
+        <v>691</v>
+      </c>
+      <c r="C24" t="s">
         <v>692</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>693</v>
-      </c>
-      <c r="E24" t="s">
-        <v>694</v>
       </c>
       <c r="F24" t="s">
         <v>498</v>
@@ -12735,21 +13095,24 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E25" t="s">
         <v>696</v>
-      </c>
-      <c r="C25" t="s">
-        <v>693</v>
-      </c>
-      <c r="E25" t="s">
-        <v>697</v>
       </c>
       <c r="F25" t="s">
         <v>498</v>
@@ -12764,21 +13127,24 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B26" t="s">
+        <v>698</v>
+      </c>
+      <c r="C26" t="s">
         <v>699</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>700</v>
-      </c>
-      <c r="E26" t="s">
-        <v>701</v>
       </c>
       <c r="F26" t="s">
         <v>498</v>
@@ -12793,21 +13159,24 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" t="s">
+        <v>699</v>
+      </c>
+      <c r="E27" t="s">
         <v>703</v>
-      </c>
-      <c r="C27" t="s">
-        <v>700</v>
-      </c>
-      <c r="E27" t="s">
-        <v>704</v>
       </c>
       <c r="F27" t="s">
         <v>498</v>
@@ -12822,24 +13191,27 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E28" t="s">
         <v>707</v>
-      </c>
-      <c r="E28" t="s">
-        <v>708</v>
       </c>
       <c r="F28" t="s">
         <v>498</v>
@@ -12851,24 +13223,24 @@
         <v>499</v>
       </c>
       <c r="I28" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>713</v>
+      </c>
+      <c r="B29" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>714</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>711</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E29" t="s">
         <v>712</v>
-      </c>
-      <c r="D29" t="s">
-        <v>707</v>
-      </c>
-      <c r="E29" t="s">
-        <v>713</v>
       </c>
       <c r="F29" t="s">
         <v>498</v>
@@ -12880,24 +13252,24 @@
         <v>611</v>
       </c>
       <c r="I29" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B30" t="s">
+        <v>714</v>
+      </c>
+      <c r="C30" t="s">
+        <v>711</v>
+      </c>
+      <c r="D30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E30" t="s">
         <v>715</v>
-      </c>
-      <c r="C30" t="s">
-        <v>712</v>
-      </c>
-      <c r="D30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E30" t="s">
-        <v>716</v>
       </c>
       <c r="F30" t="s">
         <v>498</v>
@@ -12909,24 +13281,24 @@
         <v>611</v>
       </c>
       <c r="I30" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B31" t="s">
+        <v>717</v>
+      </c>
+      <c r="C31" t="s">
+        <v>711</v>
+      </c>
+      <c r="D31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E31" t="s">
         <v>718</v>
-      </c>
-      <c r="C31" t="s">
-        <v>712</v>
-      </c>
-      <c r="D31" t="s">
-        <v>707</v>
-      </c>
-      <c r="E31" t="s">
-        <v>719</v>
       </c>
       <c r="F31" t="s">
         <v>498</v>
@@ -12938,24 +13310,24 @@
         <v>611</v>
       </c>
       <c r="I31" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B32" t="s">
+        <v>720</v>
+      </c>
+      <c r="C32" t="s">
+        <v>711</v>
+      </c>
+      <c r="D32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E32" t="s">
         <v>721</v>
-      </c>
-      <c r="C32" t="s">
-        <v>712</v>
-      </c>
-      <c r="D32" t="s">
-        <v>707</v>
-      </c>
-      <c r="E32" t="s">
-        <v>722</v>
       </c>
       <c r="F32" t="s">
         <v>498</v>
@@ -12967,24 +13339,24 @@
         <v>611</v>
       </c>
       <c r="I32" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B33" t="s">
+        <v>723</v>
+      </c>
+      <c r="C33" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" t="s">
+        <v>706</v>
+      </c>
+      <c r="E33" t="s">
         <v>724</v>
-      </c>
-      <c r="C33" t="s">
-        <v>712</v>
-      </c>
-      <c r="D33" t="s">
-        <v>707</v>
-      </c>
-      <c r="E33" t="s">
-        <v>725</v>
       </c>
       <c r="F33" t="s">
         <v>498</v>
@@ -12996,24 +13368,24 @@
         <v>611</v>
       </c>
       <c r="I33" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B34" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" t="s">
+        <v>711</v>
+      </c>
+      <c r="D34" t="s">
+        <v>706</v>
+      </c>
+      <c r="E34" t="s">
         <v>727</v>
-      </c>
-      <c r="C34" t="s">
-        <v>712</v>
-      </c>
-      <c r="D34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E34" t="s">
-        <v>728</v>
       </c>
       <c r="F34" t="s">
         <v>498</v>
@@ -13025,24 +13397,24 @@
         <v>611</v>
       </c>
       <c r="I34" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B35" t="s">
+        <v>728</v>
+      </c>
+      <c r="C35" t="s">
+        <v>711</v>
+      </c>
+      <c r="D35" t="s">
+        <v>706</v>
+      </c>
+      <c r="E35" t="s">
         <v>729</v>
-      </c>
-      <c r="C35" t="s">
-        <v>712</v>
-      </c>
-      <c r="D35" t="s">
-        <v>707</v>
-      </c>
-      <c r="E35" t="s">
-        <v>730</v>
       </c>
       <c r="F35" t="s">
         <v>498</v>
@@ -13054,24 +13426,24 @@
         <v>611</v>
       </c>
       <c r="I35" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C36" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36" t="s">
+        <v>706</v>
+      </c>
+      <c r="E36" t="s">
         <v>732</v>
-      </c>
-      <c r="C36" t="s">
-        <v>712</v>
-      </c>
-      <c r="D36" t="s">
-        <v>707</v>
-      </c>
-      <c r="E36" t="s">
-        <v>733</v>
       </c>
       <c r="F36" t="s">
         <v>498</v>
@@ -13083,24 +13455,24 @@
         <v>611</v>
       </c>
       <c r="I36" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C37" t="s">
         <v>735</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E37" t="s">
         <v>736</v>
-      </c>
-      <c r="D37" t="s">
-        <v>707</v>
-      </c>
-      <c r="E37" t="s">
-        <v>737</v>
       </c>
       <c r="F37" t="s">
         <v>498</v>
@@ -13112,24 +13484,24 @@
         <v>611</v>
       </c>
       <c r="I37" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B38" t="s">
+        <v>738</v>
+      </c>
+      <c r="C38" t="s">
         <v>739</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38" t="s">
         <v>740</v>
-      </c>
-      <c r="D38" t="s">
-        <v>707</v>
-      </c>
-      <c r="E38" t="s">
-        <v>741</v>
       </c>
       <c r="F38" t="s">
         <v>498</v>
@@ -13141,24 +13513,24 @@
         <v>611</v>
       </c>
       <c r="I38" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B39" t="s">
+        <v>742</v>
+      </c>
+      <c r="C39" t="s">
+        <v>739</v>
+      </c>
+      <c r="D39" t="s">
+        <v>706</v>
+      </c>
+      <c r="E39" t="s">
         <v>743</v>
-      </c>
-      <c r="C39" t="s">
-        <v>740</v>
-      </c>
-      <c r="D39" t="s">
-        <v>707</v>
-      </c>
-      <c r="E39" t="s">
-        <v>744</v>
       </c>
       <c r="F39" t="s">
         <v>498</v>
@@ -13170,24 +13542,24 @@
         <v>611</v>
       </c>
       <c r="I39" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B40" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" t="s">
         <v>746</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>706</v>
+      </c>
+      <c r="E40" t="s">
         <v>747</v>
-      </c>
-      <c r="D40" t="s">
-        <v>707</v>
-      </c>
-      <c r="E40" t="s">
-        <v>748</v>
       </c>
       <c r="F40" t="s">
         <v>498</v>
@@ -13199,24 +13571,24 @@
         <v>611</v>
       </c>
       <c r="I40" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B41" t="s">
+        <v>748</v>
+      </c>
+      <c r="C41" t="s">
         <v>749</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>706</v>
+      </c>
+      <c r="E41" t="s">
         <v>750</v>
-      </c>
-      <c r="D41" t="s">
-        <v>707</v>
-      </c>
-      <c r="E41" t="s">
-        <v>751</v>
       </c>
       <c r="F41" t="s">
         <v>498</v>
@@ -13228,24 +13600,24 @@
         <v>611</v>
       </c>
       <c r="I41" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B42" t="s">
+        <v>752</v>
+      </c>
+      <c r="C42" t="s">
+        <v>749</v>
+      </c>
+      <c r="D42" t="s">
+        <v>706</v>
+      </c>
+      <c r="E42" t="s">
         <v>753</v>
-      </c>
-      <c r="C42" t="s">
-        <v>750</v>
-      </c>
-      <c r="D42" t="s">
-        <v>707</v>
-      </c>
-      <c r="E42" t="s">
-        <v>754</v>
       </c>
       <c r="F42" t="s">
         <v>498</v>
@@ -13257,24 +13629,24 @@
         <v>611</v>
       </c>
       <c r="I42" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B43" t="s">
+        <v>755</v>
+      </c>
+      <c r="C43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" t="s">
         <v>756</v>
-      </c>
-      <c r="C43" t="s">
-        <v>750</v>
-      </c>
-      <c r="D43" t="s">
-        <v>707</v>
-      </c>
-      <c r="E43" t="s">
-        <v>757</v>
       </c>
       <c r="F43" t="s">
         <v>498</v>
@@ -13286,24 +13658,24 @@
         <v>611</v>
       </c>
       <c r="I43" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B44" t="s">
+        <v>758</v>
+      </c>
+      <c r="C44" t="s">
+        <v>749</v>
+      </c>
+      <c r="D44" t="s">
+        <v>706</v>
+      </c>
+      <c r="E44" t="s">
         <v>759</v>
-      </c>
-      <c r="C44" t="s">
-        <v>750</v>
-      </c>
-      <c r="D44" t="s">
-        <v>707</v>
-      </c>
-      <c r="E44" t="s">
-        <v>760</v>
       </c>
       <c r="F44" t="s">
         <v>498</v>
@@ -13315,24 +13687,24 @@
         <v>611</v>
       </c>
       <c r="I44" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B45" t="s">
+        <v>761</v>
+      </c>
+      <c r="C45" t="s">
         <v>762</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>706</v>
+      </c>
+      <c r="E45" t="s">
         <v>763</v>
-      </c>
-      <c r="D45" t="s">
-        <v>707</v>
-      </c>
-      <c r="E45" t="s">
-        <v>764</v>
       </c>
       <c r="F45" t="s">
         <v>498</v>
@@ -13344,24 +13716,24 @@
         <v>611</v>
       </c>
       <c r="I45" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B46" t="s">
+        <v>765</v>
+      </c>
+      <c r="C46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D46" t="s">
+        <v>706</v>
+      </c>
+      <c r="E46" t="s">
         <v>766</v>
-      </c>
-      <c r="C46" t="s">
-        <v>763</v>
-      </c>
-      <c r="D46" t="s">
-        <v>707</v>
-      </c>
-      <c r="E46" t="s">
-        <v>767</v>
       </c>
       <c r="F46" t="s">
         <v>498</v>
@@ -13373,24 +13745,24 @@
         <v>611</v>
       </c>
       <c r="I46" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B47" t="s">
+        <v>768</v>
+      </c>
+      <c r="C47" t="s">
+        <v>762</v>
+      </c>
+      <c r="D47" t="s">
+        <v>706</v>
+      </c>
+      <c r="E47" t="s">
         <v>769</v>
-      </c>
-      <c r="C47" t="s">
-        <v>763</v>
-      </c>
-      <c r="D47" t="s">
-        <v>707</v>
-      </c>
-      <c r="E47" t="s">
-        <v>770</v>
       </c>
       <c r="F47" t="s">
         <v>498</v>
@@ -13402,24 +13774,24 @@
         <v>611</v>
       </c>
       <c r="I47" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B48" t="s">
+        <v>770</v>
+      </c>
+      <c r="C48" t="s">
+        <v>762</v>
+      </c>
+      <c r="D48" t="s">
+        <v>706</v>
+      </c>
+      <c r="E48" t="s">
         <v>771</v>
-      </c>
-      <c r="C48" t="s">
-        <v>763</v>
-      </c>
-      <c r="D48" t="s">
-        <v>707</v>
-      </c>
-      <c r="E48" t="s">
-        <v>772</v>
       </c>
       <c r="F48" t="s">
         <v>498</v>
@@ -13431,24 +13803,24 @@
         <v>611</v>
       </c>
       <c r="I48" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B49" t="s">
+        <v>773</v>
+      </c>
+      <c r="C49" t="s">
         <v>774</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>706</v>
+      </c>
+      <c r="E49" t="s">
         <v>775</v>
-      </c>
-      <c r="D49" t="s">
-        <v>707</v>
-      </c>
-      <c r="E49" t="s">
-        <v>776</v>
       </c>
       <c r="F49" t="s">
         <v>498</v>
@@ -13460,24 +13832,24 @@
         <v>611</v>
       </c>
       <c r="I49" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B50" t="s">
+        <v>777</v>
+      </c>
+      <c r="C50" t="s">
         <v>778</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>706</v>
+      </c>
+      <c r="E50" t="s">
         <v>779</v>
-      </c>
-      <c r="D50" t="s">
-        <v>707</v>
-      </c>
-      <c r="E50" t="s">
-        <v>780</v>
       </c>
       <c r="F50" t="s">
         <v>498</v>
@@ -13489,24 +13861,24 @@
         <v>611</v>
       </c>
       <c r="I50" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" t="s">
         <v>782</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>706</v>
+      </c>
+      <c r="E51" t="s">
         <v>783</v>
-      </c>
-      <c r="D51" t="s">
-        <v>707</v>
-      </c>
-      <c r="E51" t="s">
-        <v>784</v>
       </c>
       <c r="F51" t="s">
         <v>498</v>
@@ -13518,24 +13890,24 @@
         <v>611</v>
       </c>
       <c r="I51" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B52" t="s">
+        <v>785</v>
+      </c>
+      <c r="C52" t="s">
         <v>786</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>706</v>
+      </c>
+      <c r="E52" t="s">
         <v>787</v>
-      </c>
-      <c r="D52" t="s">
-        <v>707</v>
-      </c>
-      <c r="E52" t="s">
-        <v>788</v>
       </c>
       <c r="F52" t="s">
         <v>498</v>
@@ -13547,24 +13919,24 @@
         <v>611</v>
       </c>
       <c r="I52" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B53" t="s">
+        <v>789</v>
+      </c>
+      <c r="C53" t="s">
         <v>790</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>706</v>
+      </c>
+      <c r="E53" t="s">
         <v>791</v>
-      </c>
-      <c r="D53" t="s">
-        <v>707</v>
-      </c>
-      <c r="E53" t="s">
-        <v>792</v>
       </c>
       <c r="F53" t="s">
         <v>498</v>
@@ -13576,24 +13948,24 @@
         <v>611</v>
       </c>
       <c r="I53" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B54" t="s">
+        <v>793</v>
+      </c>
+      <c r="C54" t="s">
         <v>794</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>706</v>
+      </c>
+      <c r="E54" t="s">
         <v>795</v>
-      </c>
-      <c r="D54" t="s">
-        <v>707</v>
-      </c>
-      <c r="E54" t="s">
-        <v>796</v>
       </c>
       <c r="F54" t="s">
         <v>498</v>
@@ -13605,24 +13977,24 @@
         <v>611</v>
       </c>
       <c r="I54" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B55" t="s">
+        <v>797</v>
+      </c>
+      <c r="C55" t="s">
         <v>798</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>706</v>
+      </c>
+      <c r="E55" t="s">
         <v>799</v>
-      </c>
-      <c r="D55" t="s">
-        <v>707</v>
-      </c>
-      <c r="E55" t="s">
-        <v>800</v>
       </c>
       <c r="F55" t="s">
         <v>498</v>
@@ -13634,24 +14006,24 @@
         <v>611</v>
       </c>
       <c r="I55" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B56" t="s">
+        <v>801</v>
+      </c>
+      <c r="C56" t="s">
+        <v>798</v>
+      </c>
+      <c r="D56" t="s">
+        <v>706</v>
+      </c>
+      <c r="E56" t="s">
         <v>802</v>
-      </c>
-      <c r="C56" t="s">
-        <v>799</v>
-      </c>
-      <c r="D56" t="s">
-        <v>707</v>
-      </c>
-      <c r="E56" t="s">
-        <v>803</v>
       </c>
       <c r="F56" t="s">
         <v>498</v>
@@ -13663,24 +14035,24 @@
         <v>611</v>
       </c>
       <c r="I56" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B57" t="s">
+        <v>803</v>
+      </c>
+      <c r="C57" t="s">
+        <v>798</v>
+      </c>
+      <c r="D57" t="s">
+        <v>706</v>
+      </c>
+      <c r="E57" t="s">
         <v>804</v>
-      </c>
-      <c r="C57" t="s">
-        <v>799</v>
-      </c>
-      <c r="D57" t="s">
-        <v>707</v>
-      </c>
-      <c r="E57" t="s">
-        <v>805</v>
       </c>
       <c r="F57" t="s">
         <v>498</v>
@@ -13692,24 +14064,24 @@
         <v>611</v>
       </c>
       <c r="I57" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B58" t="s">
+        <v>806</v>
+      </c>
+      <c r="C58" t="s">
         <v>807</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>706</v>
+      </c>
+      <c r="E58" t="s">
         <v>808</v>
-      </c>
-      <c r="D58" t="s">
-        <v>707</v>
-      </c>
-      <c r="E58" t="s">
-        <v>809</v>
       </c>
       <c r="F58" t="s">
         <v>498</v>
@@ -13721,24 +14093,24 @@
         <v>611</v>
       </c>
       <c r="I58" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B59" t="s">
+        <v>810</v>
+      </c>
+      <c r="C59" t="s">
+        <v>807</v>
+      </c>
+      <c r="D59" t="s">
+        <v>706</v>
+      </c>
+      <c r="E59" t="s">
         <v>811</v>
-      </c>
-      <c r="C59" t="s">
-        <v>808</v>
-      </c>
-      <c r="D59" t="s">
-        <v>707</v>
-      </c>
-      <c r="E59" t="s">
-        <v>812</v>
       </c>
       <c r="F59" t="s">
         <v>498</v>
@@ -13750,24 +14122,24 @@
         <v>611</v>
       </c>
       <c r="I59" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B60" t="s">
+        <v>813</v>
+      </c>
+      <c r="C60" t="s">
+        <v>807</v>
+      </c>
+      <c r="D60" t="s">
+        <v>706</v>
+      </c>
+      <c r="E60" t="s">
         <v>814</v>
-      </c>
-      <c r="C60" t="s">
-        <v>808</v>
-      </c>
-      <c r="D60" t="s">
-        <v>707</v>
-      </c>
-      <c r="E60" t="s">
-        <v>815</v>
       </c>
       <c r="F60" t="s">
         <v>498</v>
@@ -13779,24 +14151,24 @@
         <v>611</v>
       </c>
       <c r="I60" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B61" t="s">
+        <v>816</v>
+      </c>
+      <c r="C61" t="s">
+        <v>807</v>
+      </c>
+      <c r="D61" t="s">
+        <v>706</v>
+      </c>
+      <c r="E61" t="s">
         <v>817</v>
-      </c>
-      <c r="C61" t="s">
-        <v>808</v>
-      </c>
-      <c r="D61" t="s">
-        <v>707</v>
-      </c>
-      <c r="E61" t="s">
-        <v>818</v>
       </c>
       <c r="F61" t="s">
         <v>498</v>
@@ -13808,24 +14180,24 @@
         <v>611</v>
       </c>
       <c r="I61" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B62" t="s">
+        <v>819</v>
+      </c>
+      <c r="C62" t="s">
         <v>820</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>706</v>
+      </c>
+      <c r="E62" t="s">
         <v>821</v>
-      </c>
-      <c r="D62" t="s">
-        <v>707</v>
-      </c>
-      <c r="E62" t="s">
-        <v>822</v>
       </c>
       <c r="F62" t="s">
         <v>498</v>
@@ -13837,24 +14209,24 @@
         <v>611</v>
       </c>
       <c r="I62" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B63" t="s">
+        <v>823</v>
+      </c>
+      <c r="C63" t="s">
+        <v>820</v>
+      </c>
+      <c r="D63" t="s">
+        <v>706</v>
+      </c>
+      <c r="E63" t="s">
         <v>824</v>
-      </c>
-      <c r="C63" t="s">
-        <v>821</v>
-      </c>
-      <c r="D63" t="s">
-        <v>707</v>
-      </c>
-      <c r="E63" t="s">
-        <v>825</v>
       </c>
       <c r="F63" t="s">
         <v>498</v>
@@ -13866,24 +14238,24 @@
         <v>611</v>
       </c>
       <c r="I63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B64" t="s">
+        <v>825</v>
+      </c>
+      <c r="C64" t="s">
         <v>826</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>706</v>
+      </c>
+      <c r="E64" t="s">
         <v>827</v>
-      </c>
-      <c r="D64" t="s">
-        <v>707</v>
-      </c>
-      <c r="E64" t="s">
-        <v>828</v>
       </c>
       <c r="F64" t="s">
         <v>498</v>
@@ -13895,24 +14267,24 @@
         <v>611</v>
       </c>
       <c r="I64" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B65" t="s">
+        <v>829</v>
+      </c>
+      <c r="C65" t="s">
+        <v>826</v>
+      </c>
+      <c r="D65" t="s">
+        <v>706</v>
+      </c>
+      <c r="E65" t="s">
         <v>830</v>
-      </c>
-      <c r="C65" t="s">
-        <v>827</v>
-      </c>
-      <c r="D65" t="s">
-        <v>707</v>
-      </c>
-      <c r="E65" t="s">
-        <v>831</v>
       </c>
       <c r="F65" t="s">
         <v>498</v>
@@ -13924,24 +14296,24 @@
         <v>611</v>
       </c>
       <c r="I65" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B66" t="s">
+        <v>832</v>
+      </c>
+      <c r="C66" t="s">
         <v>833</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>706</v>
+      </c>
+      <c r="E66" t="s">
         <v>834</v>
-      </c>
-      <c r="D66" t="s">
-        <v>707</v>
-      </c>
-      <c r="E66" t="s">
-        <v>835</v>
       </c>
       <c r="F66" t="s">
         <v>498</v>
@@ -13953,24 +14325,24 @@
         <v>611</v>
       </c>
       <c r="I66" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B67" t="s">
+        <v>836</v>
+      </c>
+      <c r="C67" t="s">
         <v>837</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>706</v>
+      </c>
+      <c r="E67" t="s">
         <v>838</v>
-      </c>
-      <c r="D67" t="s">
-        <v>707</v>
-      </c>
-      <c r="E67" t="s">
-        <v>839</v>
       </c>
       <c r="F67" t="s">
         <v>498</v>
@@ -13982,24 +14354,24 @@
         <v>611</v>
       </c>
       <c r="I67" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B68" t="s">
+        <v>840</v>
+      </c>
+      <c r="C68" t="s">
+        <v>833</v>
+      </c>
+      <c r="D68" t="s">
+        <v>706</v>
+      </c>
+      <c r="E68" t="s">
         <v>841</v>
-      </c>
-      <c r="C68" t="s">
-        <v>834</v>
-      </c>
-      <c r="D68" t="s">
-        <v>707</v>
-      </c>
-      <c r="E68" t="s">
-        <v>842</v>
       </c>
       <c r="F68" t="s">
         <v>498</v>
@@ -14011,24 +14383,24 @@
         <v>611</v>
       </c>
       <c r="I68" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B69" t="s">
+        <v>843</v>
+      </c>
+      <c r="C69" t="s">
+        <v>837</v>
+      </c>
+      <c r="D69" t="s">
+        <v>706</v>
+      </c>
+      <c r="E69" t="s">
         <v>844</v>
-      </c>
-      <c r="C69" t="s">
-        <v>838</v>
-      </c>
-      <c r="D69" t="s">
-        <v>707</v>
-      </c>
-      <c r="E69" t="s">
-        <v>845</v>
       </c>
       <c r="F69" t="s">
         <v>498</v>
@@ -14040,24 +14412,24 @@
         <v>611</v>
       </c>
       <c r="I69" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B70" t="s">
+        <v>845</v>
+      </c>
+      <c r="C70" t="s">
+        <v>837</v>
+      </c>
+      <c r="D70" t="s">
+        <v>706</v>
+      </c>
+      <c r="E70" t="s">
         <v>846</v>
-      </c>
-      <c r="C70" t="s">
-        <v>838</v>
-      </c>
-      <c r="D70" t="s">
-        <v>707</v>
-      </c>
-      <c r="E70" t="s">
-        <v>847</v>
       </c>
       <c r="F70" t="s">
         <v>498</v>
@@ -14069,24 +14441,24 @@
         <v>611</v>
       </c>
       <c r="I70" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B71" t="s">
+        <v>848</v>
+      </c>
+      <c r="C71" t="s">
         <v>849</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>706</v>
+      </c>
+      <c r="E71" t="s">
         <v>850</v>
-      </c>
-      <c r="D71" t="s">
-        <v>707</v>
-      </c>
-      <c r="E71" t="s">
-        <v>851</v>
       </c>
       <c r="F71" t="s">
         <v>498</v>
@@ -14098,24 +14470,24 @@
         <v>611</v>
       </c>
       <c r="I71" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B72" t="s">
+        <v>852</v>
+      </c>
+      <c r="C72" t="s">
+        <v>849</v>
+      </c>
+      <c r="D72" t="s">
+        <v>706</v>
+      </c>
+      <c r="E72" t="s">
         <v>853</v>
-      </c>
-      <c r="C72" t="s">
-        <v>850</v>
-      </c>
-      <c r="D72" t="s">
-        <v>707</v>
-      </c>
-      <c r="E72" t="s">
-        <v>854</v>
       </c>
       <c r="F72" t="s">
         <v>498</v>
@@ -14127,24 +14499,24 @@
         <v>611</v>
       </c>
       <c r="I72" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B73" t="s">
+        <v>855</v>
+      </c>
+      <c r="C73" t="s">
         <v>856</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>706</v>
+      </c>
+      <c r="E73" t="s">
         <v>857</v>
-      </c>
-      <c r="D73" t="s">
-        <v>707</v>
-      </c>
-      <c r="E73" t="s">
-        <v>858</v>
       </c>
       <c r="F73" t="s">
         <v>498</v>
@@ -14156,24 +14528,24 @@
         <v>611</v>
       </c>
       <c r="I73" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B74" t="s">
+        <v>859</v>
+      </c>
+      <c r="C74" t="s">
+        <v>856</v>
+      </c>
+      <c r="D74" t="s">
+        <v>706</v>
+      </c>
+      <c r="E74" t="s">
         <v>860</v>
-      </c>
-      <c r="C74" t="s">
-        <v>857</v>
-      </c>
-      <c r="D74" t="s">
-        <v>707</v>
-      </c>
-      <c r="E74" t="s">
-        <v>861</v>
       </c>
       <c r="F74" t="s">
         <v>498</v>
@@ -14185,24 +14557,24 @@
         <v>611</v>
       </c>
       <c r="I74" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B75" t="s">
+        <v>861</v>
+      </c>
+      <c r="C75" t="s">
         <v>862</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>706</v>
+      </c>
+      <c r="E75" t="s">
         <v>863</v>
-      </c>
-      <c r="D75" t="s">
-        <v>707</v>
-      </c>
-      <c r="E75" t="s">
-        <v>864</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
@@ -14214,24 +14586,24 @@
         <v>611</v>
       </c>
       <c r="I75" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B76" t="s">
+        <v>865</v>
+      </c>
+      <c r="C76" t="s">
+        <v>862</v>
+      </c>
+      <c r="D76" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" t="s">
         <v>866</v>
-      </c>
-      <c r="C76" t="s">
-        <v>863</v>
-      </c>
-      <c r="D76" t="s">
-        <v>707</v>
-      </c>
-      <c r="E76" t="s">
-        <v>867</v>
       </c>
       <c r="F76" t="s">
         <v>498</v>
@@ -14243,24 +14615,24 @@
         <v>611</v>
       </c>
       <c r="I76" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B77" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E77" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F77" t="s">
         <v>498</v>
@@ -14272,24 +14644,24 @@
         <v>611</v>
       </c>
       <c r="I77" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E78" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F78" t="s">
         <v>498</v>
@@ -14301,24 +14673,24 @@
         <v>611</v>
       </c>
       <c r="I78" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B79" t="s">
+        <v>874</v>
+      </c>
+      <c r="C79" t="s">
+        <v>711</v>
+      </c>
+      <c r="D79" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" t="s">
         <v>875</v>
-      </c>
-      <c r="C79" t="s">
-        <v>712</v>
-      </c>
-      <c r="D79" t="s">
-        <v>707</v>
-      </c>
-      <c r="E79" t="s">
-        <v>876</v>
       </c>
       <c r="F79" t="s">
         <v>498</v>
@@ -14330,24 +14702,24 @@
         <v>611</v>
       </c>
       <c r="I79" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B80" t="s">
+        <v>877</v>
+      </c>
+      <c r="C80" t="s">
+        <v>711</v>
+      </c>
+      <c r="D80" t="s">
+        <v>706</v>
+      </c>
+      <c r="E80" t="s">
         <v>878</v>
-      </c>
-      <c r="C80" t="s">
-        <v>712</v>
-      </c>
-      <c r="D80" t="s">
-        <v>707</v>
-      </c>
-      <c r="E80" t="s">
-        <v>879</v>
       </c>
       <c r="F80" t="s">
         <v>498</v>
@@ -14359,24 +14731,24 @@
         <v>611</v>
       </c>
       <c r="I80" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B81" t="s">
+        <v>880</v>
+      </c>
+      <c r="C81" t="s">
+        <v>739</v>
+      </c>
+      <c r="D81" t="s">
+        <v>706</v>
+      </c>
+      <c r="E81" t="s">
         <v>881</v>
-      </c>
-      <c r="C81" t="s">
-        <v>740</v>
-      </c>
-      <c r="D81" t="s">
-        <v>707</v>
-      </c>
-      <c r="E81" t="s">
-        <v>882</v>
       </c>
       <c r="F81" t="s">
         <v>498</v>
@@ -14388,24 +14760,24 @@
         <v>611</v>
       </c>
       <c r="I81" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B82" t="s">
+        <v>883</v>
+      </c>
+      <c r="C82" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" t="s">
+        <v>706</v>
+      </c>
+      <c r="E82" t="s">
         <v>884</v>
-      </c>
-      <c r="C82" t="s">
-        <v>747</v>
-      </c>
-      <c r="D82" t="s">
-        <v>707</v>
-      </c>
-      <c r="E82" t="s">
-        <v>885</v>
       </c>
       <c r="F82" t="s">
         <v>498</v>
@@ -14417,24 +14789,24 @@
         <v>611</v>
       </c>
       <c r="I82" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B83" t="s">
+        <v>886</v>
+      </c>
+      <c r="C83" t="s">
+        <v>862</v>
+      </c>
+      <c r="D83" t="s">
+        <v>706</v>
+      </c>
+      <c r="E83" t="s">
         <v>887</v>
-      </c>
-      <c r="C83" t="s">
-        <v>863</v>
-      </c>
-      <c r="D83" t="s">
-        <v>707</v>
-      </c>
-      <c r="E83" t="s">
-        <v>888</v>
       </c>
       <c r="F83" t="s">
         <v>498</v>
@@ -14446,24 +14818,24 @@
         <v>611</v>
       </c>
       <c r="I83" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B84" t="s">
+        <v>889</v>
+      </c>
+      <c r="C84" t="s">
         <v>890</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>891</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>892</v>
-      </c>
-      <c r="E84" t="s">
-        <v>893</v>
       </c>
       <c r="F84" t="s">
         <v>498</v>
@@ -14477,22 +14849,28 @@
       <c r="I84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B85" t="s">
+        <v>894</v>
+      </c>
+      <c r="C85" t="s">
         <v>895</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>896</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>897</v>
-      </c>
-      <c r="E85" t="s">
-        <v>898</v>
       </c>
       <c r="F85" t="s">
         <v>498</v>
@@ -14506,22 +14884,28 @@
       <c r="I85" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
+        <v>900</v>
+      </c>
+      <c r="E86" t="s">
         <v>901</v>
-      </c>
-      <c r="E86" t="s">
-        <v>902</v>
       </c>
       <c r="F86" t="s">
         <v>498</v>
@@ -14533,24 +14917,30 @@
         <v>611</v>
       </c>
       <c r="I86" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B87" t="s">
+        <v>903</v>
+      </c>
+      <c r="C87" t="s">
         <v>904</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>900</v>
+      </c>
+      <c r="E87" t="s">
         <v>905</v>
-      </c>
-      <c r="D87" t="s">
-        <v>901</v>
-      </c>
-      <c r="E87" t="s">
-        <v>906</v>
       </c>
       <c r="F87" t="s">
         <v>498</v>
@@ -14562,24 +14952,30 @@
         <v>611</v>
       </c>
       <c r="I87" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B88" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E88" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F88" t="s">
         <v>498</v>
@@ -14591,24 +14987,30 @@
         <v>611</v>
       </c>
       <c r="I88" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B89" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E89" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F89" t="s">
         <v>498</v>
@@ -14620,24 +15022,30 @@
         <v>611</v>
       </c>
       <c r="I89" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B90" t="s">
+        <v>913</v>
+      </c>
+      <c r="C90" t="s">
+        <v>778</v>
+      </c>
+      <c r="D90" t="s">
+        <v>900</v>
+      </c>
+      <c r="E90" t="s">
         <v>914</v>
-      </c>
-      <c r="C90" t="s">
-        <v>779</v>
-      </c>
-      <c r="D90" t="s">
-        <v>901</v>
-      </c>
-      <c r="E90" t="s">
-        <v>915</v>
       </c>
       <c r="F90" t="s">
         <v>498</v>
@@ -14649,24 +15057,30 @@
         <v>611</v>
       </c>
       <c r="I90" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B91" t="s">
+        <v>916</v>
+      </c>
+      <c r="C91" t="s">
+        <v>837</v>
+      </c>
+      <c r="D91" t="s">
+        <v>900</v>
+      </c>
+      <c r="E91" t="s">
         <v>917</v>
-      </c>
-      <c r="C91" t="s">
-        <v>838</v>
-      </c>
-      <c r="D91" t="s">
-        <v>901</v>
-      </c>
-      <c r="E91" t="s">
-        <v>918</v>
       </c>
       <c r="F91" t="s">
         <v>498</v>
@@ -14678,24 +15092,30 @@
         <v>611</v>
       </c>
       <c r="I91" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B92" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" t="s">
         <v>920</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>900</v>
+      </c>
+      <c r="E92" t="s">
         <v>921</v>
-      </c>
-      <c r="D92" t="s">
-        <v>901</v>
-      </c>
-      <c r="E92" t="s">
-        <v>922</v>
       </c>
       <c r="F92" t="s">
         <v>498</v>
@@ -14707,24 +15127,30 @@
         <v>611</v>
       </c>
       <c r="I92" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B93" t="s">
+        <v>923</v>
+      </c>
+      <c r="C93" t="s">
+        <v>920</v>
+      </c>
+      <c r="D93" t="s">
+        <v>900</v>
+      </c>
+      <c r="E93" t="s">
         <v>924</v>
-      </c>
-      <c r="C93" t="s">
-        <v>921</v>
-      </c>
-      <c r="D93" t="s">
-        <v>901</v>
-      </c>
-      <c r="E93" t="s">
-        <v>925</v>
       </c>
       <c r="F93" t="s">
         <v>498</v>
@@ -14736,24 +15162,30 @@
         <v>611</v>
       </c>
       <c r="I93" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B94" t="s">
+        <v>926</v>
+      </c>
+      <c r="C94" t="s">
         <v>927</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>900</v>
+      </c>
+      <c r="E94" t="s">
         <v>928</v>
-      </c>
-      <c r="D94" t="s">
-        <v>901</v>
-      </c>
-      <c r="E94" t="s">
-        <v>929</v>
       </c>
       <c r="F94" t="s">
         <v>498</v>
@@ -14765,21 +15197,27 @@
         <v>611</v>
       </c>
       <c r="I94" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B95" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -14788,27 +15226,33 @@
         <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>937</v>
+      </c>
+      <c r="B96" t="s">
+        <v>934</v>
+      </c>
+      <c r="C96" t="s">
+        <v>935</v>
+      </c>
+      <c r="E96" t="s">
+        <v>936</v>
+      </c>
+      <c r="F96" t="s">
         <v>938</v>
-      </c>
-      <c r="B96" t="s">
-        <v>935</v>
-      </c>
-      <c r="C96" t="s">
-        <v>936</v>
-      </c>
-      <c r="E96" t="s">
-        <v>937</v>
-      </c>
-      <c r="F96" t="s">
-        <v>939</v>
       </c>
       <c r="G96" t="s">
         <v>305</v>
@@ -14819,19 +15263,25 @@
       <c r="I96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B97" t="s">
+        <v>939</v>
+      </c>
+      <c r="C97" t="s">
         <v>940</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>941</v>
-      </c>
-      <c r="E97" t="s">
-        <v>942</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -14845,19 +15295,25 @@
       <c r="I97" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B98" t="s">
+        <v>943</v>
+      </c>
+      <c r="C98" t="s">
         <v>944</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>945</v>
-      </c>
-      <c r="E98" t="s">
-        <v>946</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -14871,19 +15327,25 @@
       <c r="I98" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B99" t="s">
+        <v>947</v>
+      </c>
+      <c r="C99" t="s">
         <v>948</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>949</v>
-      </c>
-      <c r="E99" t="s">
-        <v>950</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -14897,19 +15359,25 @@
       <c r="I99" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B100" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
@@ -14923,19 +15391,25 @@
       <c r="I100" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B101" t="s">
+        <v>954</v>
+      </c>
+      <c r="C101" t="s">
         <v>955</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>956</v>
-      </c>
-      <c r="E101" t="s">
-        <v>957</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -14949,19 +15423,25 @@
       <c r="I101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B102" t="s">
+        <v>958</v>
+      </c>
+      <c r="C102" t="s">
         <v>959</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>960</v>
-      </c>
-      <c r="E102" t="s">
-        <v>961</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -14975,19 +15455,25 @@
       <c r="I102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B103" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C103" t="s">
+        <v>962</v>
+      </c>
+      <c r="E103" t="s">
         <v>963</v>
-      </c>
-      <c r="E103" t="s">
-        <v>964</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -15001,19 +15487,25 @@
       <c r="I103" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B104" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C104" t="s">
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -15027,19 +15519,25 @@
       <c r="I104" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B105" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C105" t="s">
         <v>399</v>
       </c>
       <c r="E105" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -15053,19 +15551,25 @@
       <c r="I105" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B106" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C106" t="s">
+        <v>969</v>
+      </c>
+      <c r="E106" t="s">
         <v>970</v>
-      </c>
-      <c r="E106" t="s">
-        <v>971</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -15079,19 +15583,25 @@
       <c r="I106" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B107" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C107" t="s">
+        <v>972</v>
+      </c>
+      <c r="E107" t="s">
         <v>973</v>
-      </c>
-      <c r="E107" t="s">
-        <v>974</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -15105,19 +15615,25 @@
       <c r="I107" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B108" t="s">
+        <v>975</v>
+      </c>
+      <c r="C108" t="s">
         <v>976</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>977</v>
-      </c>
-      <c r="E108" t="s">
-        <v>978</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -15131,19 +15647,25 @@
       <c r="I108" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B109" t="s">
+        <v>979</v>
+      </c>
+      <c r="C109" t="s">
+        <v>976</v>
+      </c>
+      <c r="E109" t="s">
         <v>980</v>
-      </c>
-      <c r="C109" t="s">
-        <v>977</v>
-      </c>
-      <c r="E109" t="s">
-        <v>981</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -15157,19 +15679,25 @@
       <c r="I109" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B110" t="s">
+        <v>982</v>
+      </c>
+      <c r="C110" t="s">
         <v>983</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>984</v>
-      </c>
-      <c r="E110" t="s">
-        <v>985</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
@@ -15183,19 +15711,25 @@
       <c r="I110" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B111" t="s">
+        <v>986</v>
+      </c>
+      <c r="C111" t="s">
+        <v>983</v>
+      </c>
+      <c r="E111" t="s">
         <v>987</v>
-      </c>
-      <c r="C111" t="s">
-        <v>984</v>
-      </c>
-      <c r="E111" t="s">
-        <v>988</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -15209,19 +15743,25 @@
       <c r="I111" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B112" t="s">
+        <v>989</v>
+      </c>
+      <c r="C112" t="s">
         <v>990</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>991</v>
-      </c>
-      <c r="E112" t="s">
-        <v>992</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -15235,19 +15775,25 @@
       <c r="I112" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B113" t="s">
+        <v>993</v>
+      </c>
+      <c r="C113" t="s">
+        <v>990</v>
+      </c>
+      <c r="E113" t="s">
         <v>994</v>
-      </c>
-      <c r="C113" t="s">
-        <v>991</v>
-      </c>
-      <c r="E113" t="s">
-        <v>995</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -15261,19 +15807,25 @@
       <c r="I113" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B114" t="s">
+        <v>996</v>
+      </c>
+      <c r="C114" t="s">
         <v>997</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>998</v>
-      </c>
-      <c r="E114" t="s">
-        <v>999</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -15287,19 +15839,25 @@
       <c r="I114" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B115" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C115" t="s">
+        <v>997</v>
+      </c>
+      <c r="E115" t="s">
         <v>1001</v>
-      </c>
-      <c r="C115" t="s">
-        <v>998</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1002</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -15313,19 +15871,25 @@
       <c r="I115" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B116" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C116" t="s">
         <v>1004</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>1005</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1006</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -15339,19 +15903,25 @@
       <c r="I116" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B117" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E117" t="s">
         <v>1008</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1009</v>
       </c>
       <c r="F117" t="s">
         <v>37</v>
@@ -15365,19 +15935,25 @@
       <c r="I117" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B118" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C118" t="s">
         <v>1011</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>1012</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1013</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -15391,19 +15967,25 @@
       <c r="I118" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B119" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C119" t="s">
         <v>1015</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>1016</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1017</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -15417,19 +15999,25 @@
       <c r="I119" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B120" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C120" t="s">
         <v>1019</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>1020</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1021</v>
       </c>
       <c r="F120" t="s">
         <v>37</v>
@@ -15443,19 +16031,25 @@
       <c r="I120" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B121" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C121" t="s">
         <v>1023</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>1024</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1025</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -15469,19 +16063,25 @@
       <c r="I121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B122" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C122" t="s">
         <v>1027</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>1028</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1029</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -15495,19 +16095,25 @@
       <c r="I122" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C123" t="s">
         <v>1031</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>1032</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1033</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -15521,19 +16127,25 @@
       <c r="I123" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B124" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E124" t="s">
         <v>1035</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1036</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -15547,19 +16159,25 @@
       <c r="I124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B125" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C125" t="s">
         <v>1038</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>1039</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1040</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -15573,19 +16191,25 @@
       <c r="I125" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B126" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C126" t="s">
         <v>1042</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>1043</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1044</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -15599,19 +16223,25 @@
       <c r="I126" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B127" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E127" t="s">
         <v>1046</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1047</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -15625,19 +16255,25 @@
       <c r="I127" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B128" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C128" t="s">
         <v>1049</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>1050</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1051</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -15651,19 +16287,25 @@
       <c r="I128" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B129" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E129" t="s">
         <v>1053</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1054</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -15677,19 +16319,25 @@
       <c r="I129" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B130" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -15703,19 +16351,25 @@
       <c r="I130" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B131" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C131" t="s">
         <v>1059</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>1060</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1061</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -15729,19 +16383,25 @@
       <c r="I131" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B132" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C132" t="s">
         <v>1063</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>1064</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1065</v>
       </c>
       <c r="F132" t="s">
         <v>37</v>
@@ -15755,19 +16415,25 @@
       <c r="I132" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B133" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C133" t="s">
         <v>1067</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>1068</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1069</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
@@ -15781,19 +16447,25 @@
       <c r="I133" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B134" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C134" t="s">
         <v>1071</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>1072</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1073</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -15807,19 +16479,25 @@
       <c r="I134" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B135" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F135" t="s">
         <v>37</v>
@@ -15833,19 +16511,25 @@
       <c r="I135" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B136" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C136" t="s">
         <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F136" t="s">
         <v>37</v>
@@ -15859,19 +16543,25 @@
       <c r="I136" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B137" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C137" t="s">
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -15885,19 +16575,25 @@
       <c r="I137" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B138" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C138" t="s">
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F138" t="s">
         <v>37</v>
@@ -15910,13 +16606,20 @@
       </c>
       <c r="I138" t="s">
         <v>20</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K138" xr:uid="{953FDB0D-0C7B-42B3-9DBB-918B89E6E841}">
     <filterColumn colId="8">
       <filters>
-        <filter val="Bank of Thailand (BOT)"/>
+        <filter val="The Office of Industrial Economics (OIE)"/>
+        <filter val="University of the Thai Chamber of Commerce (UTCC)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15980,19 +16683,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D2" t="s">
         <v>1086</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1087</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1088</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -16004,7 +16707,7 @@
         <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -16068,19 +16771,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C2" t="s">
         <v>1085</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1086</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1087</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1088</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -16092,7 +16795,7 @@
         <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/578/578_series.xlsx
+++ b/INTLINE/data/578/578_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\578\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA5048-8456-401E-B2C9-77D6F34EC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6E5B3-63FB-474D-9A58-232A5A9EEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33D9BD7F-4BE5-40AD-9289-4BAF655FA17F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="1411">
   <si>
     <t>Short Label</t>
   </si>
@@ -3307,9 +3307,6 @@
     <t>The Office of Industrial Economics (OIE)</t>
   </si>
   <si>
-    <t>Industry, Production Index, Processing and Preserving of Fruit and Vegetables (2016), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Food Products and Beverages</t>
   </si>
   <si>
@@ -3340,9 +3337,6 @@
     <t>THAIIPI0006.M</t>
   </si>
   <si>
-    <t>Industry, Production Index, Manufacture of Starches and Starch Products (2016), NSA - Thailand</t>
-  </si>
-  <si>
     <t>Thailand
 Industry
 Production Index, Manufacture of Starches and Starch Products (2016)
@@ -5914,6 +5908,182 @@
   <si>
     <t>The Office of Industrial Economics (OIE)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry, Production Index, Manufacture of Starches and Starch Products (2016), NSA - Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry, Production Index, Processing and Preserving of Fruit and Vegetables (2016), NSA - Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Production Index (Value added Weight)</t>
+  </si>
+  <si>
+    <t>TSIC : 1030 Processing and preserving of fruit and vegetables</t>
+  </si>
+  <si>
+    <t>TSIC : 1050 Manufacture of dairy products</t>
+  </si>
+  <si>
+    <t>TSIC : 1062 Manufacture of starches and starch products</t>
+  </si>
+  <si>
+    <t>TSIC : 1080 Manufacture of prepared animal feeds</t>
+  </si>
+  <si>
+    <t>TSIC : 1071 Manufacture of bakery products</t>
+  </si>
+  <si>
+    <t>TSIC : 1072 Manufacture of sugar</t>
+  </si>
+  <si>
+    <t>TSIC : 1103 Manufacture of malt liquors and malt</t>
+  </si>
+  <si>
+    <t>TSIC : 1104 Manufacture of soft drinks; production of mineral waters and other bottled</t>
+  </si>
+  <si>
+    <t>TSIC : 12 Manufacture of tobacco products</t>
+  </si>
+  <si>
+    <t>TSIC : 13 Manufacture of textiles</t>
+  </si>
+  <si>
+    <t>TSIC : 1430 Manufacture of knitted and crocheted apparel</t>
+  </si>
+  <si>
+    <t>TSIC : 14 Manufacture of wearing apparel</t>
+  </si>
+  <si>
+    <t>TSIC : 15 Manufacture of leather and related products</t>
+  </si>
+  <si>
+    <t>TSIC : 1511 Tanning and dressing of leather; dressing and dyeing</t>
+  </si>
+  <si>
+    <t>TSIC : 1512 Manufacture of luggage, handbags, and similar products</t>
+  </si>
+  <si>
+    <t>TSIC : 1520 Manufacture of footwear</t>
+  </si>
+  <si>
+    <t>TSIC : 17 Manufacture of paper and paper products</t>
+  </si>
+  <si>
+    <t>TSIC : 1701 Manufacture of pulp, paper and paperboard</t>
+  </si>
+  <si>
+    <t>TSIC : 1702 Manufacture of corrugated paper and paperboard</t>
+  </si>
+  <si>
+    <t>TSIC : 1709 Manufacture of other articles of paper and paperboard</t>
+  </si>
+  <si>
+    <t>TSIC : 19 Manufacture of coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>TSIC : 1920 Manufacture of refined petroleum products</t>
+  </si>
+  <si>
+    <t>TSIC : 20 Manufacture of chemicals and chemical products</t>
+  </si>
+  <si>
+    <t>TSIC : 2013 Manufacture of plastics and synthetic rubber in primary forms</t>
+  </si>
+  <si>
+    <t>TSIC : 21 Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>TSIC : 2023 Manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparaion</t>
+  </si>
+  <si>
+    <t>TSIC : 22 Manufacture of rubber and plastics products</t>
+  </si>
+  <si>
+    <t>TSIC : 2211 Manufacture of rubber tyres and tubes; retreading and rebuilding of rubber tyres</t>
+  </si>
+  <si>
+    <t>TSIC : 2219 Manufacture of other rubber products</t>
+  </si>
+  <si>
+    <t>TSIC : 23 Manufacture of other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>TSIC : 2310 Manufacture of glass and glass products</t>
+  </si>
+  <si>
+    <t>TSIC : 2394 Manufacture of cement, lime and plaster</t>
+  </si>
+  <si>
+    <t>TSIC : 2395 Manufacture of articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>TSIC : 24 Manufacture of basic metals</t>
+  </si>
+  <si>
+    <t>TSIC : 2410 Manufacture of basic iron and steel</t>
+  </si>
+  <si>
+    <t>TSIC : 25 Manufacture of fabricated metal products, except machinery and equipment</t>
+  </si>
+  <si>
+    <t>TSIC : 2599 Manufacture of other fabricated metal products n.e.c.</t>
+  </si>
+  <si>
+    <t>TSIC : 2819 Manufacture of other general-purpose machinery</t>
+  </si>
+  <si>
+    <t>TSIC : 2750 Manufacture of domestic appliances</t>
+  </si>
+  <si>
+    <t>TSIC : 2620 Manufacture of computers and peripheral equipment</t>
+  </si>
+  <si>
+    <t>TSIC : 2732 Manufacture of other electronic and electric wires and cables</t>
+  </si>
+  <si>
+    <t>TSIC : 2720 Manufacture of batteries and accumulators</t>
+  </si>
+  <si>
+    <t>TSIC : 29 Manufacture of motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>TSIC : 2910 Manufacture of motor vehicles</t>
+  </si>
+  <si>
+    <t>TSIC : 30 Manufacture of other transport equipment</t>
+  </si>
+  <si>
+    <t>TSIC : 3091 Manufacture of motorcycle</t>
+  </si>
+  <si>
+    <t>TSIC : 31 Manufacture of furniture</t>
+  </si>
+  <si>
+    <t>TSIC : 3211 Manufacture of jewellery and related articles</t>
+  </si>
+  <si>
+    <t>Integrated Index (Seasonally adjusted)</t>
+  </si>
+  <si>
+    <t>Integrated Index (Not seasonally adjusted)</t>
+  </si>
+  <si>
+    <t>TSIC : 10 Manufacture of food products</t>
+  </si>
+  <si>
+    <t>TSIC : 11 Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>TSIC : 1311 Preparation and spinning of textile fibres</t>
+  </si>
+  <si>
+    <t>TSIC : 1312 Weaving of textiles</t>
+  </si>
+  <si>
+    <t>TSIC : 32 Other maufacturing</t>
   </si>
 </sst>
 </file>
@@ -6390,13 +6560,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6422,13 +6592,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6457,10 +6627,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6489,10 +6659,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,10 +6691,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6532,7 +6702,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6553,10 +6723,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6564,7 +6734,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -6582,13 +6752,13 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6617,10 +6787,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6649,10 +6819,10 @@
         <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6681,10 +6851,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6713,10 +6883,10 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6745,10 +6915,10 @@
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6777,10 +6947,10 @@
         <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6809,10 +6979,10 @@
         <v>39</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6841,10 +7011,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6873,10 +7043,10 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6905,15 +7075,15 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -6937,10 +7107,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6969,10 +7139,10 @@
         <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7001,10 +7171,10 @@
         <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7033,10 +7203,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7065,10 +7235,10 @@
         <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7097,10 +7267,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7129,10 +7299,10 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7161,10 +7331,10 @@
         <v>39</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7193,15 +7363,15 @@
         <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -7225,10 +7395,10 @@
         <v>39</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7257,10 +7427,10 @@
         <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7289,10 +7459,10 @@
         <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7321,10 +7491,10 @@
         <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7353,10 +7523,10 @@
         <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7385,10 +7555,10 @@
         <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7396,7 +7566,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -7417,10 +7587,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7449,7 +7619,7 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>131</v>
@@ -7481,10 +7651,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7513,7 +7683,7 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>139</v>
@@ -7545,10 +7715,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7577,7 +7747,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>57</v>
@@ -7609,15 +7779,15 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
@@ -7641,10 +7811,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7673,10 +7843,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7705,10 +7875,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7737,7 +7907,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>164</v>
@@ -7769,10 +7939,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7801,10 +7971,10 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7833,7 +8003,7 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>34</v>
@@ -7865,10 +8035,10 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7897,10 +8067,10 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7929,10 +8099,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7961,10 +8131,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7993,10 +8163,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -8025,10 +8195,10 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>1131</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -8057,10 +8227,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -8089,10 +8259,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,10 +8291,10 @@
         <v>39</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -8153,10 +8323,10 @@
         <v>39</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -8185,10 +8355,10 @@
         <v>39</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -8217,10 +8387,10 @@
         <v>39</v>
       </c>
       <c r="J59" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -8249,10 +8419,10 @@
         <v>39</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -8281,10 +8451,10 @@
         <v>39</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8313,10 +8483,10 @@
         <v>39</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8345,10 +8515,10 @@
         <v>39</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8377,15 +8547,15 @@
         <v>39</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B65" t="s">
         <v>232</v>
@@ -8409,10 +8579,10 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8441,10 +8611,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8473,10 +8643,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8505,10 +8675,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8537,10 +8707,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8569,10 +8739,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8601,10 +8771,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8633,10 +8803,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8665,7 +8835,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>131</v>
@@ -8697,10 +8867,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8729,7 +8899,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>139</v>
@@ -8761,10 +8931,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8793,7 +8963,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>57</v>
@@ -8825,15 +8995,15 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B79" t="s">
         <v>275</v>
@@ -8857,10 +9027,10 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8889,10 +9059,10 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,10 +9091,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8953,7 +9123,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>164</v>
@@ -8985,10 +9155,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -9017,10 +9187,10 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -9049,10 +9219,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -9081,10 +9251,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -9158,7 +9328,7 @@
         <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -9179,10 +9349,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9211,10 +9381,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9243,10 +9413,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9275,10 +9445,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9307,10 +9477,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9339,10 +9509,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9371,10 +9541,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9403,10 +9573,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9435,10 +9605,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9467,10 +9637,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9499,10 +9669,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9531,10 +9701,10 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9563,10 +9733,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9595,10 +9765,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9627,10 +9797,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9659,15 +9829,15 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B18" t="s">
         <v>357</v>
@@ -9691,10 +9861,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9723,10 +9893,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9755,10 +9925,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9787,10 +9957,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9819,15 +9989,15 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B23" t="s">
         <v>374</v>
@@ -9851,10 +10021,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9883,10 +10053,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9915,10 +10085,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9947,15 +10117,15 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B27" t="s">
         <v>389</v>
@@ -9979,15 +10149,15 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B28" t="s">
         <v>392</v>
@@ -10011,15 +10181,15 @@
         <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B29" t="s">
         <v>395</v>
@@ -10043,15 +10213,15 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
@@ -10075,15 +10245,15 @@
         <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B31" t="s">
         <v>401</v>
@@ -10107,15 +10277,15 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B32" t="s">
         <v>404</v>
@@ -10139,15 +10309,15 @@
         <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B33" t="s">
         <v>407</v>
@@ -10171,10 +10341,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -10182,7 +10352,7 @@
         <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -10203,10 +10373,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -10235,10 +10405,10 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -10267,10 +10437,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -10299,10 +10469,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -10331,10 +10501,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -10363,10 +10533,10 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -10395,10 +10565,10 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10427,10 +10597,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10459,10 +10629,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -10470,7 +10640,7 @@
         <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -10491,10 +10661,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10523,7 +10693,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>131</v>
@@ -10555,10 +10725,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -10587,7 +10757,7 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>139</v>
@@ -10619,10 +10789,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10651,7 +10821,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>57</v>
@@ -10683,15 +10853,15 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B50" t="s">
         <v>457</v>
@@ -10715,10 +10885,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -10747,10 +10917,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10779,10 +10949,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10811,7 +10981,7 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>164</v>
@@ -10843,10 +11013,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -10875,10 +11045,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -10886,7 +11056,7 @@
         <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C56" t="s">
         <v>474</v>
@@ -10907,10 +11077,10 @@
         <v>20</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -10918,7 +11088,7 @@
         <v>480</v>
       </c>
       <c r="B57" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C57" t="s">
         <v>478</v>
@@ -10939,10 +11109,10 @@
         <v>20</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -10950,7 +11120,7 @@
         <v>483</v>
       </c>
       <c r="B58" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C58" t="s">
         <v>481</v>
@@ -10971,10 +11141,10 @@
         <v>20</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -10982,7 +11152,7 @@
         <v>486</v>
       </c>
       <c r="B59" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C59" t="s">
         <v>484</v>
@@ -11003,10 +11173,10 @@
         <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -11014,7 +11184,7 @@
         <v>488</v>
       </c>
       <c r="B60" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C60" t="s">
         <v>484</v>
@@ -11035,10 +11205,10 @@
         <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -11046,7 +11216,7 @@
         <v>491</v>
       </c>
       <c r="B61" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C61" t="s">
         <v>489</v>
@@ -11067,10 +11237,10 @@
         <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -11078,7 +11248,7 @@
         <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C62" t="s">
         <v>492</v>
@@ -11099,10 +11269,10 @@
         <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -11131,10 +11301,10 @@
         <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -11163,10 +11333,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -11195,7 +11365,7 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>34</v>
@@ -11227,10 +11397,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -11259,10 +11429,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -11291,10 +11461,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -11323,10 +11493,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -11355,10 +11525,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -11387,10 +11557,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>1131</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11419,10 +11589,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11451,7 +11621,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>34</v>
@@ -11483,10 +11653,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -11515,7 +11685,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>131</v>
@@ -11547,10 +11717,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11579,7 +11749,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>139</v>
@@ -11611,10 +11781,10 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -11643,7 +11813,7 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>57</v>
@@ -11675,15 +11845,15 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B81" t="s">
         <v>551</v>
@@ -11707,10 +11877,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11739,10 +11909,10 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -11771,10 +11941,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -11803,7 +11973,7 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>164</v>
@@ -11835,10 +12005,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -11867,10 +12037,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +12069,7 @@
         <v>39</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>131</v>
@@ -11931,10 +12101,10 @@
         <v>39</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -11963,7 +12133,7 @@
         <v>39</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>139</v>
@@ -11995,10 +12165,10 @@
         <v>39</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -12027,7 +12197,7 @@
         <v>39</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>57</v>
@@ -12059,15 +12229,15 @@
         <v>39</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B93" t="s">
         <v>586</v>
@@ -12091,10 +12261,10 @@
         <v>39</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -12123,10 +12293,10 @@
         <v>39</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>1140</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -12155,10 +12325,10 @@
         <v>39</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -12187,7 +12357,7 @@
         <v>39</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>164</v>
@@ -12219,10 +12389,10 @@
         <v>39</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -12251,10 +12421,10 @@
         <v>39</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -12283,10 +12453,10 @@
         <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -12304,7 +12474,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12439,7 +12609,7 @@
         <v>622</v>
       </c>
       <c r="B5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -12460,13 +12630,13 @@
         <v>611</v>
       </c>
       <c r="I5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12498,10 +12668,10 @@
         <v>623</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>1334</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12533,10 +12703,10 @@
         <v>623</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12568,10 +12738,10 @@
         <v>623</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12603,10 +12773,10 @@
         <v>623</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12638,10 +12808,10 @@
         <v>623</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12673,10 +12843,10 @@
         <v>623</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12708,10 +12878,10 @@
         <v>623</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12743,10 +12913,10 @@
         <v>623</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12775,10 +12945,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12807,10 +12977,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12839,10 +13009,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12871,10 +13041,10 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12903,10 +13073,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12935,10 +13105,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12967,10 +13137,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12999,10 +13169,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13031,10 +13201,10 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13063,10 +13233,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13095,10 +13265,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13127,10 +13297,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13159,10 +13329,10 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -13191,10 +13361,10 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -13223,24 +13393,24 @@
         <v>499</v>
       </c>
       <c r="I28" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B29" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C29" t="s">
         <v>710</v>
-      </c>
-      <c r="C29" t="s">
-        <v>711</v>
       </c>
       <c r="D29" t="s">
         <v>706</v>
       </c>
       <c r="E29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F29" t="s">
         <v>498</v>
@@ -13252,24 +13422,30 @@
         <v>611</v>
       </c>
       <c r="I29" t="s">
-        <v>709</v>
+        <v>1352</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D30" t="s">
         <v>706</v>
       </c>
       <c r="E30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F30" t="s">
         <v>498</v>
@@ -13283,22 +13459,28 @@
       <c r="I30" t="s">
         <v>709</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B31" t="s">
-        <v>717</v>
+        <v>1353</v>
       </c>
       <c r="C31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D31" t="s">
         <v>706</v>
       </c>
       <c r="E31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F31" t="s">
         <v>498</v>
@@ -13312,22 +13494,28 @@
       <c r="I31" t="s">
         <v>709</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D32" t="s">
         <v>706</v>
       </c>
       <c r="E32" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F32" t="s">
         <v>498</v>
@@ -13341,22 +13529,28 @@
       <c r="I32" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D33" t="s">
         <v>706</v>
       </c>
       <c r="E33" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F33" t="s">
         <v>498</v>
@@ -13370,22 +13564,28 @@
       <c r="I33" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B34" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D34" t="s">
         <v>706</v>
       </c>
       <c r="E34" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F34" t="s">
         <v>498</v>
@@ -13399,22 +13599,28 @@
       <c r="I34" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D35" t="s">
         <v>706</v>
       </c>
       <c r="E35" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F35" t="s">
         <v>498</v>
@@ -13428,22 +13634,28 @@
       <c r="I35" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B36" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D36" t="s">
         <v>706</v>
       </c>
       <c r="E36" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F36" t="s">
         <v>498</v>
@@ -13457,22 +13669,28 @@
       <c r="I36" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B37" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C37" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D37" t="s">
         <v>706</v>
       </c>
       <c r="E37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F37" t="s">
         <v>498</v>
@@ -13486,22 +13704,28 @@
       <c r="I37" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C38" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D38" t="s">
         <v>706</v>
       </c>
       <c r="E38" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F38" t="s">
         <v>498</v>
@@ -13515,22 +13739,28 @@
       <c r="I38" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C39" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D39" t="s">
         <v>706</v>
       </c>
       <c r="E39" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F39" t="s">
         <v>498</v>
@@ -13544,22 +13774,28 @@
       <c r="I39" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B40" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C40" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D40" t="s">
         <v>706</v>
       </c>
       <c r="E40" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F40" t="s">
         <v>498</v>
@@ -13573,22 +13809,28 @@
       <c r="I40" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B41" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C41" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D41" t="s">
         <v>706</v>
       </c>
       <c r="E41" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F41" t="s">
         <v>498</v>
@@ -13602,22 +13844,28 @@
       <c r="I41" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B42" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C42" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D42" t="s">
         <v>706</v>
       </c>
       <c r="E42" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F42" t="s">
         <v>498</v>
@@ -13631,22 +13879,28 @@
       <c r="I42" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B43" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C43" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D43" t="s">
         <v>706</v>
       </c>
       <c r="E43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F43" t="s">
         <v>498</v>
@@ -13660,22 +13914,28 @@
       <c r="I43" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B44" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C44" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D44" t="s">
         <v>706</v>
       </c>
       <c r="E44" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F44" t="s">
         <v>498</v>
@@ -13689,22 +13949,28 @@
       <c r="I44" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B45" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D45" t="s">
         <v>706</v>
       </c>
       <c r="E45" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F45" t="s">
         <v>498</v>
@@ -13718,22 +13984,28 @@
       <c r="I45" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B46" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C46" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D46" t="s">
         <v>706</v>
       </c>
       <c r="E46" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F46" t="s">
         <v>498</v>
@@ -13747,22 +14019,28 @@
       <c r="I46" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B47" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C47" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D47" t="s">
         <v>706</v>
       </c>
       <c r="E47" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F47" t="s">
         <v>498</v>
@@ -13776,22 +14054,28 @@
       <c r="I47" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B48" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C48" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D48" t="s">
         <v>706</v>
       </c>
       <c r="E48" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F48" t="s">
         <v>498</v>
@@ -13805,22 +14089,28 @@
       <c r="I48" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C49" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D49" t="s">
         <v>706</v>
       </c>
       <c r="E49" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F49" t="s">
         <v>498</v>
@@ -13834,22 +14124,28 @@
       <c r="I49" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B50" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D50" t="s">
         <v>706</v>
       </c>
       <c r="E50" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F50" t="s">
         <v>498</v>
@@ -13863,22 +14159,28 @@
       <c r="I50" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B51" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C51" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D51" t="s">
         <v>706</v>
       </c>
       <c r="E51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F51" t="s">
         <v>498</v>
@@ -13892,22 +14194,28 @@
       <c r="I51" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B52" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C52" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D52" t="s">
         <v>706</v>
       </c>
       <c r="E52" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F52" t="s">
         <v>498</v>
@@ -13921,22 +14229,28 @@
       <c r="I52" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C53" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D53" t="s">
         <v>706</v>
       </c>
       <c r="E53" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F53" t="s">
         <v>498</v>
@@ -13950,22 +14264,28 @@
       <c r="I53" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C54" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D54" t="s">
         <v>706</v>
       </c>
       <c r="E54" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F54" t="s">
         <v>498</v>
@@ -13979,22 +14299,28 @@
       <c r="I54" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B55" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C55" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D55" t="s">
         <v>706</v>
       </c>
       <c r="E55" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F55" t="s">
         <v>498</v>
@@ -14008,22 +14334,28 @@
       <c r="I55" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B56" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C56" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D56" t="s">
         <v>706</v>
       </c>
       <c r="E56" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F56" t="s">
         <v>498</v>
@@ -14037,22 +14369,28 @@
       <c r="I56" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B57" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C57" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D57" t="s">
         <v>706</v>
       </c>
       <c r="E57" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F57" t="s">
         <v>498</v>
@@ -14066,22 +14404,28 @@
       <c r="I57" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B58" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C58" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D58" t="s">
         <v>706</v>
       </c>
       <c r="E58" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F58" t="s">
         <v>498</v>
@@ -14095,22 +14439,28 @@
       <c r="I58" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B59" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C59" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D59" t="s">
         <v>706</v>
       </c>
       <c r="E59" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F59" t="s">
         <v>498</v>
@@ -14124,22 +14474,28 @@
       <c r="I59" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D60" t="s">
         <v>706</v>
       </c>
       <c r="E60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F60" t="s">
         <v>498</v>
@@ -14153,22 +14509,28 @@
       <c r="I60" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B61" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C61" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D61" t="s">
         <v>706</v>
       </c>
       <c r="E61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F61" t="s">
         <v>498</v>
@@ -14182,22 +14544,28 @@
       <c r="I61" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B62" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C62" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D62" t="s">
         <v>706</v>
       </c>
       <c r="E62" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F62" t="s">
         <v>498</v>
@@ -14211,22 +14579,28 @@
       <c r="I62" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B63" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C63" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D63" t="s">
         <v>706</v>
       </c>
       <c r="E63" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F63" t="s">
         <v>498</v>
@@ -14240,22 +14614,28 @@
       <c r="I63" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B64" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C64" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D64" t="s">
         <v>706</v>
       </c>
       <c r="E64" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F64" t="s">
         <v>498</v>
@@ -14269,22 +14649,28 @@
       <c r="I64" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B65" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C65" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D65" t="s">
         <v>706</v>
       </c>
       <c r="E65" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F65" t="s">
         <v>498</v>
@@ -14298,22 +14684,28 @@
       <c r="I65" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B66" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C66" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D66" t="s">
         <v>706</v>
       </c>
       <c r="E66" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F66" t="s">
         <v>498</v>
@@ -14327,22 +14719,28 @@
       <c r="I66" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B67" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C67" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D67" t="s">
         <v>706</v>
       </c>
       <c r="E67" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F67" t="s">
         <v>498</v>
@@ -14356,22 +14754,28 @@
       <c r="I67" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B68" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C68" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D68" t="s">
         <v>706</v>
       </c>
       <c r="E68" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F68" t="s">
         <v>498</v>
@@ -14385,22 +14789,28 @@
       <c r="I68" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B69" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C69" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D69" t="s">
         <v>706</v>
       </c>
       <c r="E69" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F69" t="s">
         <v>498</v>
@@ -14414,22 +14824,28 @@
       <c r="I69" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B70" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C70" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D70" t="s">
         <v>706</v>
       </c>
       <c r="E70" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F70" t="s">
         <v>498</v>
@@ -14443,22 +14859,28 @@
       <c r="I70" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B71" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C71" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D71" t="s">
         <v>706</v>
       </c>
       <c r="E71" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F71" t="s">
         <v>498</v>
@@ -14472,22 +14894,28 @@
       <c r="I71" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B72" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C72" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D72" t="s">
         <v>706</v>
       </c>
       <c r="E72" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F72" t="s">
         <v>498</v>
@@ -14501,22 +14929,28 @@
       <c r="I72" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B73" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C73" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D73" t="s">
         <v>706</v>
       </c>
       <c r="E73" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F73" t="s">
         <v>498</v>
@@ -14530,22 +14964,28 @@
       <c r="I73" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B74" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C74" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D74" t="s">
         <v>706</v>
       </c>
       <c r="E74" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F74" t="s">
         <v>498</v>
@@ -14559,22 +14999,28 @@
       <c r="I74" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B75" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C75" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D75" t="s">
         <v>706</v>
       </c>
       <c r="E75" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
@@ -14588,22 +15034,28 @@
       <c r="I75" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B76" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C76" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D76" t="s">
         <v>706</v>
       </c>
       <c r="E76" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F76" t="s">
         <v>498</v>
@@ -14617,13 +15069,19 @@
       <c r="I76" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B77" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -14632,7 +15090,7 @@
         <v>706</v>
       </c>
       <c r="E77" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F77" t="s">
         <v>498</v>
@@ -14646,13 +15104,19 @@
       <c r="I77" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B78" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -14661,7 +15125,7 @@
         <v>706</v>
       </c>
       <c r="E78" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F78" t="s">
         <v>498</v>
@@ -14675,22 +15139,28 @@
       <c r="I78" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B79" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C79" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D79" t="s">
         <v>706</v>
       </c>
       <c r="E79" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F79" t="s">
         <v>498</v>
@@ -14704,22 +15174,28 @@
       <c r="I79" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B80" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C80" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D80" t="s">
         <v>706</v>
       </c>
       <c r="E80" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F80" t="s">
         <v>498</v>
@@ -14733,22 +15209,28 @@
       <c r="I80" t="s">
         <v>709</v>
       </c>
+      <c r="J80" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B81" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C81" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D81" t="s">
         <v>706</v>
       </c>
       <c r="E81" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F81" t="s">
         <v>498</v>
@@ -14762,22 +15244,28 @@
       <c r="I81" t="s">
         <v>709</v>
       </c>
+      <c r="J81" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B82" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C82" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D82" t="s">
         <v>706</v>
       </c>
       <c r="E82" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F82" t="s">
         <v>498</v>
@@ -14791,22 +15279,28 @@
       <c r="I82" t="s">
         <v>709</v>
       </c>
+      <c r="J82" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B83" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C83" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D83" t="s">
         <v>706</v>
       </c>
       <c r="E83" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F83" t="s">
         <v>498</v>
@@ -14820,22 +15314,28 @@
       <c r="I83" t="s">
         <v>709</v>
       </c>
+      <c r="J83" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B84" t="s">
+        <v>887</v>
+      </c>
+      <c r="C84" t="s">
+        <v>888</v>
+      </c>
+      <c r="D84" t="s">
         <v>889</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>890</v>
-      </c>
-      <c r="D84" t="s">
-        <v>891</v>
-      </c>
-      <c r="E84" t="s">
-        <v>892</v>
       </c>
       <c r="F84" t="s">
         <v>498</v>
@@ -14850,27 +15350,27 @@
         <v>20</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B85" t="s">
+        <v>892</v>
+      </c>
+      <c r="C85" t="s">
+        <v>893</v>
+      </c>
+      <c r="D85" t="s">
         <v>894</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>895</v>
-      </c>
-      <c r="D85" t="s">
-        <v>896</v>
-      </c>
-      <c r="E85" t="s">
-        <v>897</v>
       </c>
       <c r="F85" t="s">
         <v>498</v>
@@ -14885,27 +15385,27 @@
         <v>20</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B86" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E86" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F86" t="s">
         <v>498</v>
@@ -14920,27 +15420,27 @@
         <v>623</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B87" t="s">
+        <v>901</v>
+      </c>
+      <c r="C87" t="s">
+        <v>902</v>
+      </c>
+      <c r="D87" t="s">
+        <v>898</v>
+      </c>
+      <c r="E87" t="s">
         <v>903</v>
-      </c>
-      <c r="C87" t="s">
-        <v>904</v>
-      </c>
-      <c r="D87" t="s">
-        <v>900</v>
-      </c>
-      <c r="E87" t="s">
-        <v>905</v>
       </c>
       <c r="F87" t="s">
         <v>498</v>
@@ -14955,27 +15455,27 @@
         <v>623</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B88" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E88" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F88" t="s">
         <v>498</v>
@@ -14990,27 +15490,27 @@
         <v>623</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B89" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E89" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F89" t="s">
         <v>498</v>
@@ -15025,27 +15525,27 @@
         <v>623</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B90" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C90" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D90" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E90" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F90" t="s">
         <v>498</v>
@@ -15060,27 +15560,27 @@
         <v>623</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B91" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C91" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D91" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E91" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F91" t="s">
         <v>498</v>
@@ -15095,27 +15595,27 @@
         <v>623</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B92" t="s">
+        <v>917</v>
+      </c>
+      <c r="C92" t="s">
+        <v>918</v>
+      </c>
+      <c r="D92" t="s">
+        <v>898</v>
+      </c>
+      <c r="E92" t="s">
         <v>919</v>
-      </c>
-      <c r="C92" t="s">
-        <v>920</v>
-      </c>
-      <c r="D92" t="s">
-        <v>900</v>
-      </c>
-      <c r="E92" t="s">
-        <v>921</v>
       </c>
       <c r="F92" t="s">
         <v>498</v>
@@ -15130,27 +15630,27 @@
         <v>623</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B93" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C93" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D93" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E93" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F93" t="s">
         <v>498</v>
@@ -15165,27 +15665,27 @@
         <v>623</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B94" t="s">
+        <v>924</v>
+      </c>
+      <c r="C94" t="s">
+        <v>925</v>
+      </c>
+      <c r="D94" t="s">
+        <v>898</v>
+      </c>
+      <c r="E94" t="s">
         <v>926</v>
-      </c>
-      <c r="C94" t="s">
-        <v>927</v>
-      </c>
-      <c r="D94" t="s">
-        <v>900</v>
-      </c>
-      <c r="E94" t="s">
-        <v>928</v>
       </c>
       <c r="F94" t="s">
         <v>498</v>
@@ -15197,27 +15697,27 @@
         <v>611</v>
       </c>
       <c r="I94" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>1351</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B95" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -15226,33 +15726,33 @@
         <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B96" t="s">
+        <v>932</v>
+      </c>
+      <c r="C96" t="s">
+        <v>933</v>
+      </c>
+      <c r="E96" t="s">
         <v>934</v>
       </c>
-      <c r="C96" t="s">
-        <v>935</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>936</v>
-      </c>
-      <c r="F96" t="s">
-        <v>938</v>
       </c>
       <c r="G96" t="s">
         <v>305</v>
@@ -15264,24 +15764,24 @@
         <v>20</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B97" t="s">
+        <v>937</v>
+      </c>
+      <c r="C97" t="s">
+        <v>938</v>
+      </c>
+      <c r="E97" t="s">
         <v>939</v>
-      </c>
-      <c r="C97" t="s">
-        <v>940</v>
-      </c>
-      <c r="E97" t="s">
-        <v>941</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -15296,24 +15796,24 @@
         <v>20</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B98" t="s">
+        <v>941</v>
+      </c>
+      <c r="C98" t="s">
+        <v>942</v>
+      </c>
+      <c r="E98" t="s">
         <v>943</v>
-      </c>
-      <c r="C98" t="s">
-        <v>944</v>
-      </c>
-      <c r="E98" t="s">
-        <v>945</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -15328,24 +15828,24 @@
         <v>20</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B99" t="s">
+        <v>945</v>
+      </c>
+      <c r="C99" t="s">
+        <v>946</v>
+      </c>
+      <c r="E99" t="s">
         <v>947</v>
-      </c>
-      <c r="C99" t="s">
-        <v>948</v>
-      </c>
-      <c r="E99" t="s">
-        <v>949</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -15360,24 +15860,24 @@
         <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>1317</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B100" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
@@ -15392,24 +15892,24 @@
         <v>20</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B101" t="s">
+        <v>952</v>
+      </c>
+      <c r="C101" t="s">
+        <v>953</v>
+      </c>
+      <c r="E101" t="s">
         <v>954</v>
-      </c>
-      <c r="C101" t="s">
-        <v>955</v>
-      </c>
-      <c r="E101" t="s">
-        <v>956</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -15424,24 +15924,24 @@
         <v>20</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B102" t="s">
+        <v>956</v>
+      </c>
+      <c r="C102" t="s">
+        <v>957</v>
+      </c>
+      <c r="E102" t="s">
         <v>958</v>
-      </c>
-      <c r="C102" t="s">
-        <v>959</v>
-      </c>
-      <c r="E102" t="s">
-        <v>960</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -15456,24 +15956,24 @@
         <v>20</v>
       </c>
       <c r="J102" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>1321</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B103" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C103" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E103" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -15488,24 +15988,24 @@
         <v>20</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B104" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C104" t="s">
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -15520,24 +16020,24 @@
         <v>20</v>
       </c>
       <c r="J104" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>1277</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B105" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C105" t="s">
         <v>399</v>
       </c>
       <c r="E105" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -15552,24 +16052,24 @@
         <v>20</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B106" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C106" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E106" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -15584,24 +16084,24 @@
         <v>20</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B107" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C107" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E107" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -15616,24 +16116,24 @@
         <v>20</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B108" t="s">
+        <v>973</v>
+      </c>
+      <c r="C108" t="s">
+        <v>974</v>
+      </c>
+      <c r="E108" t="s">
         <v>975</v>
-      </c>
-      <c r="C108" t="s">
-        <v>976</v>
-      </c>
-      <c r="E108" t="s">
-        <v>977</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -15648,24 +16148,24 @@
         <v>20</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B109" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C109" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E109" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -15680,24 +16180,24 @@
         <v>20</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B110" t="s">
+        <v>980</v>
+      </c>
+      <c r="C110" t="s">
+        <v>981</v>
+      </c>
+      <c r="E110" t="s">
         <v>982</v>
-      </c>
-      <c r="C110" t="s">
-        <v>983</v>
-      </c>
-      <c r="E110" t="s">
-        <v>984</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
@@ -15712,24 +16212,24 @@
         <v>20</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B111" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C111" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E111" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -15744,24 +16244,24 @@
         <v>20</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B112" t="s">
+        <v>987</v>
+      </c>
+      <c r="C112" t="s">
+        <v>988</v>
+      </c>
+      <c r="E112" t="s">
         <v>989</v>
-      </c>
-      <c r="C112" t="s">
-        <v>990</v>
-      </c>
-      <c r="E112" t="s">
-        <v>991</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -15776,24 +16276,24 @@
         <v>20</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B113" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C113" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E113" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -15808,24 +16308,24 @@
         <v>20</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B114" t="s">
+        <v>994</v>
+      </c>
+      <c r="C114" t="s">
+        <v>995</v>
+      </c>
+      <c r="E114" t="s">
         <v>996</v>
-      </c>
-      <c r="C114" t="s">
-        <v>997</v>
-      </c>
-      <c r="E114" t="s">
-        <v>998</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -15840,24 +16340,24 @@
         <v>20</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B115" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C115" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E115" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -15872,24 +16372,24 @@
         <v>20</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B116" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E116" t="s">
         <v>1003</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1005</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -15904,24 +16404,24 @@
         <v>20</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B117" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C117" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E117" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F117" t="s">
         <v>37</v>
@@ -15936,24 +16436,24 @@
         <v>20</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B118" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E118" t="s">
         <v>1010</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1012</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -15968,24 +16468,24 @@
         <v>20</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B119" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E119" t="s">
         <v>1014</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1016</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -16000,24 +16500,24 @@
         <v>20</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B120" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E120" t="s">
         <v>1018</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1020</v>
       </c>
       <c r="F120" t="s">
         <v>37</v>
@@ -16032,24 +16532,24 @@
         <v>20</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B121" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E121" t="s">
         <v>1022</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1024</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -16064,24 +16564,24 @@
         <v>20</v>
       </c>
       <c r="J121" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>1283</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B122" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E122" t="s">
         <v>1026</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1028</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -16096,24 +16596,24 @@
         <v>20</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B123" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E123" t="s">
         <v>1030</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1032</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -16128,24 +16628,24 @@
         <v>20</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B124" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C124" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E124" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -16160,24 +16660,24 @@
         <v>20</v>
       </c>
       <c r="J124" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>1287</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B125" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E125" t="s">
         <v>1037</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1039</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -16192,24 +16692,24 @@
         <v>20</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B126" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E126" t="s">
         <v>1041</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1043</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -16224,24 +16724,24 @@
         <v>20</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B127" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C127" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E127" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -16256,24 +16756,24 @@
         <v>20</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B128" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E128" t="s">
         <v>1048</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1050</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -16288,24 +16788,24 @@
         <v>20</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B129" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C129" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E129" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -16320,24 +16820,24 @@
         <v>20</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B130" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -16352,24 +16852,24 @@
         <v>20</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B131" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E131" t="s">
         <v>1058</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1060</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -16384,24 +16884,24 @@
         <v>20</v>
       </c>
       <c r="J131" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K131" s="3" t="s">
         <v>1295</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B132" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E132" t="s">
         <v>1062</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1064</v>
       </c>
       <c r="F132" t="s">
         <v>37</v>
@@ -16416,24 +16916,24 @@
         <v>20</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B133" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E133" t="s">
         <v>1066</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1068</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
@@ -16448,24 +16948,24 @@
         <v>20</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B134" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E134" t="s">
         <v>1070</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1072</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -16480,24 +16980,24 @@
         <v>20</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B135" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F135" t="s">
         <v>37</v>
@@ -16512,24 +17012,24 @@
         <v>20</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B136" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C136" t="s">
         <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F136" t="s">
         <v>37</v>
@@ -16544,24 +17044,24 @@
         <v>20</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B137" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C137" t="s">
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -16576,24 +17076,24 @@
         <v>20</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B138" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C138" t="s">
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F138" t="s">
         <v>37</v>
@@ -16608,10 +17108,10 @@
         <v>20</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -16683,19 +17183,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E2" t="s">
         <v>1085</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1087</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -16707,7 +17207,7 @@
         <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -16771,19 +17271,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D2" t="s">
         <v>1084</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1085</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1087</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -16795,7 +17295,7 @@
         <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/578/578_series.xlsx
+++ b/INTLINE/data/578/578_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\578\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6E5B3-63FB-474D-9A58-232A5A9EEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC7987-9703-45A5-B7B7-954B8DEEB592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33D9BD7F-4BE5-40AD-9289-4BAF655FA17F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1417">
   <si>
     <t>Short Label</t>
   </si>
@@ -2849,9 +2849,6 @@
     <t>Thai Baht per Month</t>
   </si>
   <si>
-    <t>Surveys and Cyclical Indicators, Consumer Confidence Index, Confidence about Overall Economy, NSA - Thailand</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
@@ -6084,6 +6081,30 @@
   </si>
   <si>
     <t>TSIC : 32 Other maufacturing</t>
+  </si>
+  <si>
+    <t>Capacity Utilization Rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of the Thai Chamber of Commerce (UTCC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surveys and Cyclical Indicators, Consumer Confidence Index, Confidence about Overall Economy, NSA - Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>เศรษฐกิจโดยรวม</t>
+  </si>
+  <si>
+    <t>โอกาสในการหางาน</t>
+  </si>
+  <si>
+    <t>รายได้ในอนาคต</t>
+  </si>
+  <si>
+    <t>Consumer Confidence Index Historical Data</t>
   </si>
 </sst>
 </file>
@@ -6560,13 +6581,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>1186</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6592,13 +6613,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6627,10 +6648,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6659,10 +6680,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6691,10 +6712,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6702,7 +6723,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6723,10 +6744,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6734,7 +6755,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -6752,13 +6773,13 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6787,10 +6808,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6819,10 +6840,10 @@
         <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6851,10 +6872,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6883,10 +6904,10 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6915,10 +6936,10 @@
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6947,10 +6968,10 @@
         <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6979,10 +7000,10 @@
         <v>39</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7011,10 +7032,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7043,10 +7064,10 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7075,15 +7096,15 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -7107,10 +7128,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7139,10 +7160,10 @@
         <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7171,10 +7192,10 @@
         <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7203,10 +7224,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7235,10 +7256,10 @@
         <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7267,10 +7288,10 @@
         <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7299,10 +7320,10 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7331,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7363,15 +7384,15 @@
         <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -7395,10 +7416,10 @@
         <v>39</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7427,10 +7448,10 @@
         <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7459,10 +7480,10 @@
         <v>39</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7491,10 +7512,10 @@
         <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7523,10 +7544,10 @@
         <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7555,10 +7576,10 @@
         <v>39</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7566,7 +7587,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -7587,10 +7608,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7619,7 +7640,7 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>131</v>
@@ -7651,10 +7672,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7683,7 +7704,7 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>139</v>
@@ -7715,10 +7736,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7747,7 +7768,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>57</v>
@@ -7779,15 +7800,15 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
@@ -7811,10 +7832,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7843,10 +7864,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7875,10 +7896,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7907,7 +7928,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>164</v>
@@ -7939,10 +7960,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7971,10 +7992,10 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -8003,7 +8024,7 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>34</v>
@@ -8035,10 +8056,10 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -8067,10 +8088,10 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -8099,10 +8120,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -8131,10 +8152,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -8163,10 +8184,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -8195,10 +8216,10 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -8227,10 +8248,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -8259,10 +8280,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -8291,10 +8312,10 @@
         <v>39</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -8323,10 +8344,10 @@
         <v>39</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -8355,10 +8376,10 @@
         <v>39</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -8387,10 +8408,10 @@
         <v>39</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -8419,10 +8440,10 @@
         <v>39</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -8451,10 +8472,10 @@
         <v>39</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8483,10 +8504,10 @@
         <v>39</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8515,10 +8536,10 @@
         <v>39</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8547,15 +8568,15 @@
         <v>39</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B65" t="s">
         <v>232</v>
@@ -8579,10 +8600,10 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8611,10 +8632,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8643,10 +8664,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8675,10 +8696,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8707,10 +8728,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8739,10 +8760,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8771,10 +8792,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8803,10 +8824,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>131</v>
@@ -8867,10 +8888,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8899,7 +8920,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>139</v>
@@ -8931,10 +8952,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8963,7 +8984,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>57</v>
@@ -8995,15 +9016,15 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B79" t="s">
         <v>275</v>
@@ -9027,10 +9048,10 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -9059,10 +9080,10 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -9091,10 +9112,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -9123,7 +9144,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>164</v>
@@ -9155,10 +9176,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -9187,10 +9208,10 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -9219,10 +9240,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -9251,10 +9272,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -9328,7 +9349,7 @@
         <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -9349,10 +9370,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>1195</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9381,10 +9402,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9413,10 +9434,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9445,10 +9466,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9477,10 +9498,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9509,10 +9530,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9541,10 +9562,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9573,10 +9594,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9605,10 +9626,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9637,10 +9658,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9669,10 +9690,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9701,10 +9722,10 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9733,10 +9754,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9765,10 +9786,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9797,10 +9818,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9829,15 +9850,15 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B18" t="s">
         <v>357</v>
@@ -9861,10 +9882,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9893,10 +9914,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9925,10 +9946,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9957,10 +9978,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9989,15 +10010,15 @@
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B23" t="s">
         <v>374</v>
@@ -10021,10 +10042,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -10053,10 +10074,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -10085,10 +10106,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -10117,15 +10138,15 @@
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B27" t="s">
         <v>389</v>
@@ -10149,15 +10170,15 @@
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B28" t="s">
         <v>392</v>
@@ -10181,15 +10202,15 @@
         <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B29" t="s">
         <v>395</v>
@@ -10213,15 +10234,15 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
@@ -10245,15 +10266,15 @@
         <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B31" t="s">
         <v>401</v>
@@ -10277,15 +10298,15 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B32" t="s">
         <v>404</v>
@@ -10309,15 +10330,15 @@
         <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B33" t="s">
         <v>407</v>
@@ -10341,10 +10362,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -10352,7 +10373,7 @@
         <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -10373,10 +10394,10 @@
         <v>39</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -10405,10 +10426,10 @@
         <v>39</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -10437,10 +10458,10 @@
         <v>39</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -10469,10 +10490,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -10501,10 +10522,10 @@
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -10533,10 +10554,10 @@
         <v>39</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -10565,10 +10586,10 @@
         <v>39</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10597,10 +10618,10 @@
         <v>39</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10629,10 +10650,10 @@
         <v>39</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>1136</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -10640,7 +10661,7 @@
         <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -10661,10 +10682,10 @@
         <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10693,7 +10714,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>131</v>
@@ -10725,10 +10746,10 @@
         <v>39</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -10757,7 +10778,7 @@
         <v>39</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>139</v>
@@ -10789,10 +10810,10 @@
         <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10821,7 +10842,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>57</v>
@@ -10853,15 +10874,15 @@
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B50" t="s">
         <v>457</v>
@@ -10885,10 +10906,10 @@
         <v>39</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -10917,10 +10938,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10949,10 +10970,10 @@
         <v>39</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10981,7 +11002,7 @@
         <v>39</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>164</v>
@@ -11013,10 +11034,10 @@
         <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -11045,10 +11066,10 @@
         <v>39</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -11056,7 +11077,7 @@
         <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C56" t="s">
         <v>474</v>
@@ -11077,10 +11098,10 @@
         <v>20</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>1235</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -11088,7 +11109,7 @@
         <v>480</v>
       </c>
       <c r="B57" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C57" t="s">
         <v>478</v>
@@ -11109,10 +11130,10 @@
         <v>20</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -11120,7 +11141,7 @@
         <v>483</v>
       </c>
       <c r="B58" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C58" t="s">
         <v>481</v>
@@ -11141,10 +11162,10 @@
         <v>20</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -11152,7 +11173,7 @@
         <v>486</v>
       </c>
       <c r="B59" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C59" t="s">
         <v>484</v>
@@ -11173,10 +11194,10 @@
         <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -11184,7 +11205,7 @@
         <v>488</v>
       </c>
       <c r="B60" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C60" t="s">
         <v>484</v>
@@ -11205,10 +11226,10 @@
         <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -11216,7 +11237,7 @@
         <v>491</v>
       </c>
       <c r="B61" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C61" t="s">
         <v>489</v>
@@ -11237,10 +11258,10 @@
         <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -11248,7 +11269,7 @@
         <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C62" t="s">
         <v>492</v>
@@ -11269,10 +11290,10 @@
         <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -11301,10 +11322,10 @@
         <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -11333,10 +11354,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -11365,7 +11386,7 @@
         <v>39</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>34</v>
@@ -11397,10 +11418,10 @@
         <v>39</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -11429,10 +11450,10 @@
         <v>39</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -11461,10 +11482,10 @@
         <v>39</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -11493,10 +11514,10 @@
         <v>39</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -11525,10 +11546,10 @@
         <v>39</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -11557,10 +11578,10 @@
         <v>39</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11589,10 +11610,10 @@
         <v>39</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11621,7 +11642,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>34</v>
@@ -11653,10 +11674,10 @@
         <v>39</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -11685,7 +11706,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>131</v>
@@ -11717,10 +11738,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11749,7 +11770,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>139</v>
@@ -11781,10 +11802,10 @@
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -11813,7 +11834,7 @@
         <v>39</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>57</v>
@@ -11845,15 +11866,15 @@
         <v>39</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B81" t="s">
         <v>551</v>
@@ -11877,10 +11898,10 @@
         <v>39</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11909,10 +11930,10 @@
         <v>39</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -11941,10 +11962,10 @@
         <v>39</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -11973,7 +11994,7 @@
         <v>39</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>164</v>
@@ -12005,10 +12026,10 @@
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -12037,10 +12058,10 @@
         <v>39</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -12069,7 +12090,7 @@
         <v>39</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>131</v>
@@ -12101,10 +12122,10 @@
         <v>39</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -12133,7 +12154,7 @@
         <v>39</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>139</v>
@@ -12165,10 +12186,10 @@
         <v>39</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -12197,7 +12218,7 @@
         <v>39</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>57</v>
@@ -12229,15 +12250,15 @@
         <v>39</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B93" t="s">
         <v>586</v>
@@ -12261,10 +12282,10 @@
         <v>39</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -12293,10 +12314,10 @@
         <v>39</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -12325,10 +12346,10 @@
         <v>39</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -12357,7 +12378,7 @@
         <v>39</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>164</v>
@@ -12389,10 +12410,10 @@
         <v>39</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -12421,10 +12442,10 @@
         <v>39</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -12453,10 +12474,10 @@
         <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -12467,14 +12488,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953FDB0D-0C7B-42B3-9DBB-918B89E6E841}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12528,16 +12548,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C2" t="s">
         <v>607</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>608</v>
-      </c>
-      <c r="E2" t="s">
-        <v>609</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -12546,24 +12566,30 @@
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I2" t="s">
-        <v>612</v>
+        <v>1411</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
         <v>613</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>614</v>
-      </c>
-      <c r="E3" t="s">
-        <v>615</v>
       </c>
       <c r="F3" t="s">
         <v>498</v>
@@ -12572,24 +12598,30 @@
         <v>305</v>
       </c>
       <c r="H3" t="s">
+        <v>610</v>
+      </c>
+      <c r="I3" t="s">
         <v>611</v>
       </c>
-      <c r="I3" t="s">
-        <v>612</v>
+      <c r="J3" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F4" t="s">
         <v>498</v>
@@ -12598,27 +12630,33 @@
         <v>305</v>
       </c>
       <c r="H4" t="s">
+        <v>610</v>
+      </c>
+      <c r="I4" t="s">
         <v>611</v>
       </c>
-      <c r="I4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E5" t="s">
         <v>620</v>
-      </c>
-      <c r="E5" t="s">
-        <v>621</v>
       </c>
       <c r="F5" t="s">
         <v>498</v>
@@ -12627,33 +12665,33 @@
         <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C6" t="s">
         <v>624</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E6" t="s">
         <v>625</v>
-      </c>
-      <c r="D6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E6" t="s">
-        <v>626</v>
       </c>
       <c r="F6" t="s">
         <v>498</v>
@@ -12662,33 +12700,33 @@
         <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" t="s">
         <v>628</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" t="s">
         <v>629</v>
-      </c>
-      <c r="D7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E7" t="s">
-        <v>630</v>
       </c>
       <c r="F7" t="s">
         <v>498</v>
@@ -12697,33 +12735,33 @@
         <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" t="s">
         <v>632</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" t="s">
         <v>633</v>
-      </c>
-      <c r="D8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E8" t="s">
-        <v>634</v>
       </c>
       <c r="F8" t="s">
         <v>498</v>
@@ -12732,33 +12770,33 @@
         <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C9" t="s">
         <v>636</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" t="s">
         <v>637</v>
-      </c>
-      <c r="D9" t="s">
-        <v>620</v>
-      </c>
-      <c r="E9" t="s">
-        <v>638</v>
       </c>
       <c r="F9" t="s">
         <v>498</v>
@@ -12767,33 +12805,33 @@
         <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" t="s">
         <v>640</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>619</v>
+      </c>
+      <c r="E10" t="s">
         <v>641</v>
-      </c>
-      <c r="D10" t="s">
-        <v>620</v>
-      </c>
-      <c r="E10" t="s">
-        <v>642</v>
       </c>
       <c r="F10" t="s">
         <v>498</v>
@@ -12802,33 +12840,33 @@
         <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" t="s">
         <v>644</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E11" t="s">
         <v>645</v>
-      </c>
-      <c r="D11" t="s">
-        <v>620</v>
-      </c>
-      <c r="E11" t="s">
-        <v>646</v>
       </c>
       <c r="F11" t="s">
         <v>498</v>
@@ -12837,33 +12875,33 @@
         <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C12" t="s">
         <v>648</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>619</v>
+      </c>
+      <c r="E12" t="s">
         <v>649</v>
-      </c>
-      <c r="D12" t="s">
-        <v>620</v>
-      </c>
-      <c r="E12" t="s">
-        <v>650</v>
       </c>
       <c r="F12" t="s">
         <v>498</v>
@@ -12872,33 +12910,33 @@
         <v>305</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" t="s">
         <v>652</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>619</v>
+      </c>
+      <c r="E13" t="s">
         <v>653</v>
-      </c>
-      <c r="D13" t="s">
-        <v>620</v>
-      </c>
-      <c r="E13" t="s">
-        <v>654</v>
       </c>
       <c r="F13" t="s">
         <v>498</v>
@@ -12907,30 +12945,30 @@
         <v>305</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" t="s">
         <v>656</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>657</v>
-      </c>
-      <c r="E14" t="s">
-        <v>658</v>
       </c>
       <c r="F14" t="s">
         <v>498</v>
@@ -12939,30 +12977,30 @@
         <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" t="s">
         <v>660</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>661</v>
-      </c>
-      <c r="E15" t="s">
-        <v>662</v>
       </c>
       <c r="F15" t="s">
         <v>498</v>
@@ -12971,30 +13009,30 @@
         <v>305</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C16" t="s">
+        <v>660</v>
+      </c>
+      <c r="E16" t="s">
         <v>664</v>
-      </c>
-      <c r="C16" t="s">
-        <v>661</v>
-      </c>
-      <c r="E16" t="s">
-        <v>665</v>
       </c>
       <c r="F16" t="s">
         <v>498</v>
@@ -13003,30 +13041,30 @@
         <v>305</v>
       </c>
       <c r="H16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C17" t="s">
         <v>667</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>668</v>
-      </c>
-      <c r="E17" t="s">
-        <v>669</v>
       </c>
       <c r="F17" t="s">
         <v>498</v>
@@ -13035,30 +13073,30 @@
         <v>305</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B18" t="s">
+        <v>670</v>
+      </c>
+      <c r="C18" t="s">
+        <v>667</v>
+      </c>
+      <c r="E18" t="s">
         <v>671</v>
-      </c>
-      <c r="C18" t="s">
-        <v>668</v>
-      </c>
-      <c r="E18" t="s">
-        <v>672</v>
       </c>
       <c r="F18" t="s">
         <v>498</v>
@@ -13067,30 +13105,30 @@
         <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B19" t="s">
+        <v>673</v>
+      </c>
+      <c r="C19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E19" t="s">
         <v>674</v>
-      </c>
-      <c r="C19" t="s">
-        <v>657</v>
-      </c>
-      <c r="E19" t="s">
-        <v>675</v>
       </c>
       <c r="F19" t="s">
         <v>498</v>
@@ -13099,30 +13137,30 @@
         <v>305</v>
       </c>
       <c r="H19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C20" t="s">
         <v>677</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>678</v>
-      </c>
-      <c r="E20" t="s">
-        <v>679</v>
       </c>
       <c r="F20" t="s">
         <v>498</v>
@@ -13131,30 +13169,30 @@
         <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C21" t="s">
+        <v>677</v>
+      </c>
+      <c r="E21" t="s">
         <v>681</v>
-      </c>
-      <c r="C21" t="s">
-        <v>678</v>
-      </c>
-      <c r="E21" t="s">
-        <v>682</v>
       </c>
       <c r="F21" t="s">
         <v>498</v>
@@ -13163,30 +13201,30 @@
         <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C22" t="s">
         <v>684</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>685</v>
-      </c>
-      <c r="E22" t="s">
-        <v>686</v>
       </c>
       <c r="F22" t="s">
         <v>498</v>
@@ -13195,30 +13233,30 @@
         <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>684</v>
+      </c>
+      <c r="E23" t="s">
         <v>688</v>
-      </c>
-      <c r="C23" t="s">
-        <v>685</v>
-      </c>
-      <c r="E23" t="s">
-        <v>689</v>
       </c>
       <c r="F23" t="s">
         <v>498</v>
@@ -13227,30 +13265,30 @@
         <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B24" t="s">
+        <v>690</v>
+      </c>
+      <c r="C24" t="s">
         <v>691</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>692</v>
-      </c>
-      <c r="E24" t="s">
-        <v>693</v>
       </c>
       <c r="F24" t="s">
         <v>498</v>
@@ -13259,30 +13297,30 @@
         <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B25" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" t="s">
         <v>695</v>
-      </c>
-      <c r="C25" t="s">
-        <v>692</v>
-      </c>
-      <c r="E25" t="s">
-        <v>696</v>
       </c>
       <c r="F25" t="s">
         <v>498</v>
@@ -13291,30 +13329,30 @@
         <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B26" t="s">
+        <v>697</v>
+      </c>
+      <c r="C26" t="s">
         <v>698</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>699</v>
-      </c>
-      <c r="E26" t="s">
-        <v>700</v>
       </c>
       <c r="F26" t="s">
         <v>498</v>
@@ -13323,30 +13361,30 @@
         <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B27" t="s">
+        <v>701</v>
+      </c>
+      <c r="C27" t="s">
+        <v>698</v>
+      </c>
+      <c r="E27" t="s">
         <v>702</v>
-      </c>
-      <c r="C27" t="s">
-        <v>699</v>
-      </c>
-      <c r="E27" t="s">
-        <v>703</v>
       </c>
       <c r="F27" t="s">
         <v>498</v>
@@ -13355,33 +13393,33 @@
         <v>305</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
+        <v>705</v>
+      </c>
+      <c r="E28" t="s">
         <v>706</v>
-      </c>
-      <c r="E28" t="s">
-        <v>707</v>
       </c>
       <c r="F28" t="s">
         <v>498</v>
@@ -13393,24 +13431,30 @@
         <v>499</v>
       </c>
       <c r="I28" t="s">
-        <v>1352</v>
+        <v>1351</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B29" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C29" t="s">
+        <v>709</v>
+      </c>
+      <c r="D29" t="s">
+        <v>705</v>
+      </c>
+      <c r="E29" t="s">
         <v>710</v>
-      </c>
-      <c r="D29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E29" t="s">
-        <v>711</v>
       </c>
       <c r="F29" t="s">
         <v>498</v>
@@ -13419,33 +13463,33 @@
         <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B30" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" t="s">
+        <v>709</v>
+      </c>
+      <c r="D30" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" t="s">
         <v>713</v>
-      </c>
-      <c r="C30" t="s">
-        <v>710</v>
-      </c>
-      <c r="D30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E30" t="s">
-        <v>714</v>
       </c>
       <c r="F30" t="s">
         <v>498</v>
@@ -13454,33 +13498,33 @@
         <v>305</v>
       </c>
       <c r="H30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F31" t="s">
         <v>498</v>
@@ -13489,33 +13533,33 @@
         <v>305</v>
       </c>
       <c r="H31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" t="s">
+        <v>717</v>
+      </c>
+      <c r="C32" t="s">
+        <v>709</v>
+      </c>
+      <c r="D32" t="s">
+        <v>705</v>
+      </c>
+      <c r="E32" t="s">
         <v>718</v>
-      </c>
-      <c r="C32" t="s">
-        <v>710</v>
-      </c>
-      <c r="D32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E32" t="s">
-        <v>719</v>
       </c>
       <c r="F32" t="s">
         <v>498</v>
@@ -13524,33 +13568,33 @@
         <v>305</v>
       </c>
       <c r="H32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B33" t="s">
+        <v>720</v>
+      </c>
+      <c r="C33" t="s">
+        <v>709</v>
+      </c>
+      <c r="D33" t="s">
+        <v>705</v>
+      </c>
+      <c r="E33" t="s">
         <v>721</v>
-      </c>
-      <c r="C33" t="s">
-        <v>710</v>
-      </c>
-      <c r="D33" t="s">
-        <v>706</v>
-      </c>
-      <c r="E33" t="s">
-        <v>722</v>
       </c>
       <c r="F33" t="s">
         <v>498</v>
@@ -13559,33 +13603,33 @@
         <v>305</v>
       </c>
       <c r="H33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B34" t="s">
+        <v>723</v>
+      </c>
+      <c r="C34" t="s">
+        <v>709</v>
+      </c>
+      <c r="D34" t="s">
+        <v>705</v>
+      </c>
+      <c r="E34" t="s">
         <v>724</v>
-      </c>
-      <c r="C34" t="s">
-        <v>710</v>
-      </c>
-      <c r="D34" t="s">
-        <v>706</v>
-      </c>
-      <c r="E34" t="s">
-        <v>725</v>
       </c>
       <c r="F34" t="s">
         <v>498</v>
@@ -13594,33 +13638,33 @@
         <v>305</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B35" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" t="s">
+        <v>709</v>
+      </c>
+      <c r="D35" t="s">
+        <v>705</v>
+      </c>
+      <c r="E35" t="s">
         <v>726</v>
-      </c>
-      <c r="C35" t="s">
-        <v>710</v>
-      </c>
-      <c r="D35" t="s">
-        <v>706</v>
-      </c>
-      <c r="E35" t="s">
-        <v>727</v>
       </c>
       <c r="F35" t="s">
         <v>498</v>
@@ -13629,33 +13673,33 @@
         <v>305</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B36" t="s">
+        <v>728</v>
+      </c>
+      <c r="C36" t="s">
+        <v>709</v>
+      </c>
+      <c r="D36" t="s">
+        <v>705</v>
+      </c>
+      <c r="E36" t="s">
         <v>729</v>
-      </c>
-      <c r="C36" t="s">
-        <v>710</v>
-      </c>
-      <c r="D36" t="s">
-        <v>706</v>
-      </c>
-      <c r="E36" t="s">
-        <v>730</v>
       </c>
       <c r="F36" t="s">
         <v>498</v>
@@ -13664,33 +13708,33 @@
         <v>305</v>
       </c>
       <c r="H36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B37" t="s">
+        <v>731</v>
+      </c>
+      <c r="C37" t="s">
         <v>732</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E37" t="s">
         <v>733</v>
-      </c>
-      <c r="D37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E37" t="s">
-        <v>734</v>
       </c>
       <c r="F37" t="s">
         <v>498</v>
@@ -13699,33 +13743,33 @@
         <v>305</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B38" t="s">
+        <v>735</v>
+      </c>
+      <c r="C38" t="s">
         <v>736</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E38" t="s">
         <v>737</v>
-      </c>
-      <c r="D38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E38" t="s">
-        <v>738</v>
       </c>
       <c r="F38" t="s">
         <v>498</v>
@@ -13734,33 +13778,33 @@
         <v>305</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B39" t="s">
+        <v>739</v>
+      </c>
+      <c r="C39" t="s">
+        <v>736</v>
+      </c>
+      <c r="D39" t="s">
+        <v>705</v>
+      </c>
+      <c r="E39" t="s">
         <v>740</v>
-      </c>
-      <c r="C39" t="s">
-        <v>737</v>
-      </c>
-      <c r="D39" t="s">
-        <v>706</v>
-      </c>
-      <c r="E39" t="s">
-        <v>741</v>
       </c>
       <c r="F39" t="s">
         <v>498</v>
@@ -13769,33 +13813,33 @@
         <v>305</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B40" t="s">
+        <v>742</v>
+      </c>
+      <c r="C40" t="s">
         <v>743</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>705</v>
+      </c>
+      <c r="E40" t="s">
         <v>744</v>
-      </c>
-      <c r="D40" t="s">
-        <v>706</v>
-      </c>
-      <c r="E40" t="s">
-        <v>745</v>
       </c>
       <c r="F40" t="s">
         <v>498</v>
@@ -13804,33 +13848,33 @@
         <v>305</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B41" t="s">
+        <v>745</v>
+      </c>
+      <c r="C41" t="s">
         <v>746</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>705</v>
+      </c>
+      <c r="E41" t="s">
         <v>747</v>
-      </c>
-      <c r="D41" t="s">
-        <v>706</v>
-      </c>
-      <c r="E41" t="s">
-        <v>748</v>
       </c>
       <c r="F41" t="s">
         <v>498</v>
@@ -13839,33 +13883,33 @@
         <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B42" t="s">
+        <v>749</v>
+      </c>
+      <c r="C42" t="s">
+        <v>746</v>
+      </c>
+      <c r="D42" t="s">
+        <v>705</v>
+      </c>
+      <c r="E42" t="s">
         <v>750</v>
-      </c>
-      <c r="C42" t="s">
-        <v>747</v>
-      </c>
-      <c r="D42" t="s">
-        <v>706</v>
-      </c>
-      <c r="E42" t="s">
-        <v>751</v>
       </c>
       <c r="F42" t="s">
         <v>498</v>
@@ -13874,33 +13918,33 @@
         <v>305</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B43" t="s">
+        <v>752</v>
+      </c>
+      <c r="C43" t="s">
+        <v>746</v>
+      </c>
+      <c r="D43" t="s">
+        <v>705</v>
+      </c>
+      <c r="E43" t="s">
         <v>753</v>
-      </c>
-      <c r="C43" t="s">
-        <v>747</v>
-      </c>
-      <c r="D43" t="s">
-        <v>706</v>
-      </c>
-      <c r="E43" t="s">
-        <v>754</v>
       </c>
       <c r="F43" t="s">
         <v>498</v>
@@ -13909,33 +13953,33 @@
         <v>305</v>
       </c>
       <c r="H43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B44" t="s">
+        <v>755</v>
+      </c>
+      <c r="C44" t="s">
+        <v>746</v>
+      </c>
+      <c r="D44" t="s">
+        <v>705</v>
+      </c>
+      <c r="E44" t="s">
         <v>756</v>
-      </c>
-      <c r="C44" t="s">
-        <v>747</v>
-      </c>
-      <c r="D44" t="s">
-        <v>706</v>
-      </c>
-      <c r="E44" t="s">
-        <v>757</v>
       </c>
       <c r="F44" t="s">
         <v>498</v>
@@ -13944,33 +13988,33 @@
         <v>305</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I44" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C45" t="s">
         <v>759</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>705</v>
+      </c>
+      <c r="E45" t="s">
         <v>760</v>
-      </c>
-      <c r="D45" t="s">
-        <v>706</v>
-      </c>
-      <c r="E45" t="s">
-        <v>761</v>
       </c>
       <c r="F45" t="s">
         <v>498</v>
@@ -13979,33 +14023,33 @@
         <v>305</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B46" t="s">
+        <v>762</v>
+      </c>
+      <c r="C46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D46" t="s">
+        <v>705</v>
+      </c>
+      <c r="E46" t="s">
         <v>763</v>
-      </c>
-      <c r="C46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D46" t="s">
-        <v>706</v>
-      </c>
-      <c r="E46" t="s">
-        <v>764</v>
       </c>
       <c r="F46" t="s">
         <v>498</v>
@@ -14014,33 +14058,33 @@
         <v>305</v>
       </c>
       <c r="H46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B47" t="s">
+        <v>765</v>
+      </c>
+      <c r="C47" t="s">
+        <v>759</v>
+      </c>
+      <c r="D47" t="s">
+        <v>705</v>
+      </c>
+      <c r="E47" t="s">
         <v>766</v>
-      </c>
-      <c r="C47" t="s">
-        <v>760</v>
-      </c>
-      <c r="D47" t="s">
-        <v>706</v>
-      </c>
-      <c r="E47" t="s">
-        <v>767</v>
       </c>
       <c r="F47" t="s">
         <v>498</v>
@@ -14049,33 +14093,33 @@
         <v>305</v>
       </c>
       <c r="H47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I47" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B48" t="s">
+        <v>767</v>
+      </c>
+      <c r="C48" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" t="s">
+        <v>705</v>
+      </c>
+      <c r="E48" t="s">
         <v>768</v>
-      </c>
-      <c r="C48" t="s">
-        <v>760</v>
-      </c>
-      <c r="D48" t="s">
-        <v>706</v>
-      </c>
-      <c r="E48" t="s">
-        <v>769</v>
       </c>
       <c r="F48" t="s">
         <v>498</v>
@@ -14084,33 +14128,33 @@
         <v>305</v>
       </c>
       <c r="H48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B49" t="s">
+        <v>770</v>
+      </c>
+      <c r="C49" t="s">
         <v>771</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>705</v>
+      </c>
+      <c r="E49" t="s">
         <v>772</v>
-      </c>
-      <c r="D49" t="s">
-        <v>706</v>
-      </c>
-      <c r="E49" t="s">
-        <v>773</v>
       </c>
       <c r="F49" t="s">
         <v>498</v>
@@ -14119,33 +14163,33 @@
         <v>305</v>
       </c>
       <c r="H49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B50" t="s">
+        <v>774</v>
+      </c>
+      <c r="C50" t="s">
         <v>775</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" t="s">
         <v>776</v>
-      </c>
-      <c r="D50" t="s">
-        <v>706</v>
-      </c>
-      <c r="E50" t="s">
-        <v>777</v>
       </c>
       <c r="F50" t="s">
         <v>498</v>
@@ -14154,33 +14198,33 @@
         <v>305</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I50" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B51" t="s">
+        <v>778</v>
+      </c>
+      <c r="C51" t="s">
         <v>779</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>705</v>
+      </c>
+      <c r="E51" t="s">
         <v>780</v>
-      </c>
-      <c r="D51" t="s">
-        <v>706</v>
-      </c>
-      <c r="E51" t="s">
-        <v>781</v>
       </c>
       <c r="F51" t="s">
         <v>498</v>
@@ -14189,33 +14233,33 @@
         <v>305</v>
       </c>
       <c r="H51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I51" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B52" t="s">
+        <v>782</v>
+      </c>
+      <c r="C52" t="s">
         <v>783</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>705</v>
+      </c>
+      <c r="E52" t="s">
         <v>784</v>
-      </c>
-      <c r="D52" t="s">
-        <v>706</v>
-      </c>
-      <c r="E52" t="s">
-        <v>785</v>
       </c>
       <c r="F52" t="s">
         <v>498</v>
@@ -14224,33 +14268,33 @@
         <v>305</v>
       </c>
       <c r="H52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I52" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B53" t="s">
+        <v>786</v>
+      </c>
+      <c r="C53" t="s">
         <v>787</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>705</v>
+      </c>
+      <c r="E53" t="s">
         <v>788</v>
-      </c>
-      <c r="D53" t="s">
-        <v>706</v>
-      </c>
-      <c r="E53" t="s">
-        <v>789</v>
       </c>
       <c r="F53" t="s">
         <v>498</v>
@@ -14259,33 +14303,33 @@
         <v>305</v>
       </c>
       <c r="H53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B54" t="s">
+        <v>790</v>
+      </c>
+      <c r="C54" t="s">
         <v>791</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>705</v>
+      </c>
+      <c r="E54" t="s">
         <v>792</v>
-      </c>
-      <c r="D54" t="s">
-        <v>706</v>
-      </c>
-      <c r="E54" t="s">
-        <v>793</v>
       </c>
       <c r="F54" t="s">
         <v>498</v>
@@ -14294,33 +14338,33 @@
         <v>305</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I54" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B55" t="s">
+        <v>794</v>
+      </c>
+      <c r="C55" t="s">
         <v>795</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>705</v>
+      </c>
+      <c r="E55" t="s">
         <v>796</v>
-      </c>
-      <c r="D55" t="s">
-        <v>706</v>
-      </c>
-      <c r="E55" t="s">
-        <v>797</v>
       </c>
       <c r="F55" t="s">
         <v>498</v>
@@ -14329,33 +14373,33 @@
         <v>305</v>
       </c>
       <c r="H55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B56" t="s">
+        <v>798</v>
+      </c>
+      <c r="C56" t="s">
+        <v>795</v>
+      </c>
+      <c r="D56" t="s">
+        <v>705</v>
+      </c>
+      <c r="E56" t="s">
         <v>799</v>
-      </c>
-      <c r="C56" t="s">
-        <v>796</v>
-      </c>
-      <c r="D56" t="s">
-        <v>706</v>
-      </c>
-      <c r="E56" t="s">
-        <v>800</v>
       </c>
       <c r="F56" t="s">
         <v>498</v>
@@ -14364,33 +14408,33 @@
         <v>305</v>
       </c>
       <c r="H56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I56" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B57" t="s">
+        <v>800</v>
+      </c>
+      <c r="C57" t="s">
+        <v>795</v>
+      </c>
+      <c r="D57" t="s">
+        <v>705</v>
+      </c>
+      <c r="E57" t="s">
         <v>801</v>
-      </c>
-      <c r="C57" t="s">
-        <v>796</v>
-      </c>
-      <c r="D57" t="s">
-        <v>706</v>
-      </c>
-      <c r="E57" t="s">
-        <v>802</v>
       </c>
       <c r="F57" t="s">
         <v>498</v>
@@ -14399,33 +14443,33 @@
         <v>305</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B58" t="s">
+        <v>803</v>
+      </c>
+      <c r="C58" t="s">
         <v>804</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>705</v>
+      </c>
+      <c r="E58" t="s">
         <v>805</v>
-      </c>
-      <c r="D58" t="s">
-        <v>706</v>
-      </c>
-      <c r="E58" t="s">
-        <v>806</v>
       </c>
       <c r="F58" t="s">
         <v>498</v>
@@ -14434,33 +14478,33 @@
         <v>305</v>
       </c>
       <c r="H58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B59" t="s">
+        <v>807</v>
+      </c>
+      <c r="C59" t="s">
+        <v>804</v>
+      </c>
+      <c r="D59" t="s">
+        <v>705</v>
+      </c>
+      <c r="E59" t="s">
         <v>808</v>
-      </c>
-      <c r="C59" t="s">
-        <v>805</v>
-      </c>
-      <c r="D59" t="s">
-        <v>706</v>
-      </c>
-      <c r="E59" t="s">
-        <v>809</v>
       </c>
       <c r="F59" t="s">
         <v>498</v>
@@ -14469,33 +14513,33 @@
         <v>305</v>
       </c>
       <c r="H59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I59" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B60" t="s">
+        <v>810</v>
+      </c>
+      <c r="C60" t="s">
+        <v>804</v>
+      </c>
+      <c r="D60" t="s">
+        <v>705</v>
+      </c>
+      <c r="E60" t="s">
         <v>811</v>
-      </c>
-      <c r="C60" t="s">
-        <v>805</v>
-      </c>
-      <c r="D60" t="s">
-        <v>706</v>
-      </c>
-      <c r="E60" t="s">
-        <v>812</v>
       </c>
       <c r="F60" t="s">
         <v>498</v>
@@ -14504,33 +14548,33 @@
         <v>305</v>
       </c>
       <c r="H60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B61" t="s">
+        <v>813</v>
+      </c>
+      <c r="C61" t="s">
+        <v>804</v>
+      </c>
+      <c r="D61" t="s">
+        <v>705</v>
+      </c>
+      <c r="E61" t="s">
         <v>814</v>
-      </c>
-      <c r="C61" t="s">
-        <v>805</v>
-      </c>
-      <c r="D61" t="s">
-        <v>706</v>
-      </c>
-      <c r="E61" t="s">
-        <v>815</v>
       </c>
       <c r="F61" t="s">
         <v>498</v>
@@ -14539,33 +14583,33 @@
         <v>305</v>
       </c>
       <c r="H61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B62" t="s">
+        <v>816</v>
+      </c>
+      <c r="C62" t="s">
         <v>817</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>705</v>
+      </c>
+      <c r="E62" t="s">
         <v>818</v>
-      </c>
-      <c r="D62" t="s">
-        <v>706</v>
-      </c>
-      <c r="E62" t="s">
-        <v>819</v>
       </c>
       <c r="F62" t="s">
         <v>498</v>
@@ -14574,33 +14618,33 @@
         <v>305</v>
       </c>
       <c r="H62" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I62" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B63" t="s">
+        <v>820</v>
+      </c>
+      <c r="C63" t="s">
+        <v>817</v>
+      </c>
+      <c r="D63" t="s">
+        <v>705</v>
+      </c>
+      <c r="E63" t="s">
         <v>821</v>
-      </c>
-      <c r="C63" t="s">
-        <v>818</v>
-      </c>
-      <c r="D63" t="s">
-        <v>706</v>
-      </c>
-      <c r="E63" t="s">
-        <v>822</v>
       </c>
       <c r="F63" t="s">
         <v>498</v>
@@ -14609,33 +14653,33 @@
         <v>305</v>
       </c>
       <c r="H63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B64" t="s">
+        <v>822</v>
+      </c>
+      <c r="C64" t="s">
         <v>823</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>705</v>
+      </c>
+      <c r="E64" t="s">
         <v>824</v>
-      </c>
-      <c r="D64" t="s">
-        <v>706</v>
-      </c>
-      <c r="E64" t="s">
-        <v>825</v>
       </c>
       <c r="F64" t="s">
         <v>498</v>
@@ -14644,33 +14688,33 @@
         <v>305</v>
       </c>
       <c r="H64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I64" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B65" t="s">
+        <v>826</v>
+      </c>
+      <c r="C65" t="s">
+        <v>823</v>
+      </c>
+      <c r="D65" t="s">
+        <v>705</v>
+      </c>
+      <c r="E65" t="s">
         <v>827</v>
-      </c>
-      <c r="C65" t="s">
-        <v>824</v>
-      </c>
-      <c r="D65" t="s">
-        <v>706</v>
-      </c>
-      <c r="E65" t="s">
-        <v>828</v>
       </c>
       <c r="F65" t="s">
         <v>498</v>
@@ -14679,33 +14723,33 @@
         <v>305</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I65" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B66" t="s">
+        <v>829</v>
+      </c>
+      <c r="C66" t="s">
         <v>830</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>705</v>
+      </c>
+      <c r="E66" t="s">
         <v>831</v>
-      </c>
-      <c r="D66" t="s">
-        <v>706</v>
-      </c>
-      <c r="E66" t="s">
-        <v>832</v>
       </c>
       <c r="F66" t="s">
         <v>498</v>
@@ -14714,33 +14758,33 @@
         <v>305</v>
       </c>
       <c r="H66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I66" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B67" t="s">
+        <v>833</v>
+      </c>
+      <c r="C67" t="s">
         <v>834</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>705</v>
+      </c>
+      <c r="E67" t="s">
         <v>835</v>
-      </c>
-      <c r="D67" t="s">
-        <v>706</v>
-      </c>
-      <c r="E67" t="s">
-        <v>836</v>
       </c>
       <c r="F67" t="s">
         <v>498</v>
@@ -14749,33 +14793,33 @@
         <v>305</v>
       </c>
       <c r="H67" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B68" t="s">
+        <v>837</v>
+      </c>
+      <c r="C68" t="s">
+        <v>830</v>
+      </c>
+      <c r="D68" t="s">
+        <v>705</v>
+      </c>
+      <c r="E68" t="s">
         <v>838</v>
-      </c>
-      <c r="C68" t="s">
-        <v>831</v>
-      </c>
-      <c r="D68" t="s">
-        <v>706</v>
-      </c>
-      <c r="E68" t="s">
-        <v>839</v>
       </c>
       <c r="F68" t="s">
         <v>498</v>
@@ -14784,33 +14828,33 @@
         <v>305</v>
       </c>
       <c r="H68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I68" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B69" t="s">
+        <v>840</v>
+      </c>
+      <c r="C69" t="s">
+        <v>834</v>
+      </c>
+      <c r="D69" t="s">
+        <v>705</v>
+      </c>
+      <c r="E69" t="s">
         <v>841</v>
-      </c>
-      <c r="C69" t="s">
-        <v>835</v>
-      </c>
-      <c r="D69" t="s">
-        <v>706</v>
-      </c>
-      <c r="E69" t="s">
-        <v>842</v>
       </c>
       <c r="F69" t="s">
         <v>498</v>
@@ -14819,33 +14863,33 @@
         <v>305</v>
       </c>
       <c r="H69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B70" t="s">
+        <v>842</v>
+      </c>
+      <c r="C70" t="s">
+        <v>834</v>
+      </c>
+      <c r="D70" t="s">
+        <v>705</v>
+      </c>
+      <c r="E70" t="s">
         <v>843</v>
-      </c>
-      <c r="C70" t="s">
-        <v>835</v>
-      </c>
-      <c r="D70" t="s">
-        <v>706</v>
-      </c>
-      <c r="E70" t="s">
-        <v>844</v>
       </c>
       <c r="F70" t="s">
         <v>498</v>
@@ -14854,33 +14898,33 @@
         <v>305</v>
       </c>
       <c r="H70" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I70" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B71" t="s">
+        <v>845</v>
+      </c>
+      <c r="C71" t="s">
         <v>846</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>705</v>
+      </c>
+      <c r="E71" t="s">
         <v>847</v>
-      </c>
-      <c r="D71" t="s">
-        <v>706</v>
-      </c>
-      <c r="E71" t="s">
-        <v>848</v>
       </c>
       <c r="F71" t="s">
         <v>498</v>
@@ -14889,33 +14933,33 @@
         <v>305</v>
       </c>
       <c r="H71" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I71" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B72" t="s">
+        <v>849</v>
+      </c>
+      <c r="C72" t="s">
+        <v>846</v>
+      </c>
+      <c r="D72" t="s">
+        <v>705</v>
+      </c>
+      <c r="E72" t="s">
         <v>850</v>
-      </c>
-      <c r="C72" t="s">
-        <v>847</v>
-      </c>
-      <c r="D72" t="s">
-        <v>706</v>
-      </c>
-      <c r="E72" t="s">
-        <v>851</v>
       </c>
       <c r="F72" t="s">
         <v>498</v>
@@ -14924,33 +14968,33 @@
         <v>305</v>
       </c>
       <c r="H72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I72" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B73" t="s">
+        <v>852</v>
+      </c>
+      <c r="C73" t="s">
         <v>853</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>705</v>
+      </c>
+      <c r="E73" t="s">
         <v>854</v>
-      </c>
-      <c r="D73" t="s">
-        <v>706</v>
-      </c>
-      <c r="E73" t="s">
-        <v>855</v>
       </c>
       <c r="F73" t="s">
         <v>498</v>
@@ -14959,33 +15003,33 @@
         <v>305</v>
       </c>
       <c r="H73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B74" t="s">
+        <v>856</v>
+      </c>
+      <c r="C74" t="s">
+        <v>853</v>
+      </c>
+      <c r="D74" t="s">
+        <v>705</v>
+      </c>
+      <c r="E74" t="s">
         <v>857</v>
-      </c>
-      <c r="C74" t="s">
-        <v>854</v>
-      </c>
-      <c r="D74" t="s">
-        <v>706</v>
-      </c>
-      <c r="E74" t="s">
-        <v>858</v>
       </c>
       <c r="F74" t="s">
         <v>498</v>
@@ -14994,33 +15038,33 @@
         <v>305</v>
       </c>
       <c r="H74" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I74" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B75" t="s">
+        <v>858</v>
+      </c>
+      <c r="C75" t="s">
         <v>859</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>705</v>
+      </c>
+      <c r="E75" t="s">
         <v>860</v>
-      </c>
-      <c r="D75" t="s">
-        <v>706</v>
-      </c>
-      <c r="E75" t="s">
-        <v>861</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
@@ -15029,33 +15073,33 @@
         <v>305</v>
       </c>
       <c r="H75" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I75" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B76" t="s">
+        <v>862</v>
+      </c>
+      <c r="C76" t="s">
+        <v>859</v>
+      </c>
+      <c r="D76" t="s">
+        <v>705</v>
+      </c>
+      <c r="E76" t="s">
         <v>863</v>
-      </c>
-      <c r="C76" t="s">
-        <v>860</v>
-      </c>
-      <c r="D76" t="s">
-        <v>706</v>
-      </c>
-      <c r="E76" t="s">
-        <v>864</v>
       </c>
       <c r="F76" t="s">
         <v>498</v>
@@ -15064,33 +15108,33 @@
         <v>305</v>
       </c>
       <c r="H76" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I76" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B77" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E77" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F77" t="s">
         <v>498</v>
@@ -15099,33 +15143,33 @@
         <v>433</v>
       </c>
       <c r="H77" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I77" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B78" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E78" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F78" t="s">
         <v>498</v>
@@ -15134,33 +15178,33 @@
         <v>305</v>
       </c>
       <c r="H78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I78" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B79" t="s">
+        <v>871</v>
+      </c>
+      <c r="C79" t="s">
+        <v>709</v>
+      </c>
+      <c r="D79" t="s">
+        <v>705</v>
+      </c>
+      <c r="E79" t="s">
         <v>872</v>
-      </c>
-      <c r="C79" t="s">
-        <v>710</v>
-      </c>
-      <c r="D79" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" t="s">
-        <v>873</v>
       </c>
       <c r="F79" t="s">
         <v>498</v>
@@ -15169,33 +15213,33 @@
         <v>305</v>
       </c>
       <c r="H79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I79" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B80" t="s">
+        <v>874</v>
+      </c>
+      <c r="C80" t="s">
+        <v>709</v>
+      </c>
+      <c r="D80" t="s">
+        <v>705</v>
+      </c>
+      <c r="E80" t="s">
         <v>875</v>
-      </c>
-      <c r="C80" t="s">
-        <v>710</v>
-      </c>
-      <c r="D80" t="s">
-        <v>706</v>
-      </c>
-      <c r="E80" t="s">
-        <v>876</v>
       </c>
       <c r="F80" t="s">
         <v>498</v>
@@ -15204,33 +15248,33 @@
         <v>305</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I80" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B81" t="s">
+        <v>877</v>
+      </c>
+      <c r="C81" t="s">
+        <v>736</v>
+      </c>
+      <c r="D81" t="s">
+        <v>705</v>
+      </c>
+      <c r="E81" t="s">
         <v>878</v>
-      </c>
-      <c r="C81" t="s">
-        <v>737</v>
-      </c>
-      <c r="D81" t="s">
-        <v>706</v>
-      </c>
-      <c r="E81" t="s">
-        <v>879</v>
       </c>
       <c r="F81" t="s">
         <v>498</v>
@@ -15239,33 +15283,33 @@
         <v>305</v>
       </c>
       <c r="H81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B82" t="s">
+        <v>880</v>
+      </c>
+      <c r="C82" t="s">
+        <v>743</v>
+      </c>
+      <c r="D82" t="s">
+        <v>705</v>
+      </c>
+      <c r="E82" t="s">
         <v>881</v>
-      </c>
-      <c r="C82" t="s">
-        <v>744</v>
-      </c>
-      <c r="D82" t="s">
-        <v>706</v>
-      </c>
-      <c r="E82" t="s">
-        <v>882</v>
       </c>
       <c r="F82" t="s">
         <v>498</v>
@@ -15274,33 +15318,33 @@
         <v>305</v>
       </c>
       <c r="H82" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B83" t="s">
+        <v>883</v>
+      </c>
+      <c r="C83" t="s">
+        <v>859</v>
+      </c>
+      <c r="D83" t="s">
+        <v>705</v>
+      </c>
+      <c r="E83" t="s">
         <v>884</v>
-      </c>
-      <c r="C83" t="s">
-        <v>860</v>
-      </c>
-      <c r="D83" t="s">
-        <v>706</v>
-      </c>
-      <c r="E83" t="s">
-        <v>885</v>
       </c>
       <c r="F83" t="s">
         <v>498</v>
@@ -15309,33 +15353,33 @@
         <v>305</v>
       </c>
       <c r="H83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B84" t="s">
+        <v>886</v>
+      </c>
+      <c r="C84" t="s">
         <v>887</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>888</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>889</v>
-      </c>
-      <c r="E84" t="s">
-        <v>890</v>
       </c>
       <c r="F84" t="s">
         <v>498</v>
@@ -15344,33 +15388,33 @@
         <v>433</v>
       </c>
       <c r="H84" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I84" t="s">
         <v>20</v>
       </c>
       <c r="J84" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B85" t="s">
+        <v>891</v>
+      </c>
+      <c r="C85" t="s">
         <v>892</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>893</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>894</v>
-      </c>
-      <c r="E85" t="s">
-        <v>895</v>
       </c>
       <c r="F85" t="s">
         <v>498</v>
@@ -15379,33 +15423,33 @@
         <v>433</v>
       </c>
       <c r="H85" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B86" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
+        <v>897</v>
+      </c>
+      <c r="E86" t="s">
         <v>898</v>
-      </c>
-      <c r="E86" t="s">
-        <v>899</v>
       </c>
       <c r="F86" t="s">
         <v>498</v>
@@ -15414,33 +15458,33 @@
         <v>305</v>
       </c>
       <c r="H86" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I86" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B87" t="s">
+        <v>900</v>
+      </c>
+      <c r="C87" t="s">
         <v>901</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>897</v>
+      </c>
+      <c r="E87" t="s">
         <v>902</v>
-      </c>
-      <c r="D87" t="s">
-        <v>898</v>
-      </c>
-      <c r="E87" t="s">
-        <v>903</v>
       </c>
       <c r="F87" t="s">
         <v>498</v>
@@ -15449,33 +15493,33 @@
         <v>305</v>
       </c>
       <c r="H87" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I87" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B88" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E88" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F88" t="s">
         <v>498</v>
@@ -15484,33 +15528,33 @@
         <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B89" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E89" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F89" t="s">
         <v>498</v>
@@ -15519,33 +15563,33 @@
         <v>305</v>
       </c>
       <c r="H89" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I89" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B90" t="s">
+        <v>910</v>
+      </c>
+      <c r="C90" t="s">
+        <v>775</v>
+      </c>
+      <c r="D90" t="s">
+        <v>897</v>
+      </c>
+      <c r="E90" t="s">
         <v>911</v>
-      </c>
-      <c r="C90" t="s">
-        <v>776</v>
-      </c>
-      <c r="D90" t="s">
-        <v>898</v>
-      </c>
-      <c r="E90" t="s">
-        <v>912</v>
       </c>
       <c r="F90" t="s">
         <v>498</v>
@@ -15554,33 +15598,33 @@
         <v>305</v>
       </c>
       <c r="H90" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I90" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B91" t="s">
+        <v>913</v>
+      </c>
+      <c r="C91" t="s">
+        <v>834</v>
+      </c>
+      <c r="D91" t="s">
+        <v>897</v>
+      </c>
+      <c r="E91" t="s">
         <v>914</v>
-      </c>
-      <c r="C91" t="s">
-        <v>835</v>
-      </c>
-      <c r="D91" t="s">
-        <v>898</v>
-      </c>
-      <c r="E91" t="s">
-        <v>915</v>
       </c>
       <c r="F91" t="s">
         <v>498</v>
@@ -15589,33 +15633,33 @@
         <v>305</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I91" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B92" t="s">
+        <v>916</v>
+      </c>
+      <c r="C92" t="s">
         <v>917</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>897</v>
+      </c>
+      <c r="E92" t="s">
         <v>918</v>
-      </c>
-      <c r="D92" t="s">
-        <v>898</v>
-      </c>
-      <c r="E92" t="s">
-        <v>919</v>
       </c>
       <c r="F92" t="s">
         <v>498</v>
@@ -15624,33 +15668,33 @@
         <v>305</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B93" t="s">
+        <v>920</v>
+      </c>
+      <c r="C93" t="s">
+        <v>917</v>
+      </c>
+      <c r="D93" t="s">
+        <v>897</v>
+      </c>
+      <c r="E93" t="s">
         <v>921</v>
-      </c>
-      <c r="C93" t="s">
-        <v>918</v>
-      </c>
-      <c r="D93" t="s">
-        <v>898</v>
-      </c>
-      <c r="E93" t="s">
-        <v>922</v>
       </c>
       <c r="F93" t="s">
         <v>498</v>
@@ -15659,33 +15703,33 @@
         <v>305</v>
       </c>
       <c r="H93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I93" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B94" t="s">
+        <v>923</v>
+      </c>
+      <c r="C94" t="s">
         <v>924</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>897</v>
+      </c>
+      <c r="E94" t="s">
         <v>925</v>
-      </c>
-      <c r="D94" t="s">
-        <v>898</v>
-      </c>
-      <c r="E94" t="s">
-        <v>926</v>
       </c>
       <c r="F94" t="s">
         <v>498</v>
@@ -15694,30 +15738,30 @@
         <v>305</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I94" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B95" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -15726,33 +15770,33 @@
         <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
       </c>
       <c r="J95" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>934</v>
+      </c>
+      <c r="B96" t="s">
+        <v>931</v>
+      </c>
+      <c r="C96" t="s">
+        <v>932</v>
+      </c>
+      <c r="E96" t="s">
+        <v>933</v>
+      </c>
+      <c r="F96" t="s">
         <v>935</v>
-      </c>
-      <c r="B96" t="s">
-        <v>932</v>
-      </c>
-      <c r="C96" t="s">
-        <v>933</v>
-      </c>
-      <c r="E96" t="s">
-        <v>934</v>
-      </c>
-      <c r="F96" t="s">
-        <v>936</v>
       </c>
       <c r="G96" t="s">
         <v>305</v>
@@ -15764,24 +15808,24 @@
         <v>20</v>
       </c>
       <c r="J96" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="K96" s="3" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B97" t="s">
+        <v>936</v>
+      </c>
+      <c r="C97" t="s">
         <v>937</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>938</v>
-      </c>
-      <c r="E97" t="s">
-        <v>939</v>
       </c>
       <c r="F97" t="s">
         <v>37</v>
@@ -15796,24 +15840,24 @@
         <v>20</v>
       </c>
       <c r="J97" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B98" t="s">
+        <v>940</v>
+      </c>
+      <c r="C98" t="s">
         <v>941</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>942</v>
-      </c>
-      <c r="E98" t="s">
-        <v>943</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -15828,24 +15872,24 @@
         <v>20</v>
       </c>
       <c r="J98" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B99" t="s">
+        <v>944</v>
+      </c>
+      <c r="C99" t="s">
         <v>945</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>946</v>
-      </c>
-      <c r="E99" t="s">
-        <v>947</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -15860,24 +15904,24 @@
         <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B100" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
@@ -15892,24 +15936,24 @@
         <v>20</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B101" t="s">
+        <v>951</v>
+      </c>
+      <c r="C101" t="s">
         <v>952</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>953</v>
-      </c>
-      <c r="E101" t="s">
-        <v>954</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -15924,24 +15968,24 @@
         <v>20</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B102" t="s">
+        <v>955</v>
+      </c>
+      <c r="C102" t="s">
         <v>956</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>957</v>
-      </c>
-      <c r="E102" t="s">
-        <v>958</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -15956,24 +16000,24 @@
         <v>20</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B103" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C103" t="s">
+        <v>959</v>
+      </c>
+      <c r="E103" t="s">
         <v>960</v>
-      </c>
-      <c r="E103" t="s">
-        <v>961</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -15988,24 +16032,24 @@
         <v>20</v>
       </c>
       <c r="J103" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B104" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C104" t="s">
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -16020,24 +16064,24 @@
         <v>20</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B105" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C105" t="s">
         <v>399</v>
       </c>
       <c r="E105" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -16052,24 +16096,24 @@
         <v>20</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B106" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C106" t="s">
+        <v>966</v>
+      </c>
+      <c r="E106" t="s">
         <v>967</v>
-      </c>
-      <c r="E106" t="s">
-        <v>968</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -16084,24 +16128,24 @@
         <v>20</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B107" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C107" t="s">
+        <v>969</v>
+      </c>
+      <c r="E107" t="s">
         <v>970</v>
-      </c>
-      <c r="E107" t="s">
-        <v>971</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -16116,24 +16160,24 @@
         <v>20</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B108" t="s">
+        <v>972</v>
+      </c>
+      <c r="C108" t="s">
         <v>973</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>974</v>
-      </c>
-      <c r="E108" t="s">
-        <v>975</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -16148,24 +16192,24 @@
         <v>20</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B109" t="s">
+        <v>976</v>
+      </c>
+      <c r="C109" t="s">
+        <v>973</v>
+      </c>
+      <c r="E109" t="s">
         <v>977</v>
-      </c>
-      <c r="C109" t="s">
-        <v>974</v>
-      </c>
-      <c r="E109" t="s">
-        <v>978</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -16180,24 +16224,24 @@
         <v>20</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B110" t="s">
+        <v>979</v>
+      </c>
+      <c r="C110" t="s">
         <v>980</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>981</v>
-      </c>
-      <c r="E110" t="s">
-        <v>982</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
@@ -16212,24 +16256,24 @@
         <v>20</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B111" t="s">
+        <v>983</v>
+      </c>
+      <c r="C111" t="s">
+        <v>980</v>
+      </c>
+      <c r="E111" t="s">
         <v>984</v>
-      </c>
-      <c r="C111" t="s">
-        <v>981</v>
-      </c>
-      <c r="E111" t="s">
-        <v>985</v>
       </c>
       <c r="F111" t="s">
         <v>37</v>
@@ -16244,24 +16288,24 @@
         <v>20</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B112" t="s">
+        <v>986</v>
+      </c>
+      <c r="C112" t="s">
         <v>987</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>988</v>
-      </c>
-      <c r="E112" t="s">
-        <v>989</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -16276,24 +16320,24 @@
         <v>20</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B113" t="s">
+        <v>990</v>
+      </c>
+      <c r="C113" t="s">
+        <v>987</v>
+      </c>
+      <c r="E113" t="s">
         <v>991</v>
-      </c>
-      <c r="C113" t="s">
-        <v>988</v>
-      </c>
-      <c r="E113" t="s">
-        <v>992</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -16308,24 +16352,24 @@
         <v>20</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B114" t="s">
+        <v>993</v>
+      </c>
+      <c r="C114" t="s">
         <v>994</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>995</v>
-      </c>
-      <c r="E114" t="s">
-        <v>996</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -16340,24 +16384,24 @@
         <v>20</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B115" t="s">
+        <v>997</v>
+      </c>
+      <c r="C115" t="s">
+        <v>994</v>
+      </c>
+      <c r="E115" t="s">
         <v>998</v>
-      </c>
-      <c r="C115" t="s">
-        <v>995</v>
-      </c>
-      <c r="E115" t="s">
-        <v>999</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -16372,24 +16416,24 @@
         <v>20</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B116" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C116" t="s">
         <v>1001</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>1002</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1003</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -16404,24 +16448,24 @@
         <v>20</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B117" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E117" t="s">
         <v>1005</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1006</v>
       </c>
       <c r="F117" t="s">
         <v>37</v>
@@ -16436,24 +16480,24 @@
         <v>20</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B118" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C118" t="s">
         <v>1008</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>1009</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1010</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -16468,24 +16512,24 @@
         <v>20</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B119" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C119" t="s">
         <v>1012</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>1013</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1014</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
@@ -16500,24 +16544,24 @@
         <v>20</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B120" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C120" t="s">
         <v>1016</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>1017</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1018</v>
       </c>
       <c r="F120" t="s">
         <v>37</v>
@@ -16532,24 +16576,24 @@
         <v>20</v>
       </c>
       <c r="J120" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="K120" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B121" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C121" t="s">
         <v>1020</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>1021</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1022</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -16564,24 +16608,24 @@
         <v>20</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B122" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C122" t="s">
         <v>1024</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>1025</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1026</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -16596,24 +16640,24 @@
         <v>20</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B123" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C123" t="s">
         <v>1028</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>1029</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1030</v>
       </c>
       <c r="F123" t="s">
         <v>37</v>
@@ -16628,24 +16672,24 @@
         <v>20</v>
       </c>
       <c r="J123" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="K123" s="3" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B124" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E124" t="s">
         <v>1032</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1033</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -16660,24 +16704,24 @@
         <v>20</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B125" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C125" t="s">
         <v>1035</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>1036</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1037</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -16692,24 +16736,24 @@
         <v>20</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B126" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C126" t="s">
         <v>1039</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>1040</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1041</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -16724,24 +16768,24 @@
         <v>20</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B127" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E127" t="s">
         <v>1043</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1044</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -16756,24 +16800,24 @@
         <v>20</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B128" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C128" t="s">
         <v>1046</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>1047</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1048</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -16788,24 +16832,24 @@
         <v>20</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B129" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E129" t="s">
         <v>1050</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1051</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -16820,24 +16864,24 @@
         <v>20</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B130" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -16852,24 +16896,24 @@
         <v>20</v>
       </c>
       <c r="J130" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K130" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="K130" s="3" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B131" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C131" t="s">
         <v>1056</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>1057</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1058</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -16884,24 +16928,24 @@
         <v>20</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B132" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C132" t="s">
         <v>1060</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>1061</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1062</v>
       </c>
       <c r="F132" t="s">
         <v>37</v>
@@ -16916,24 +16960,24 @@
         <v>20</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B133" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C133" t="s">
         <v>1064</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>1065</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1066</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
@@ -16948,24 +16992,24 @@
         <v>20</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B134" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C134" t="s">
         <v>1068</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>1069</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1070</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -16980,24 +17024,24 @@
         <v>20</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B135" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F135" t="s">
         <v>37</v>
@@ -17012,24 +17056,24 @@
         <v>20</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B136" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C136" t="s">
         <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F136" t="s">
         <v>37</v>
@@ -17044,24 +17088,24 @@
         <v>20</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B137" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C137" t="s">
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -17076,24 +17120,24 @@
         <v>20</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B138" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C138" t="s">
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F138" t="s">
         <v>37</v>
@@ -17108,21 +17152,13 @@
         <v>20</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K138" xr:uid="{953FDB0D-0C7B-42B3-9DBB-918B89E6E841}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="The Office of Industrial Economics (OIE)"/>
-        <filter val="University of the Thai Chamber of Commerce (UTCC)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17183,19 +17219,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D2" t="s">
         <v>1083</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1084</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1085</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -17204,10 +17240,10 @@
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -17271,19 +17307,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C2" t="s">
         <v>1082</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1083</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1084</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1085</v>
       </c>
       <c r="F2" t="s">
         <v>498</v>
@@ -17292,10 +17328,10 @@
         <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
